--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Mehedi</t>
   </si>
@@ -92,12 +92,21 @@
   <si>
     <t>Net Total</t>
   </si>
+  <si>
+    <t xml:space="preserve">Somon </t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +139,6 @@
     <font>
       <sz val="48"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,8 +217,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +311,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -310,21 +364,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -338,26 +391,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -661,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY15" sqref="AY15"/>
+    <sheetView tabSelected="1" topLeftCell="AW28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,13 +774,13 @@
     <col min="52" max="52" width="27.140625" style="1" customWidth="1"/>
     <col min="53" max="53" width="14.85546875" style="1" customWidth="1"/>
     <col min="54" max="54" width="9.140625" style="1"/>
-    <col min="55" max="55" width="10.28515625" style="17" customWidth="1"/>
-    <col min="56" max="56" width="15.85546875" style="17" customWidth="1"/>
+    <col min="55" max="55" width="10.28515625" style="16" customWidth="1"/>
+    <col min="56" max="56" width="15.85546875" style="16" customWidth="1"/>
     <col min="57" max="59" width="9.140625" style="1"/>
     <col min="60" max="60" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.140625" style="1"/>
     <col min="62" max="62" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -805,145 +867,145 @@
       <c r="CJ2"/>
     </row>
     <row r="3" spans="1:88" ht="21">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="35">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="35">
         <v>3</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="35">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="35">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="35">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="I3" s="35"/>
+      <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>1</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>2</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>3</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>4</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>5</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>6</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>7</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>8</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>9</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>10</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>11</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <v>12</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <v>13</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="10">
         <v>14</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="10">
         <v>15</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="10">
         <v>16</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="10">
         <v>17</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="10">
         <v>18</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="10">
         <v>19</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="10">
         <v>20</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="10">
         <v>21</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="10">
         <v>22</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="10">
         <v>23</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="10">
         <v>24</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="10">
         <v>25</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="10">
         <v>26</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="10">
         <v>27</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="10">
         <v>28</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="10">
         <v>29</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="10">
         <v>30</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="10">
         <v>31</v>
       </c>
       <c r="AR3" s="8"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="13" t="s">
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="13" t="s">
+      <c r="AU3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="13" t="s">
+      <c r="AV3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AW3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="AX3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AY3"/>
@@ -977,7 +1039,7 @@
       <c r="CJ3"/>
     </row>
     <row r="4" spans="1:88" ht="21">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
@@ -991,23 +1053,53 @@
         <f>SUM(B4:H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>1</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="34" t="s">
         <v>9</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>3</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS12" si="0">SUM(M4:AR4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT4" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU4" s="3">
         <f>AS4*AT4</f>
-        <v>0</v>
+        <v>133.57425742574259</v>
       </c>
       <c r="AV4" s="6">
         <f>SUM(B4:H4)</f>
@@ -1015,28 +1107,30 @@
       </c>
       <c r="AW4">
         <f>AV4-AU4</f>
-        <v>0</v>
+        <v>-133.57425742574259</v>
       </c>
       <c r="AX4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="AY4"/>
       <c r="AZ4"/>
-      <c r="BC4" s="18" t="s">
+      <c r="BC4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BD4" s="19" t="s">
+      <c r="BD4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4"/>
-      <c r="BJ4" t="s">
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="BK4"/>
+      <c r="BK4" s="37" t="s">
+        <v>2</v>
+      </c>
       <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4"/>
@@ -1064,7 +1158,7 @@
       <c r="CJ4"/>
     </row>
     <row r="5" spans="1:88" ht="21">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5"/>
@@ -1078,25 +1172,53 @@
         <f>SUM(B5:H5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>2</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
       <c r="AS5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU5" s="3">
         <f t="shared" ref="AU5:AU12" si="1">AS5*AT5</f>
-        <v>0</v>
+        <v>22.262376237623762</v>
       </c>
       <c r="AV5" s="6">
         <f>SUM(B5:H5)</f>
@@ -1104,27 +1226,27 @@
       </c>
       <c r="AW5">
         <f t="shared" ref="AW5:AW12" si="2">AV5-AU5</f>
-        <v>0</v>
+        <v>-22.262376237623762</v>
       </c>
       <c r="AX5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AY5"/>
       <c r="AZ5"/>
-      <c r="BC5" s="18">
+      <c r="BC5" s="17">
         <v>1</v>
       </c>
-      <c r="BD5" s="17">
+      <c r="BD5" s="16">
         <v>270</v>
       </c>
-      <c r="BH5" s="12">
+      <c r="BH5" s="11">
         <f>SUM(BD5:BG5)</f>
         <v>270</v>
       </c>
       <c r="BJ5" t="s">
         <v>0</v>
       </c>
-      <c r="BK5"/>
+      <c r="BK5" s="19"/>
       <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5"/>
@@ -1152,7 +1274,7 @@
       <c r="CJ5"/>
     </row>
     <row r="6" spans="1:88" ht="21">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5"/>
@@ -1166,24 +1288,53 @@
         <f t="shared" ref="I6:I12" si="3">SUM(B6:H6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>3</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
       <c r="AS6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT6" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.262376237623762</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" ref="AV6:AV12" si="4">SUM(B6:H6)</f>
@@ -1191,22 +1342,27 @@
       </c>
       <c r="AW6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-22.262376237623762</v>
       </c>
       <c r="AX6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="AY6"/>
       <c r="AZ6"/>
-      <c r="BC6" s="18">
+      <c r="BC6" s="17">
         <v>2</v>
       </c>
-      <c r="BH6" s="12">
+      <c r="BD6" s="16">
+        <v>935</v>
+      </c>
+      <c r="BH6" s="11">
         <f t="shared" ref="BH6:BH35" si="5">SUM(BD6:BG6)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ6"/>
-      <c r="BK6"/>
+        <v>935</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK6" s="19"/>
       <c r="BL6"/>
       <c r="BM6"/>
       <c r="BN6"/>
@@ -1234,7 +1390,7 @@
       <c r="CJ6"/>
     </row>
     <row r="7" spans="1:88" ht="21">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5"/>
@@ -1248,38 +1404,59 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>4</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
       <c r="AS7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AV7" s="6">
         <f t="shared" si="4"/>
@@ -1287,22 +1464,29 @@
       </c>
       <c r="AW7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-44.524752475247524</v>
       </c>
       <c r="AX7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AY7"/>
       <c r="AZ7"/>
-      <c r="BC7" s="18">
+      <c r="BC7" s="17">
         <v>3</v>
       </c>
-      <c r="BH7" s="12">
+      <c r="BD7" s="16">
+        <v>790</v>
+      </c>
+      <c r="BH7" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ7"/>
-      <c r="BK7"/>
+        <v>790</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK7" s="38">
+        <v>42099</v>
+      </c>
       <c r="BL7"/>
       <c r="BM7"/>
       <c r="BN7"/>
@@ -1330,10 +1514,12 @@
       <c r="CJ7"/>
     </row>
     <row r="8" spans="1:88" ht="21">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>500</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1342,63 +1528,96 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
+        <v>500</v>
+      </c>
+      <c r="K8" s="14">
         <v>5</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1</v>
+      </c>
+      <c r="S8" s="13">
+        <v>2</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2</v>
+      </c>
+      <c r="U8" s="13">
+        <v>2</v>
+      </c>
+      <c r="V8" s="13">
+        <v>2</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
       <c r="AS8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AT8" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>467.50990099009903</v>
       </c>
       <c r="AV8" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AW8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32.490099009900973</v>
       </c>
       <c r="AX8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AY8"/>
       <c r="AZ8"/>
-      <c r="BC8" s="18">
+      <c r="BC8" s="17">
         <v>4</v>
       </c>
-      <c r="BH8" s="12">
+      <c r="BD8" s="16">
+        <v>475</v>
+      </c>
+      <c r="BH8" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ8"/>
-      <c r="BK8"/>
+        <v>475</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK8" s="38">
+        <v>42100</v>
+      </c>
       <c r="BL8"/>
       <c r="BM8"/>
       <c r="BN8"/>
@@ -1426,10 +1645,12 @@
       <c r="CJ8"/>
     </row>
     <row r="9" spans="1:88" ht="21">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>1000</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1438,78 +1659,106 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="14">
         <v>6</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1</v>
+      </c>
+      <c r="U9" s="13">
+        <v>4</v>
+      </c>
+      <c r="V9" s="13">
+        <v>1</v>
+      </c>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
       <c r="AS9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AT9" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>378.46039603960395</v>
       </c>
       <c r="AV9" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AW9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>621.53960396039611</v>
       </c>
       <c r="AX9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AY9"/>
       <c r="AZ9"/>
-      <c r="BC9" s="18">
+      <c r="BC9" s="17">
         <v>5</v>
       </c>
-      <c r="BH9" s="12">
+      <c r="BD9" s="16">
+        <v>57</v>
+      </c>
+      <c r="BH9" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ9"/>
-      <c r="BK9"/>
+        <v>57</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="38">
+        <v>42099</v>
+      </c>
       <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9"/>
@@ -1537,7 +1786,7 @@
       <c r="CJ9"/>
     </row>
     <row r="10" spans="1:88" ht="21">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5"/>
@@ -1551,30 +1800,59 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>7</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>2</v>
+      </c>
+      <c r="S10" s="13">
+        <v>2</v>
+      </c>
+      <c r="T10" s="13">
+        <v>2</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
       <c r="AS10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AT10" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>645.60891089108907</v>
       </c>
       <c r="AV10" s="6">
         <f t="shared" si="4"/>
@@ -1582,22 +1860,27 @@
       </c>
       <c r="AW10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-645.60891089108907</v>
       </c>
       <c r="AX10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="AY10"/>
       <c r="AZ10"/>
-      <c r="BC10" s="18">
+      <c r="BC10" s="17">
         <v>6</v>
       </c>
-      <c r="BH10" s="12">
+      <c r="BD10" s="16">
+        <v>100</v>
+      </c>
+      <c r="BH10" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ10"/>
-      <c r="BK10"/>
+      <c r="BK10" s="38">
+        <v>42100</v>
+      </c>
       <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10"/>
@@ -1625,11 +1908,15 @@
       <c r="CJ10"/>
     </row>
     <row r="11" spans="1:88" ht="21">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5">
+        <v>400</v>
+      </c>
+      <c r="C11" s="5">
+        <v>50</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1637,78 +1924,106 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
+        <v>450</v>
+      </c>
+      <c r="K11" s="14">
         <v>8</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
+      <c r="M11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>2</v>
+      </c>
+      <c r="S11" s="13">
+        <v>2</v>
+      </c>
+      <c r="T11" s="13">
+        <v>2</v>
+      </c>
+      <c r="U11" s="13">
+        <v>3</v>
+      </c>
+      <c r="V11" s="13">
+        <v>4</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
       <c r="AS11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="AT11" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>957.28217821782175</v>
       </c>
       <c r="AV11" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AW11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-507.28217821782175</v>
       </c>
       <c r="AX11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AY11"/>
       <c r="AZ11"/>
-      <c r="BC11" s="18">
+      <c r="BC11" s="17">
         <v>7</v>
       </c>
-      <c r="BH11" s="12">
+      <c r="BD11" s="16">
+        <v>1020</v>
+      </c>
+      <c r="BH11" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11"/>
-      <c r="BK11"/>
+        <v>1020</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="38">
+        <v>42101</v>
+      </c>
       <c r="BL11"/>
       <c r="BM11"/>
       <c r="BN11"/>
@@ -1736,87 +2051,124 @@
       <c r="CJ11"/>
     </row>
     <row r="12" spans="1:88" ht="21">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>170</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1100</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
+        <v>2270</v>
+      </c>
+      <c r="K12" s="14">
         <v>9</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14">
-        <v>1</v>
-      </c>
+      <c r="L12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>4</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>5</v>
+      </c>
+      <c r="R12" s="13">
+        <v>5</v>
+      </c>
+      <c r="S12" s="13">
+        <v>5</v>
+      </c>
+      <c r="T12" s="13">
+        <v>5</v>
+      </c>
+      <c r="U12" s="13">
+        <v>5</v>
+      </c>
+      <c r="V12" s="13">
+        <v>7</v>
+      </c>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
       <c r="AS12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AT12" s="3">
         <f>AV27</f>
-        <v>270</v>
+        <v>44.524752475247524</v>
       </c>
       <c r="AU12" s="3">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>1825.5148514851485</v>
       </c>
       <c r="AV12" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2270</v>
       </c>
       <c r="AW12">
         <f t="shared" si="2"/>
-        <v>-270</v>
+        <v>444.48514851485152</v>
       </c>
       <c r="AX12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AY12"/>
       <c r="AZ12"/>
-      <c r="BC12" s="18">
+      <c r="BC12" s="17">
         <v>8</v>
       </c>
-      <c r="BH12" s="12">
+      <c r="BD12" s="16">
+        <v>125</v>
+      </c>
+      <c r="BH12" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12"/>
-      <c r="BK12"/>
+        <v>125</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK12" s="38">
+        <v>42102</v>
+      </c>
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12"/>
@@ -1853,7 +2205,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="14"/>
       <c r="AT13" s="3"/>
       <c r="AU13"/>
       <c r="AV13"/>
@@ -1861,15 +2213,22 @@
       <c r="AX13"/>
       <c r="AY13"/>
       <c r="AZ13"/>
-      <c r="BC13" s="18">
+      <c r="BC13" s="17">
         <v>9</v>
       </c>
-      <c r="BH13" s="12">
+      <c r="BD13" s="16">
+        <v>35</v>
+      </c>
+      <c r="BH13" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13"/>
-      <c r="BK13"/>
+        <v>35</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK13" s="38">
+        <v>42102</v>
+      </c>
       <c r="BL13"/>
       <c r="BM13"/>
       <c r="BN13"/>
@@ -1897,174 +2256,186 @@
       <c r="CJ13"/>
     </row>
     <row r="14" spans="1:88" ht="33.75">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="6">
         <f>SUM(I4:I13)</f>
-        <v>0</v>
+        <v>4220</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="12" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="24">
         <f>SUM(M4:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="26">
+        <v>3</v>
+      </c>
+      <c r="N14" s="24">
         <f t="shared" ref="N14:AQ14" si="6">SUM(N4:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="26">
+        <v>5</v>
+      </c>
+      <c r="O14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="26">
+        <v>9</v>
+      </c>
+      <c r="P14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="26">
+        <v>9</v>
+      </c>
+      <c r="R14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="26">
+        <v>10</v>
+      </c>
+      <c r="S14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="26">
+        <v>11</v>
+      </c>
+      <c r="T14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="26">
+        <v>12</v>
+      </c>
+      <c r="U14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="26">
+        <v>15</v>
+      </c>
+      <c r="V14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="26">
+        <v>18</v>
+      </c>
+      <c r="W14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="26">
+      <c r="Y14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="Z14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AB14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="26">
+      <c r="AC14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="26">
+      <c r="AD14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="26">
+      <c r="AE14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="26">
+      <c r="AF14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="26">
+      <c r="AG14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="26">
+      <c r="AH14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="26">
+      <c r="AI14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="26">
+      <c r="AJ14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="26">
+      <c r="AK14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="26">
+      <c r="AL14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="26">
+      <c r="AM14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="26">
+      <c r="AN14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="26">
+      <c r="AO14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="26">
+      <c r="AP14" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ14" s="26">
+      <c r="AQ14" s="24">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AS14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="24">
         <f>SUM(AS4:AS12)</f>
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="AT14" s="3"/>
       <c r="AU14"/>
-      <c r="AV14" s="29" t="s">
+      <c r="AV14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AW14" s="29">
+      <c r="AW14" s="27">
         <f>SUM(AW4:AW12)</f>
-        <v>-270</v>
+        <v>-276.99999999999977</v>
       </c>
       <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BC14" s="18">
+      <c r="AY14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ14" s="28">
+        <f>SUM(I4:I13)</f>
+        <v>4220</v>
+      </c>
+      <c r="BC14" s="17">
         <v>10</v>
       </c>
-      <c r="BH14" s="12">
+      <c r="BD14" s="16">
+        <v>50</v>
+      </c>
+      <c r="BH14" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14"/>
-      <c r="BK14"/>
+        <v>50</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK14" s="38">
+        <v>42103</v>
+      </c>
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14"/>
@@ -2091,22 +2462,36 @@
       <c r="CI14"/>
       <c r="CJ14"/>
     </row>
-    <row r="15" spans="1:88" ht="18.75">
+    <row r="15" spans="1:88" ht="23.25">
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="30" t="s">
+      <c r="AV15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AW15" s="31"/>
-      <c r="BC15" s="18">
+      <c r="AW15" s="33"/>
+      <c r="AY15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ15" s="29">
+        <f>SUM(BH5:BH35)</f>
+        <v>4497</v>
+      </c>
+      <c r="BC15" s="17">
         <v>11</v>
       </c>
-      <c r="BH15" s="12">
+      <c r="BD15" s="16">
+        <v>20</v>
+      </c>
+      <c r="BH15" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15"/>
-      <c r="BK15"/>
+        <v>20</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="38">
+        <v>42103</v>
+      </c>
       <c r="BL15"/>
       <c r="BM15"/>
       <c r="BN15"/>
@@ -2134,15 +2519,26 @@
       <c r="CJ15"/>
     </row>
     <row r="16" spans="1:88">
-      <c r="BC16" s="18">
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BC16" s="17">
         <v>12</v>
       </c>
-      <c r="BH16" s="12">
+      <c r="BD16" s="16">
+        <v>400</v>
+      </c>
+      <c r="BH16" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16"/>
-      <c r="BK16"/>
+        <v>400</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK16" s="38">
+        <v>42103</v>
+      </c>
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16"/>
@@ -2170,22 +2566,36 @@
       <c r="CJ16"/>
     </row>
     <row r="17" spans="42:88" ht="33.75" customHeight="1">
-      <c r="AV17" s="28" t="s">
+      <c r="AV17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AW17" s="28">
+      <c r="AW17" s="26">
         <f>SUM(AW14:AW15)</f>
-        <v>-270</v>
-      </c>
-      <c r="BC17" s="18">
+        <v>-276.99999999999977</v>
+      </c>
+      <c r="AY17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ17" s="31">
+        <f>AZ14-AZ15</f>
+        <v>-277</v>
+      </c>
+      <c r="BC17" s="17">
         <v>13</v>
       </c>
-      <c r="BH17" s="12">
+      <c r="BD17" s="16">
+        <v>220</v>
+      </c>
+      <c r="BH17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17"/>
-      <c r="BK17"/>
+        <v>220</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK17" s="38">
+        <v>42103</v>
+      </c>
       <c r="BL17"/>
       <c r="BM17"/>
       <c r="BN17"/>
@@ -2213,15 +2623,15 @@
       <c r="CJ17"/>
     </row>
     <row r="18" spans="42:88" ht="26.25" customHeight="1">
-      <c r="BC18" s="18">
+      <c r="BC18" s="17">
         <v>14</v>
       </c>
-      <c r="BH18" s="12">
+      <c r="BH18" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ18"/>
-      <c r="BK18"/>
+      <c r="BK18" s="19"/>
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18"/>
@@ -2249,15 +2659,15 @@
       <c r="CJ18"/>
     </row>
     <row r="19" spans="42:88">
-      <c r="BC19" s="18">
+      <c r="BC19" s="17">
         <v>15</v>
       </c>
-      <c r="BH19" s="12">
+      <c r="BH19" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ19"/>
-      <c r="BK19"/>
+      <c r="BK19" s="19"/>
       <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19"/>
@@ -2285,16 +2695,16 @@
       <c r="CJ19"/>
     </row>
     <row r="20" spans="42:88" ht="21">
-      <c r="AX20" s="25"/>
-      <c r="BC20" s="18">
+      <c r="AX20" s="23"/>
+      <c r="BC20" s="17">
         <v>16</v>
       </c>
-      <c r="BH20" s="12">
+      <c r="BH20" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ20"/>
-      <c r="BK20"/>
+      <c r="BK20" s="19"/>
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20"/>
@@ -2322,23 +2732,23 @@
       <c r="CJ20"/>
     </row>
     <row r="21" spans="42:88" ht="23.25">
-      <c r="AT21" s="32" t="s">
+      <c r="AT21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="32">
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="41">
         <f>SUM(AS4:AS12)</f>
-        <v>1</v>
-      </c>
-      <c r="BC21" s="18">
+        <v>101</v>
+      </c>
+      <c r="BC21" s="17">
         <v>17</v>
       </c>
-      <c r="BH21" s="12">
+      <c r="BH21" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ21"/>
-      <c r="BK21"/>
+      <c r="BK21" s="19"/>
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21"/>
@@ -2366,18 +2776,18 @@
       <c r="CJ21"/>
     </row>
     <row r="22" spans="42:88" ht="23.25">
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="32"/>
-      <c r="BC22" s="18">
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="41"/>
+      <c r="BC22" s="17">
         <v>18</v>
       </c>
-      <c r="BH22" s="12">
+      <c r="BH22" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ22"/>
-      <c r="BK22"/>
+      <c r="BK22" s="19"/>
       <c r="BL22"/>
       <c r="BM22"/>
       <c r="BN22"/>
@@ -2405,18 +2815,18 @@
       <c r="CJ22"/>
     </row>
     <row r="23" spans="42:88" ht="23.25">
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="BC23" s="18">
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="BC23" s="17">
         <v>19</v>
       </c>
-      <c r="BH23" s="12">
+      <c r="BH23" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ23"/>
-      <c r="BK23"/>
+      <c r="BK23" s="19"/>
       <c r="BL23"/>
       <c r="BM23"/>
       <c r="BN23"/>
@@ -2444,23 +2854,23 @@
       <c r="CJ23"/>
     </row>
     <row r="24" spans="42:88" ht="23.25">
-      <c r="AT24" s="32" t="s">
+      <c r="AT24" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="32">
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="41">
         <f>SUM(BH5:BH35)</f>
-        <v>270</v>
-      </c>
-      <c r="BC24" s="18">
+        <v>4497</v>
+      </c>
+      <c r="BC24" s="17">
         <v>20</v>
       </c>
-      <c r="BH24" s="12">
+      <c r="BH24" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ24"/>
-      <c r="BK24"/>
+      <c r="BK24" s="19"/>
       <c r="BL24"/>
       <c r="BM24"/>
       <c r="BN24"/>
@@ -2488,18 +2898,18 @@
       <c r="CJ24"/>
     </row>
     <row r="25" spans="42:88" ht="23.25">
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="32"/>
-      <c r="BC25" s="18">
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="41"/>
+      <c r="BC25" s="17">
         <v>21</v>
       </c>
-      <c r="BH25" s="12">
+      <c r="BH25" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ25"/>
-      <c r="BK25"/>
+      <c r="BK25" s="19"/>
       <c r="BL25"/>
       <c r="BM25"/>
       <c r="BN25"/>
@@ -2527,18 +2937,18 @@
       <c r="CJ25"/>
     </row>
     <row r="26" spans="42:88" ht="23.25">
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="27"/>
-      <c r="AV26" s="27"/>
-      <c r="BC26" s="18">
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="BC26" s="17">
         <v>22</v>
       </c>
-      <c r="BH26" s="12">
+      <c r="BH26" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ26"/>
-      <c r="BK26"/>
+      <c r="BK26" s="19"/>
       <c r="BL26"/>
       <c r="BM26"/>
       <c r="BN26"/>
@@ -2566,23 +2976,23 @@
       <c r="CJ26"/>
     </row>
     <row r="27" spans="42:88" ht="23.25">
-      <c r="AT27" s="32" t="s">
+      <c r="AT27" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="32">
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="41">
         <f>AV24/AV21</f>
-        <v>270</v>
-      </c>
-      <c r="BC27" s="18">
+        <v>44.524752475247524</v>
+      </c>
+      <c r="BC27" s="17">
         <v>23</v>
       </c>
-      <c r="BH27" s="12">
+      <c r="BH27" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ27"/>
-      <c r="BK27"/>
+      <c r="BK27" s="19"/>
       <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27"/>
@@ -2610,19 +3020,19 @@
       <c r="CJ27"/>
     </row>
     <row r="28" spans="42:88" ht="23.25" customHeight="1">
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="32"/>
-      <c r="BB28" s="16"/>
-      <c r="BC28" s="18">
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="41"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="17">
         <v>24</v>
       </c>
-      <c r="BH28" s="12">
+      <c r="BH28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ28"/>
-      <c r="BK28"/>
+      <c r="BK28" s="19"/>
       <c r="BL28"/>
       <c r="BM28"/>
       <c r="BN28"/>
@@ -2650,16 +3060,16 @@
       <c r="CJ28"/>
     </row>
     <row r="29" spans="42:88" ht="23.25" customHeight="1">
-      <c r="BB29" s="16"/>
-      <c r="BC29" s="18">
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="17">
         <v>25</v>
       </c>
-      <c r="BH29" s="12">
+      <c r="BH29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ29"/>
-      <c r="BK29"/>
+      <c r="BK29" s="19"/>
       <c r="BL29"/>
       <c r="BM29"/>
       <c r="BN29"/>
@@ -2687,15 +3097,15 @@
       <c r="CJ29"/>
     </row>
     <row r="30" spans="42:88">
-      <c r="BC30" s="18">
+      <c r="BC30" s="17">
         <v>26</v>
       </c>
-      <c r="BH30" s="12">
+      <c r="BH30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ30"/>
-      <c r="BK30"/>
+      <c r="BK30" s="19"/>
       <c r="BL30"/>
       <c r="BM30"/>
       <c r="BN30"/>
@@ -2726,15 +3136,15 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
-      <c r="BC31" s="18">
+      <c r="BC31" s="17">
         <v>27</v>
       </c>
-      <c r="BH31" s="12">
+      <c r="BH31" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ31"/>
-      <c r="BK31"/>
+      <c r="BK31" s="19"/>
       <c r="BL31"/>
       <c r="BM31"/>
       <c r="BN31"/>
@@ -2762,21 +3172,21 @@
       <c r="CJ31"/>
     </row>
     <row r="32" spans="42:88" ht="54.75" customHeight="1">
-      <c r="AP32" s="24"/>
+      <c r="AP32" s="22"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
-      <c r="AU32" s="23"/>
-      <c r="AV32" s="23"/>
-      <c r="BC32" s="18">
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="BC32" s="17">
         <v>28</v>
       </c>
-      <c r="BH32" s="12">
+      <c r="BH32" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ32"/>
-      <c r="BK32"/>
+      <c r="BK32" s="19"/>
       <c r="BL32"/>
       <c r="BM32"/>
       <c r="BN32"/>
@@ -2808,17 +3218,17 @@
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="23"/>
-      <c r="BC33" s="18">
+      <c r="AU33" s="21"/>
+      <c r="AV33" s="21"/>
+      <c r="BC33" s="17">
         <v>29</v>
       </c>
-      <c r="BH33" s="12">
+      <c r="BH33" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ33"/>
-      <c r="BK33"/>
+      <c r="BK33" s="19"/>
       <c r="BL33"/>
       <c r="BM33"/>
       <c r="BN33"/>
@@ -2870,15 +3280,16 @@
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="BC34" s="18">
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="BC34" s="17">
         <v>30</v>
       </c>
-      <c r="BH34" s="12">
+      <c r="BH34" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="BK34" s="11"/>
     </row>
     <row r="35" spans="13:88" ht="61.5">
       <c r="M35"/>
@@ -2905,15 +3316,16 @@
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
-      <c r="AU35" s="23"/>
-      <c r="AV35" s="23"/>
-      <c r="BC35" s="18">
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
+      <c r="BC35" s="17">
         <v>31</v>
       </c>
-      <c r="BH35" s="12">
+      <c r="BH35" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="BK35" s="11"/>
     </row>
     <row r="36" spans="13:88" ht="15" customHeight="1">
       <c r="M36"/>
@@ -2936,6 +3348,15 @@
       <c r="AE36"/>
       <c r="AF36"/>
       <c r="AG36"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="11"/>
     </row>
     <row r="37" spans="13:88" ht="15" customHeight="1">
       <c r="M37"/>
@@ -2980,17 +3401,20 @@
       <c r="AE38"/>
       <c r="AF38"/>
       <c r="AG38"/>
-      <c r="BC38" s="21" t="s">
+      <c r="BC38" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="BD38" s="19"/>
-      <c r="BE38" s="12"/>
-      <c r="BF38" s="12"/>
-      <c r="BG38" s="12"/>
-      <c r="BH38" s="22">
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="11"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="39">
         <f>SUM(BH5:BH35)</f>
-        <v>270</v>
-      </c>
+        <v>4497</v>
+      </c>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="11"/>
     </row>
     <row r="39" spans="13:88" ht="15" customHeight="1">
       <c r="M39"/>
@@ -3203,11 +3627,11 @@
     </row>
     <row r="71" spans="62:64" ht="32.25">
       <c r="BJ71" s="4"/>
-      <c r="BK71" s="34">
+      <c r="BK71" s="42">
         <f>SUM(BK4:BK70)</f>
-        <v>0</v>
-      </c>
-      <c r="BL71" s="34"/>
+        <v>463115</v>
+      </c>
+      <c r="BL71" s="42"/>
     </row>
     <row r="87" spans="2:2" ht="32.25">
       <c r="B87" s="4" t="s">
@@ -3216,14 +3640,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AV21:AV22"/>
     <mergeCell ref="BK71:BL71"/>
     <mergeCell ref="AT24:AT25"/>
     <mergeCell ref="AV24:AV25"/>
     <mergeCell ref="AT27:AT28"/>
     <mergeCell ref="AV27:AV28"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AV21:AV22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>Mehedi</t>
   </si>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD22" sqref="BD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,7 +780,7 @@
     <col min="60" max="60" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.140625" style="1"/>
     <col min="62" max="62" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -1089,17 +1089,23 @@
       <c r="V4" s="13">
         <v>3</v>
       </c>
+      <c r="W4" s="13">
+        <v>3</v>
+      </c>
+      <c r="X4" s="13">
+        <v>4</v>
+      </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS12" si="0">SUM(M4:AR4)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AT4" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU4" s="3">
         <f>AS4*AT4</f>
-        <v>133.57425742574259</v>
+        <v>365.23809523809524</v>
       </c>
       <c r="AV4" s="6">
         <f>SUM(B4:H4)</f>
@@ -1107,7 +1113,7 @@
       </c>
       <c r="AW4">
         <f>AV4-AU4</f>
-        <v>-133.57425742574259</v>
+        <v>-365.23809523809524</v>
       </c>
       <c r="AX4" s="9" t="s">
         <v>9</v>
@@ -1208,17 +1214,23 @@
       <c r="V5" s="13">
         <v>0</v>
       </c>
+      <c r="W5" s="13">
+        <v>0</v>
+      </c>
+      <c r="X5" s="13">
+        <v>0</v>
+      </c>
       <c r="AS5" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AT5" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU5" s="3">
         <f t="shared" ref="AU5:AU12" si="1">AS5*AT5</f>
-        <v>22.262376237623762</v>
+        <v>18.261904761904763</v>
       </c>
       <c r="AV5" s="6">
         <f>SUM(B5:H5)</f>
@@ -1226,7 +1238,7 @@
       </c>
       <c r="AW5">
         <f t="shared" ref="AW5:AW12" si="2">AV5-AU5</f>
-        <v>-22.262376237623762</v>
+        <v>-18.261904761904763</v>
       </c>
       <c r="AX5" s="9" t="s">
         <v>10</v>
@@ -1324,17 +1336,23 @@
       <c r="V6" s="13">
         <v>0</v>
       </c>
+      <c r="W6" s="13">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
       <c r="AS6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AT6" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="1"/>
-        <v>22.262376237623762</v>
+        <v>18.261904761904763</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" ref="AV6:AV12" si="4">SUM(B6:H6)</f>
@@ -1342,7 +1360,7 @@
       </c>
       <c r="AW6">
         <f t="shared" si="2"/>
-        <v>-22.262376237623762</v>
+        <v>-18.261904761904763</v>
       </c>
       <c r="AX6" s="9" t="s">
         <v>11</v>
@@ -1440,8 +1458,12 @@
       <c r="V7" s="13">
         <v>1</v>
       </c>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
+      <c r="W7" s="13">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
@@ -1452,11 +1474,11 @@
       </c>
       <c r="AT7" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="1"/>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AV7" s="6">
         <f t="shared" si="4"/>
@@ -1464,7 +1486,7 @@
       </c>
       <c r="AW7">
         <f t="shared" si="2"/>
-        <v>-44.524752475247524</v>
+        <v>-36.523809523809526</v>
       </c>
       <c r="AX7" s="9" t="s">
         <v>12</v>
@@ -1566,8 +1588,12 @@
       <c r="V8" s="13">
         <v>2</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+      <c r="W8" s="13">
+        <v>2</v>
+      </c>
+      <c r="X8" s="13">
+        <v>2</v>
+      </c>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
@@ -1579,15 +1605,15 @@
       <c r="AG8" s="13"/>
       <c r="AS8" s="1">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AT8" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU8" s="3">
         <f t="shared" si="1"/>
-        <v>467.50990099009903</v>
+        <v>529.59523809523807</v>
       </c>
       <c r="AV8" s="6">
         <f t="shared" si="4"/>
@@ -1595,7 +1621,7 @@
       </c>
       <c r="AW8">
         <f t="shared" si="2"/>
-        <v>32.490099009900973</v>
+        <v>-29.595238095238074</v>
       </c>
       <c r="AX8" s="9" t="s">
         <v>13</v>
@@ -1697,8 +1723,12 @@
       <c r="V9" s="13">
         <v>1</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="W9" s="13">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13">
+        <v>2</v>
+      </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
@@ -1720,15 +1750,15 @@
       <c r="AQ9" s="13"/>
       <c r="AS9" s="1">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT9" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="1"/>
-        <v>378.46039603960395</v>
+        <v>420.02380952380952</v>
       </c>
       <c r="AV9" s="6">
         <f t="shared" si="4"/>
@@ -1736,7 +1766,7 @@
       </c>
       <c r="AW9">
         <f t="shared" si="2"/>
-        <v>621.53960396039611</v>
+        <v>579.97619047619048</v>
       </c>
       <c r="AX9" s="9" t="s">
         <v>14</v>
@@ -1836,6 +1866,12 @@
       <c r="V10" s="13">
         <v>0</v>
       </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AN10" s="13"/>
@@ -1848,11 +1884,11 @@
       </c>
       <c r="AT10" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU10" s="3">
         <f t="shared" si="1"/>
-        <v>645.60891089108907</v>
+        <v>529.59523809523807</v>
       </c>
       <c r="AV10" s="6">
         <f t="shared" si="4"/>
@@ -1860,7 +1896,7 @@
       </c>
       <c r="AW10">
         <f t="shared" si="2"/>
-        <v>-645.60891089108907</v>
+        <v>-529.59523809523807</v>
       </c>
       <c r="AX10" s="9" t="s">
         <v>15</v>
@@ -1962,8 +1998,12 @@
       <c r="V11" s="13">
         <v>4</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
+      <c r="W11" s="13">
+        <v>2</v>
+      </c>
+      <c r="X11" s="13">
+        <v>1</v>
+      </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
@@ -1985,15 +2025,15 @@
       <c r="AQ11" s="13"/>
       <c r="AS11" s="1">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>24.5</v>
       </c>
       <c r="AT11" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU11" s="3">
         <f t="shared" si="1"/>
-        <v>957.28217821782175</v>
+        <v>894.83333333333337</v>
       </c>
       <c r="AV11" s="6">
         <f t="shared" si="4"/>
@@ -2001,7 +2041,7 @@
       </c>
       <c r="AW11">
         <f t="shared" si="2"/>
-        <v>-507.28217821782175</v>
+        <v>-444.83333333333337</v>
       </c>
       <c r="AX11" s="9" t="s">
         <v>16</v>
@@ -2058,7 +2098,7 @@
         <v>170</v>
       </c>
       <c r="C12" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="5">
         <v>1100</v>
@@ -2069,7 +2109,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>2270</v>
+        <v>2770</v>
       </c>
       <c r="K12" s="14">
         <v>9</v>
@@ -2107,8 +2147,12 @@
       <c r="V12" s="13">
         <v>7</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="W12" s="13">
+        <v>4</v>
+      </c>
+      <c r="X12" s="13">
+        <v>4</v>
+      </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
@@ -2130,23 +2174,23 @@
       <c r="AQ12" s="13"/>
       <c r="AS12" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AT12" s="3">
         <f>AV27</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="AU12" s="3">
         <f t="shared" si="1"/>
-        <v>1825.5148514851485</v>
+        <v>1789.6666666666667</v>
       </c>
       <c r="AV12" s="6">
         <f t="shared" si="4"/>
-        <v>2270</v>
+        <v>2770</v>
       </c>
       <c r="AW12">
         <f t="shared" si="2"/>
-        <v>444.48514851485152</v>
+        <v>980.33333333333326</v>
       </c>
       <c r="AX12" s="9" t="s">
         <v>0</v>
@@ -2268,7 +2312,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="6">
         <f>SUM(I4:I13)</f>
-        <v>4220</v>
+        <v>4720</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="14"/>
@@ -2317,11 +2361,11 @@
       </c>
       <c r="W14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y14" s="24">
         <f t="shared" si="6"/>
@@ -2401,7 +2445,7 @@
       </c>
       <c r="AS14" s="24">
         <f>SUM(AS4:AS12)</f>
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT14" s="3"/>
       <c r="AU14"/>
@@ -2410,7 +2454,7 @@
       </c>
       <c r="AW14" s="27">
         <f>SUM(AW4:AW12)</f>
-        <v>-276.99999999999977</v>
+        <v>118</v>
       </c>
       <c r="AX14"/>
       <c r="AY14" s="28" t="s">
@@ -2418,7 +2462,7 @@
       </c>
       <c r="AZ14" s="28">
         <f>SUM(I4:I13)</f>
-        <v>4220</v>
+        <v>4720</v>
       </c>
       <c r="BC14" s="17">
         <v>10</v>
@@ -2474,7 +2518,7 @@
       </c>
       <c r="AZ15" s="29">
         <f>SUM(BH5:BH35)</f>
-        <v>4497</v>
+        <v>4602</v>
       </c>
       <c r="BC15" s="17">
         <v>11</v>
@@ -2571,14 +2615,14 @@
       </c>
       <c r="AW17" s="26">
         <f>SUM(AW14:AW15)</f>
-        <v>-276.99999999999977</v>
+        <v>118</v>
       </c>
       <c r="AY17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="AZ17" s="31">
         <f>AZ14-AZ15</f>
-        <v>-277</v>
+        <v>118</v>
       </c>
       <c r="BC17" s="17">
         <v>13</v>
@@ -2626,12 +2670,19 @@
       <c r="BC18" s="17">
         <v>14</v>
       </c>
+      <c r="BD18" s="16">
+        <v>85</v>
+      </c>
       <c r="BH18" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18"/>
-      <c r="BK18" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="38">
+        <v>42105</v>
+      </c>
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18"/>
@@ -2662,12 +2713,19 @@
       <c r="BC19" s="17">
         <v>15</v>
       </c>
+      <c r="BD19" s="16">
+        <v>20</v>
+      </c>
       <c r="BH19" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19"/>
-      <c r="BK19" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK19" s="38">
+        <v>42105</v>
+      </c>
       <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19"/>
@@ -2738,7 +2796,7 @@
       <c r="AU21" s="24"/>
       <c r="AV21" s="41">
         <f>SUM(AS4:AS12)</f>
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC21" s="17">
         <v>17</v>
@@ -2860,7 +2918,7 @@
       <c r="AU24" s="24"/>
       <c r="AV24" s="41">
         <f>SUM(BH5:BH35)</f>
-        <v>4497</v>
+        <v>4602</v>
       </c>
       <c r="BC24" s="17">
         <v>20</v>
@@ -2982,7 +3040,7 @@
       <c r="AU27" s="24"/>
       <c r="AV27" s="41">
         <f>AV24/AV21</f>
-        <v>44.524752475247524</v>
+        <v>36.523809523809526</v>
       </c>
       <c r="BC27" s="17">
         <v>23</v>
@@ -3410,7 +3468,7 @@
       <c r="BG38" s="11"/>
       <c r="BH38" s="39">
         <f>SUM(BH5:BH35)</f>
-        <v>4497</v>
+        <v>4602</v>
       </c>
       <c r="BI38" s="11"/>
       <c r="BJ38" s="11"/>
@@ -3629,7 +3687,7 @@
       <c r="BJ71" s="4"/>
       <c r="BK71" s="42">
         <f>SUM(BK4:BK70)</f>
-        <v>463115</v>
+        <v>547325</v>
       </c>
       <c r="BL71" s="42"/>
     </row>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Mehedi</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Salim</t>
+  </si>
+  <si>
+    <t>11 A[ro;</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <dimension ref="A1:CJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BD22" sqref="BD22"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,17 +1098,20 @@
       <c r="X4" s="13">
         <v>4</v>
       </c>
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS12" si="0">SUM(M4:AR4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT4" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU4" s="3">
         <f>AS4*AT4</f>
-        <v>365.23809523809524</v>
+        <v>415.06666666666666</v>
       </c>
       <c r="AV4" s="6">
         <f>SUM(B4:H4)</f>
@@ -1113,7 +1119,7 @@
       </c>
       <c r="AW4">
         <f>AV4-AU4</f>
-        <v>-365.23809523809524</v>
+        <v>-415.06666666666666</v>
       </c>
       <c r="AX4" s="9" t="s">
         <v>9</v>
@@ -1220,17 +1226,20 @@
       <c r="X5" s="13">
         <v>0</v>
       </c>
+      <c r="Y5" s="13">
+        <v>0</v>
+      </c>
       <c r="AS5" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AT5" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU5" s="3">
         <f t="shared" ref="AU5:AU12" si="1">AS5*AT5</f>
-        <v>18.261904761904763</v>
+        <v>18.866666666666667</v>
       </c>
       <c r="AV5" s="6">
         <f>SUM(B5:H5)</f>
@@ -1238,7 +1247,7 @@
       </c>
       <c r="AW5">
         <f t="shared" ref="AW5:AW12" si="2">AV5-AU5</f>
-        <v>-18.261904761904763</v>
+        <v>-18.866666666666667</v>
       </c>
       <c r="AX5" s="9" t="s">
         <v>10</v>
@@ -1342,17 +1351,20 @@
       <c r="X6" s="13">
         <v>0</v>
       </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
       <c r="AS6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AT6" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="1"/>
-        <v>18.261904761904763</v>
+        <v>18.866666666666667</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" ref="AV6:AV12" si="4">SUM(B6:H6)</f>
@@ -1360,7 +1372,7 @@
       </c>
       <c r="AW6">
         <f t="shared" si="2"/>
-        <v>-18.261904761904763</v>
+        <v>-18.866666666666667</v>
       </c>
       <c r="AX6" s="9" t="s">
         <v>11</v>
@@ -1464,7 +1476,9 @@
       <c r="X7" s="13">
         <v>0</v>
       </c>
-      <c r="Y7" s="13"/>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
@@ -1474,11 +1488,11 @@
       </c>
       <c r="AT7" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="1"/>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AV7" s="6">
         <f t="shared" si="4"/>
@@ -1486,7 +1500,7 @@
       </c>
       <c r="AW7">
         <f t="shared" si="2"/>
-        <v>-36.523809523809526</v>
+        <v>-37.733333333333334</v>
       </c>
       <c r="AX7" s="9" t="s">
         <v>12</v>
@@ -1594,7 +1608,9 @@
       <c r="X8" s="13">
         <v>2</v>
       </c>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="13">
+        <v>2</v>
+      </c>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -1605,15 +1621,15 @@
       <c r="AG8" s="13"/>
       <c r="AS8" s="1">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AT8" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU8" s="3">
         <f t="shared" si="1"/>
-        <v>529.59523809523807</v>
+        <v>622.6</v>
       </c>
       <c r="AV8" s="6">
         <f t="shared" si="4"/>
@@ -1621,7 +1637,7 @@
       </c>
       <c r="AW8">
         <f t="shared" si="2"/>
-        <v>-29.595238095238074</v>
+        <v>-122.60000000000002</v>
       </c>
       <c r="AX8" s="9" t="s">
         <v>13</v>
@@ -1729,7 +1745,9 @@
       <c r="X9" s="13">
         <v>2</v>
       </c>
-      <c r="Y9" s="13"/>
+      <c r="Y9" s="13">
+        <v>2</v>
+      </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
@@ -1750,15 +1768,15 @@
       <c r="AQ9" s="13"/>
       <c r="AS9" s="1">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AT9" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="1"/>
-        <v>420.02380952380952</v>
+        <v>509.40000000000003</v>
       </c>
       <c r="AV9" s="6">
         <f t="shared" si="4"/>
@@ -1766,7 +1784,7 @@
       </c>
       <c r="AW9">
         <f t="shared" si="2"/>
-        <v>579.97619047619048</v>
+        <v>490.59999999999997</v>
       </c>
       <c r="AX9" s="9" t="s">
         <v>14</v>
@@ -1872,6 +1890,9 @@
       <c r="X10" s="13">
         <v>0</v>
       </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AN10" s="13"/>
@@ -1884,11 +1905,11 @@
       </c>
       <c r="AT10" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU10" s="3">
         <f t="shared" si="1"/>
-        <v>529.59523809523807</v>
+        <v>547.13333333333333</v>
       </c>
       <c r="AV10" s="6">
         <f t="shared" si="4"/>
@@ -1896,7 +1917,7 @@
       </c>
       <c r="AW10">
         <f t="shared" si="2"/>
-        <v>-529.59523809523807</v>
+        <v>-547.13333333333333</v>
       </c>
       <c r="AX10" s="9" t="s">
         <v>15</v>
@@ -2004,7 +2025,9 @@
       <c r="X11" s="13">
         <v>1</v>
       </c>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
@@ -2029,11 +2052,11 @@
       </c>
       <c r="AT11" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU11" s="3">
         <f t="shared" si="1"/>
-        <v>894.83333333333337</v>
+        <v>924.4666666666667</v>
       </c>
       <c r="AV11" s="6">
         <f t="shared" si="4"/>
@@ -2041,7 +2064,7 @@
       </c>
       <c r="AW11">
         <f t="shared" si="2"/>
-        <v>-444.83333333333337</v>
+        <v>-474.4666666666667</v>
       </c>
       <c r="AX11" s="9" t="s">
         <v>16</v>
@@ -2094,14 +2117,12 @@
       <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
-        <v>170</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5">
         <v>1500</v>
       </c>
       <c r="D12" s="5">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2109,7 +2130,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>2770</v>
+        <v>3000</v>
       </c>
       <c r="K12" s="14">
         <v>9</v>
@@ -2153,7 +2174,9 @@
       <c r="X12" s="13">
         <v>4</v>
       </c>
-      <c r="Y12" s="13"/>
+      <c r="Y12" s="13">
+        <v>4</v>
+      </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
@@ -2174,23 +2197,23 @@
       <c r="AQ12" s="13"/>
       <c r="AS12" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AT12" s="3">
         <f>AV27</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="AU12" s="3">
         <f t="shared" si="1"/>
-        <v>1789.6666666666667</v>
+        <v>1999.8666666666668</v>
       </c>
       <c r="AV12" s="6">
         <f t="shared" si="4"/>
-        <v>2770</v>
+        <v>3000</v>
       </c>
       <c r="AW12">
         <f t="shared" si="2"/>
-        <v>980.33333333333326</v>
+        <v>1000.1333333333332</v>
       </c>
       <c r="AX12" s="9" t="s">
         <v>0</v>
@@ -2312,7 +2335,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="6">
         <f>SUM(I4:I13)</f>
-        <v>4720</v>
+        <v>4950</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="14"/>
@@ -2369,7 +2392,7 @@
       </c>
       <c r="Y14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z14" s="24">
         <f t="shared" si="6"/>
@@ -2445,7 +2468,7 @@
       </c>
       <c r="AS14" s="24">
         <f>SUM(AS4:AS12)</f>
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AT14" s="3"/>
       <c r="AU14"/>
@@ -2454,7 +2477,7 @@
       </c>
       <c r="AW14" s="27">
         <f>SUM(AW4:AW12)</f>
-        <v>118</v>
+        <v>-144.00000000000023</v>
       </c>
       <c r="AX14"/>
       <c r="AY14" s="28" t="s">
@@ -2462,7 +2485,7 @@
       </c>
       <c r="AZ14" s="28">
         <f>SUM(I4:I13)</f>
-        <v>4720</v>
+        <v>4950</v>
       </c>
       <c r="BC14" s="17">
         <v>10</v>
@@ -2518,7 +2541,7 @@
       </c>
       <c r="AZ15" s="29">
         <f>SUM(BH5:BH35)</f>
-        <v>4602</v>
+        <v>5094</v>
       </c>
       <c r="BC15" s="17">
         <v>11</v>
@@ -2615,14 +2638,14 @@
       </c>
       <c r="AW17" s="26">
         <f>SUM(AW14:AW15)</f>
-        <v>118</v>
+        <v>-144.00000000000023</v>
       </c>
       <c r="AY17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="AZ17" s="31">
         <f>AZ14-AZ15</f>
-        <v>118</v>
+        <v>-144</v>
       </c>
       <c r="BC17" s="17">
         <v>13</v>
@@ -2757,12 +2780,19 @@
       <c r="BC20" s="17">
         <v>16</v>
       </c>
+      <c r="BD20" s="16">
+        <v>100</v>
+      </c>
       <c r="BH20" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20"/>
-      <c r="BK20" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK20" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20"/>
@@ -2796,17 +2826,24 @@
       <c r="AU21" s="24"/>
       <c r="AV21" s="41">
         <f>SUM(AS4:AS12)</f>
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="BC21" s="17">
         <v>17</v>
       </c>
+      <c r="BD21" s="16">
+        <v>392</v>
+      </c>
       <c r="BH21" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21"/>
-      <c r="BK21" s="19"/>
+        <v>392</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="38">
+        <v>42107</v>
+      </c>
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21"/>
@@ -2918,7 +2955,7 @@
       <c r="AU24" s="24"/>
       <c r="AV24" s="41">
         <f>SUM(BH5:BH35)</f>
-        <v>4602</v>
+        <v>5094</v>
       </c>
       <c r="BC24" s="17">
         <v>20</v>
@@ -3040,7 +3077,7 @@
       <c r="AU27" s="24"/>
       <c r="AV27" s="41">
         <f>AV24/AV21</f>
-        <v>36.523809523809526</v>
+        <v>37.733333333333334</v>
       </c>
       <c r="BC27" s="17">
         <v>23</v>
@@ -3468,7 +3505,7 @@
       <c r="BG38" s="11"/>
       <c r="BH38" s="39">
         <f>SUM(BH5:BH35)</f>
-        <v>4602</v>
+        <v>5094</v>
       </c>
       <c r="BI38" s="11"/>
       <c r="BJ38" s="11"/>
@@ -3687,7 +3724,7 @@
       <c r="BJ71" s="4"/>
       <c r="BK71" s="42">
         <f>SUM(BK4:BK70)</f>
-        <v>547325</v>
+        <v>589432</v>
       </c>
       <c r="BL71" s="42"/>
     </row>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Mehedi</t>
   </si>
@@ -104,12 +104,30 @@
   <si>
     <t>11 A[ro;</t>
   </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Taka</t>
+  </si>
+  <si>
+    <t>টাংকি পরিস্কার</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 তারিখ </t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ম্যানেজার দিয়েছে</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +278,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -367,7 +398,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -416,6 +447,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,6 +455,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -727,7 +762,7 @@
   <dimension ref="A1:CJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="BE25" sqref="BE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,7 +770,7 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1045,7 +1080,9 @@
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>400</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1054,7 +1091,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K4" s="14">
         <v>1</v>
@@ -1101,25 +1138,31 @@
       <c r="Y4" s="13">
         <v>1</v>
       </c>
+      <c r="Z4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>2</v>
+      </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS12" si="0">SUM(M4:AR4)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AT4" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU4" s="3">
         <f>AS4*AT4</f>
-        <v>415.06666666666666</v>
+        <v>701.4473684210526</v>
       </c>
       <c r="AV4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AW4">
         <f>AV4-AU4</f>
-        <v>-415.06666666666666</v>
+        <v>-301.4473684210526</v>
       </c>
       <c r="AX4" s="9" t="s">
         <v>9</v>
@@ -1229,17 +1272,23 @@
       <c r="Y5" s="13">
         <v>0</v>
       </c>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>1</v>
+      </c>
       <c r="AS5" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU5" s="3">
         <f t="shared" ref="AU5:AU12" si="1">AS5*AT5</f>
-        <v>18.866666666666667</v>
+        <v>70.14473684210526</v>
       </c>
       <c r="AV5" s="6">
         <f>SUM(B5:H5)</f>
@@ -1247,7 +1296,7 @@
       </c>
       <c r="AW5">
         <f t="shared" ref="AW5:AW12" si="2">AV5-AU5</f>
-        <v>-18.866666666666667</v>
+        <v>-70.14473684210526</v>
       </c>
       <c r="AX5" s="9" t="s">
         <v>10</v>
@@ -1354,17 +1403,23 @@
       <c r="Y6" s="13">
         <v>0</v>
       </c>
+      <c r="Z6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>0</v>
+      </c>
       <c r="AS6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AT6" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="1"/>
-        <v>18.866666666666667</v>
+        <v>23.381578947368421</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" ref="AV6:AV12" si="4">SUM(B6:H6)</f>
@@ -1372,7 +1427,7 @@
       </c>
       <c r="AW6">
         <f t="shared" si="2"/>
-        <v>-18.866666666666667</v>
+        <v>-23.381578947368421</v>
       </c>
       <c r="AX6" s="9" t="s">
         <v>11</v>
@@ -1423,7 +1478,9 @@
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>1000</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1432,7 +1489,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="14">
         <v>4</v>
@@ -1479,28 +1536,32 @@
       <c r="Y7" s="13">
         <v>0</v>
       </c>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>1</v>
+      </c>
       <c r="AB7" s="13"/>
       <c r="AS7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="1"/>
-        <v>37.733333333333334</v>
+        <v>93.526315789473685</v>
       </c>
       <c r="AV7" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AW7">
         <f t="shared" si="2"/>
-        <v>-37.733333333333334</v>
+        <v>906.47368421052636</v>
       </c>
       <c r="AX7" s="9" t="s">
         <v>12</v>
@@ -1556,7 +1617,9 @@
       <c r="B8" s="5">
         <v>500</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>500</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1564,7 +1627,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="14">
         <v>5</v>
@@ -1611,8 +1674,12 @@
       <c r="Y8" s="13">
         <v>2</v>
       </c>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
+      <c r="Z8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>1</v>
+      </c>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
@@ -1621,23 +1688,23 @@
       <c r="AG8" s="13"/>
       <c r="AS8" s="1">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT8" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU8" s="3">
         <f t="shared" si="1"/>
-        <v>622.6</v>
+        <v>865.11842105263156</v>
       </c>
       <c r="AV8" s="6">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AW8">
         <f t="shared" si="2"/>
-        <v>-122.60000000000002</v>
+        <v>134.88157894736844</v>
       </c>
       <c r="AX8" s="9" t="s">
         <v>13</v>
@@ -1748,8 +1815,12 @@
       <c r="Y9" s="13">
         <v>2</v>
       </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>2</v>
+      </c>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
@@ -1768,15 +1839,15 @@
       <c r="AQ9" s="13"/>
       <c r="AS9" s="1">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AT9" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="1"/>
-        <v>509.40000000000003</v>
+        <v>724.82894736842104</v>
       </c>
       <c r="AV9" s="6">
         <f t="shared" si="4"/>
@@ -1784,7 +1855,7 @@
       </c>
       <c r="AW9">
         <f t="shared" si="2"/>
-        <v>490.59999999999997</v>
+        <v>275.17105263157896</v>
       </c>
       <c r="AX9" s="9" t="s">
         <v>14</v>
@@ -1893,6 +1964,12 @@
       <c r="Y10" s="13">
         <v>0</v>
       </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AN10" s="13"/>
@@ -1905,11 +1982,11 @@
       </c>
       <c r="AT10" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU10" s="3">
         <f t="shared" si="1"/>
-        <v>547.13333333333333</v>
+        <v>678.06578947368416</v>
       </c>
       <c r="AV10" s="6">
         <f t="shared" si="4"/>
@@ -1917,7 +1994,7 @@
       </c>
       <c r="AW10">
         <f t="shared" si="2"/>
-        <v>-547.13333333333333</v>
+        <v>-678.06578947368416</v>
       </c>
       <c r="AX10" s="9" t="s">
         <v>15</v>
@@ -1978,10 +2055,12 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="40">
+        <v>500</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="K11" s="14">
         <v>8</v>
@@ -2028,8 +2107,12 @@
       <c r="Y11" s="13">
         <v>0</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0</v>
+      </c>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
@@ -2052,19 +2135,19 @@
       </c>
       <c r="AT11" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU11" s="3">
         <f t="shared" si="1"/>
-        <v>924.4666666666667</v>
+        <v>1145.6973684210527</v>
       </c>
       <c r="AV11" s="6">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="AW11">
         <f t="shared" si="2"/>
-        <v>-474.4666666666667</v>
+        <v>-195.69736842105272</v>
       </c>
       <c r="AX11" s="9" t="s">
         <v>16</v>
@@ -2177,8 +2260,12 @@
       <c r="Y12" s="13">
         <v>4</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
+      <c r="Z12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>4</v>
+      </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
@@ -2197,15 +2284,15 @@
       <c r="AQ12" s="13"/>
       <c r="AS12" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AT12" s="3">
         <f>AV27</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="AU12" s="3">
         <f t="shared" si="1"/>
-        <v>1999.8666666666668</v>
+        <v>2805.7894736842104</v>
       </c>
       <c r="AV12" s="6">
         <f t="shared" si="4"/>
@@ -2213,7 +2300,7 @@
       </c>
       <c r="AW12">
         <f t="shared" si="2"/>
-        <v>1000.1333333333332</v>
+        <v>194.21052631578959</v>
       </c>
       <c r="AX12" s="9" t="s">
         <v>0</v>
@@ -2323,19 +2410,19 @@
       <c r="CJ13"/>
     </row>
     <row r="14" spans="1:88" ht="33.75">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="6">
         <f>SUM(I4:I13)</f>
-        <v>4950</v>
+        <v>7350</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="14"/>
@@ -2396,11 +2483,11 @@
       </c>
       <c r="Z14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="24">
         <f t="shared" si="6"/>
@@ -2468,7 +2555,7 @@
       </c>
       <c r="AS14" s="24">
         <f>SUM(AS4:AS12)</f>
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AT14" s="3"/>
       <c r="AU14"/>
@@ -2477,7 +2564,7 @@
       </c>
       <c r="AW14" s="27">
         <f>SUM(AW4:AW12)</f>
-        <v>-144.00000000000023</v>
+        <v>242.00000000000023</v>
       </c>
       <c r="AX14"/>
       <c r="AY14" s="28" t="s">
@@ -2485,7 +2572,7 @@
       </c>
       <c r="AZ14" s="28">
         <f>SUM(I4:I13)</f>
-        <v>4950</v>
+        <v>7350</v>
       </c>
       <c r="BC14" s="17">
         <v>10</v>
@@ -2541,7 +2628,7 @@
       </c>
       <c r="AZ15" s="29">
         <f>SUM(BH5:BH35)</f>
-        <v>5094</v>
+        <v>7108</v>
       </c>
       <c r="BC15" s="17">
         <v>11</v>
@@ -2632,20 +2719,20 @@
       <c r="CI16"/>
       <c r="CJ16"/>
     </row>
-    <row r="17" spans="42:88" ht="33.75" customHeight="1">
+    <row r="17" spans="1:88" ht="33.75" customHeight="1">
       <c r="AV17" s="26" t="s">
         <v>24</v>
       </c>
       <c r="AW17" s="26">
         <f>SUM(AW14:AW15)</f>
-        <v>-144.00000000000023</v>
+        <v>242.00000000000023</v>
       </c>
       <c r="AY17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="AZ17" s="31">
         <f>AZ14-AZ15</f>
-        <v>-144</v>
+        <v>242</v>
       </c>
       <c r="BC17" s="17">
         <v>13</v>
@@ -2689,7 +2776,19 @@
       <c r="CI17"/>
       <c r="CJ17"/>
     </row>
-    <row r="18" spans="42:88" ht="26.25" customHeight="1">
+    <row r="18" spans="1:88" ht="26.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="BC18" s="17">
         <v>14</v>
       </c>
@@ -2732,7 +2831,19 @@
       <c r="CI18"/>
       <c r="CJ18"/>
     </row>
-    <row r="19" spans="42:88">
+    <row r="19" spans="1:88">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>150</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="BC19" s="17">
         <v>15</v>
       </c>
@@ -2775,7 +2886,10 @@
       <c r="CI19"/>
       <c r="CJ19"/>
     </row>
-    <row r="20" spans="42:88" ht="21">
+    <row r="20" spans="1:88" ht="21">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="AX20" s="23"/>
       <c r="BC20" s="17">
         <v>16</v>
@@ -2819,14 +2933,14 @@
       <c r="CI20"/>
       <c r="CJ20"/>
     </row>
-    <row r="21" spans="42:88" ht="23.25">
-      <c r="AT21" s="41" t="s">
+    <row r="21" spans="1:88" ht="23.25">
+      <c r="AT21" s="42" t="s">
         <v>19</v>
       </c>
       <c r="AU21" s="24"/>
-      <c r="AV21" s="41">
+      <c r="AV21" s="42">
         <f>SUM(AS4:AS12)</f>
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="BC21" s="17">
         <v>17</v>
@@ -2870,19 +2984,26 @@
       <c r="CI21"/>
       <c r="CJ21"/>
     </row>
-    <row r="22" spans="42:88" ht="23.25">
-      <c r="AT22" s="41"/>
+    <row r="22" spans="1:88" ht="23.25">
+      <c r="AT22" s="42"/>
       <c r="AU22" s="24"/>
-      <c r="AV22" s="41"/>
+      <c r="AV22" s="42"/>
       <c r="BC22" s="17">
         <v>18</v>
       </c>
+      <c r="BD22" s="16">
+        <v>665</v>
+      </c>
       <c r="BH22" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22"/>
-      <c r="BK22" s="19"/>
+        <v>665</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK22" s="38">
+        <v>42106</v>
+      </c>
       <c r="BL22"/>
       <c r="BM22"/>
       <c r="BN22"/>
@@ -2909,19 +3030,26 @@
       <c r="CI22"/>
       <c r="CJ22"/>
     </row>
-    <row r="23" spans="42:88" ht="23.25">
+    <row r="23" spans="1:88" ht="23.25">
       <c r="AT23" s="25"/>
       <c r="AU23" s="25"/>
       <c r="AV23" s="25"/>
       <c r="BC23" s="17">
         <v>19</v>
       </c>
+      <c r="BD23" s="16">
+        <v>362</v>
+      </c>
       <c r="BH23" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23"/>
-      <c r="BK23" s="19"/>
+        <v>362</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK23" s="38">
+        <v>42107</v>
+      </c>
       <c r="BL23"/>
       <c r="BM23"/>
       <c r="BN23"/>
@@ -2948,24 +3076,31 @@
       <c r="CI23"/>
       <c r="CJ23"/>
     </row>
-    <row r="24" spans="42:88" ht="23.25">
-      <c r="AT24" s="41" t="s">
+    <row r="24" spans="1:88" ht="23.25">
+      <c r="AT24" s="42" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="24"/>
-      <c r="AV24" s="41">
+      <c r="AV24" s="42">
         <f>SUM(BH5:BH35)</f>
-        <v>5094</v>
+        <v>7108</v>
       </c>
       <c r="BC24" s="17">
         <v>20</v>
       </c>
+      <c r="BD24" s="16">
+        <v>160</v>
+      </c>
       <c r="BH24" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24"/>
-      <c r="BK24" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="38">
+        <v>42108</v>
+      </c>
       <c r="BL24"/>
       <c r="BM24"/>
       <c r="BN24"/>
@@ -2992,19 +3127,26 @@
       <c r="CI24"/>
       <c r="CJ24"/>
     </row>
-    <row r="25" spans="42:88" ht="23.25">
-      <c r="AT25" s="41"/>
+    <row r="25" spans="1:88" ht="23.25">
+      <c r="AT25" s="42"/>
       <c r="AU25" s="24"/>
-      <c r="AV25" s="41"/>
+      <c r="AV25" s="42"/>
       <c r="BC25" s="17">
         <v>21</v>
       </c>
+      <c r="BD25" s="16">
+        <v>827</v>
+      </c>
       <c r="BH25" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25"/>
-      <c r="BK25" s="19"/>
+        <v>827</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="38">
+        <v>42109</v>
+      </c>
       <c r="BL25"/>
       <c r="BM25"/>
       <c r="BN25"/>
@@ -3031,7 +3173,7 @@
       <c r="CI25"/>
       <c r="CJ25"/>
     </row>
-    <row r="26" spans="42:88" ht="23.25">
+    <row r="26" spans="1:88" ht="23.25">
       <c r="AT26" s="25"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="25"/>
@@ -3070,14 +3212,14 @@
       <c r="CI26"/>
       <c r="CJ26"/>
     </row>
-    <row r="27" spans="42:88" ht="23.25">
-      <c r="AT27" s="41" t="s">
+    <row r="27" spans="1:88" ht="23.25">
+      <c r="AT27" s="42" t="s">
         <v>18</v>
       </c>
       <c r="AU27" s="24"/>
-      <c r="AV27" s="41">
+      <c r="AV27" s="42">
         <f>AV24/AV21</f>
-        <v>37.733333333333334</v>
+        <v>46.763157894736842</v>
       </c>
       <c r="BC27" s="17">
         <v>23</v>
@@ -3114,10 +3256,10 @@
       <c r="CI27"/>
       <c r="CJ27"/>
     </row>
-    <row r="28" spans="42:88" ht="23.25" customHeight="1">
-      <c r="AT28" s="41"/>
+    <row r="28" spans="1:88" ht="23.25" customHeight="1">
+      <c r="AT28" s="42"/>
       <c r="AU28" s="24"/>
-      <c r="AV28" s="41"/>
+      <c r="AV28" s="42"/>
       <c r="BB28" s="15"/>
       <c r="BC28" s="17">
         <v>24</v>
@@ -3154,7 +3296,7 @@
       <c r="CI28"/>
       <c r="CJ28"/>
     </row>
-    <row r="29" spans="42:88" ht="23.25" customHeight="1">
+    <row r="29" spans="1:88" ht="23.25" customHeight="1">
       <c r="BB29" s="15"/>
       <c r="BC29" s="17">
         <v>25</v>
@@ -3191,7 +3333,7 @@
       <c r="CI29"/>
       <c r="CJ29"/>
     </row>
-    <row r="30" spans="42:88">
+    <row r="30" spans="1:88">
       <c r="BC30" s="17">
         <v>26</v>
       </c>
@@ -3227,7 +3369,7 @@
       <c r="CI30"/>
       <c r="CJ30"/>
     </row>
-    <row r="31" spans="42:88" ht="18.75">
+    <row r="31" spans="1:88" ht="18.75">
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
@@ -3266,7 +3408,7 @@
       <c r="CI31"/>
       <c r="CJ31"/>
     </row>
-    <row r="32" spans="42:88" ht="54.75" customHeight="1">
+    <row r="32" spans="1:88" ht="54.75" customHeight="1">
       <c r="AP32" s="22"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
@@ -3505,7 +3647,7 @@
       <c r="BG38" s="11"/>
       <c r="BH38" s="39">
         <f>SUM(BH5:BH35)</f>
-        <v>5094</v>
+        <v>7108</v>
       </c>
       <c r="BI38" s="11"/>
       <c r="BJ38" s="11"/>
@@ -3722,11 +3864,11 @@
     </row>
     <row r="71" spans="62:64" ht="32.25">
       <c r="BJ71" s="4"/>
-      <c r="BK71" s="42">
+      <c r="BK71" s="43">
         <f>SUM(BK4:BK70)</f>
-        <v>589432</v>
-      </c>
-      <c r="BL71" s="42"/>
+        <v>757862</v>
+      </c>
+      <c r="BL71" s="43"/>
     </row>
     <row r="87" spans="2:2" ht="32.25">
       <c r="B87" s="4" t="s">
@@ -3734,7 +3876,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="AT21:AT22"/>
     <mergeCell ref="AV21:AV22"/>
@@ -3743,6 +3885,7 @@
     <mergeCell ref="AV24:AV25"/>
     <mergeCell ref="AT27:AT28"/>
     <mergeCell ref="AV27:AV28"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Mehedi</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>ম্যানেজার দিয়েছে</t>
+  </si>
+  <si>
+    <t>17 Aprl</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -392,13 +395,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -448,6 +477,12 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,7 +797,7 @@
   <dimension ref="A1:CJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE25" sqref="BE25"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,12 +958,10 @@
       <c r="F3" s="35">
         <v>5</v>
       </c>
-      <c r="G3" s="35">
-        <v>6</v>
-      </c>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="41" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="42"/>
       <c r="I3" s="35"/>
       <c r="K3" s="10" t="s">
         <v>4</v>
@@ -1144,17 +1177,23 @@
       <c r="AA4" s="13">
         <v>2</v>
       </c>
+      <c r="AB4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>0</v>
+      </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS12" si="0">SUM(M4:AR4)</f>
         <v>15</v>
       </c>
       <c r="AT4" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU4" s="3">
         <f>AS4*AT4</f>
-        <v>701.4473684210526</v>
+        <v>648.40909090909088</v>
       </c>
       <c r="AV4" s="6">
         <f>SUM(B4:H4)</f>
@@ -1162,7 +1201,7 @@
       </c>
       <c r="AW4">
         <f>AV4-AU4</f>
-        <v>-301.4473684210526</v>
+        <v>-248.40909090909088</v>
       </c>
       <c r="AX4" s="9" t="s">
         <v>9</v>
@@ -1278,17 +1317,23 @@
       <c r="AA5" s="13">
         <v>1</v>
       </c>
+      <c r="AB5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>3</v>
+      </c>
       <c r="AS5" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="AT5" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU5" s="3">
         <f t="shared" ref="AU5:AU12" si="1">AS5*AT5</f>
-        <v>70.14473684210526</v>
+        <v>280.97727272727275</v>
       </c>
       <c r="AV5" s="6">
         <f>SUM(B5:H5)</f>
@@ -1296,7 +1341,7 @@
       </c>
       <c r="AW5">
         <f t="shared" ref="AW5:AW12" si="2">AV5-AU5</f>
-        <v>-70.14473684210526</v>
+        <v>-280.97727272727275</v>
       </c>
       <c r="AX5" s="9" t="s">
         <v>10</v>
@@ -1409,17 +1454,23 @@
       <c r="AA6" s="13">
         <v>0</v>
       </c>
+      <c r="AB6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
       <c r="AS6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AT6" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="1"/>
-        <v>23.381578947368421</v>
+        <v>21.613636363636363</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" ref="AV6:AV12" si="4">SUM(B6:H6)</f>
@@ -1427,7 +1478,7 @@
       </c>
       <c r="AW6">
         <f t="shared" si="2"/>
-        <v>-23.381578947368421</v>
+        <v>-21.613636363636363</v>
       </c>
       <c r="AX6" s="9" t="s">
         <v>11</v>
@@ -1542,18 +1593,23 @@
       <c r="AA7" s="13">
         <v>1</v>
       </c>
-      <c r="AB7" s="13"/>
+      <c r="AB7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>2</v>
+      </c>
       <c r="AS7" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT7" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="1"/>
-        <v>93.526315789473685</v>
+        <v>259.36363636363637</v>
       </c>
       <c r="AV7" s="6">
         <f t="shared" si="4"/>
@@ -1561,7 +1617,7 @@
       </c>
       <c r="AW7">
         <f t="shared" si="2"/>
-        <v>906.47368421052636</v>
+        <v>740.63636363636363</v>
       </c>
       <c r="AX7" s="9" t="s">
         <v>12</v>
@@ -1680,23 +1736,27 @@
       <c r="AA8" s="13">
         <v>1</v>
       </c>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
+      <c r="AB8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>1</v>
+      </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
       <c r="AS8" s="1">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="AT8" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU8" s="3">
         <f t="shared" si="1"/>
-        <v>865.11842105263156</v>
+        <v>886.15909090909088</v>
       </c>
       <c r="AV8" s="6">
         <f t="shared" si="4"/>
@@ -1704,7 +1764,7 @@
       </c>
       <c r="AW8">
         <f t="shared" si="2"/>
-        <v>134.88157894736844</v>
+        <v>113.84090909090912</v>
       </c>
       <c r="AX8" s="9" t="s">
         <v>13</v>
@@ -1821,8 +1881,12 @@
       <c r="AA9" s="13">
         <v>2</v>
       </c>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
+      <c r="AB9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>2</v>
+      </c>
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
@@ -1839,15 +1903,15 @@
       <c r="AQ9" s="13"/>
       <c r="AS9" s="1">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AT9" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="1"/>
-        <v>724.82894736842104</v>
+        <v>842.93181818181813</v>
       </c>
       <c r="AV9" s="6">
         <f t="shared" si="4"/>
@@ -1855,7 +1919,7 @@
       </c>
       <c r="AW9">
         <f t="shared" si="2"/>
-        <v>275.17105263157896</v>
+        <v>157.06818181818187</v>
       </c>
       <c r="AX9" s="9" t="s">
         <v>14</v>
@@ -1970,6 +2034,12 @@
       <c r="AA10" s="13">
         <v>0</v>
       </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AN10" s="13"/>
@@ -1982,11 +2052,11 @@
       </c>
       <c r="AT10" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU10" s="3">
         <f t="shared" si="1"/>
-        <v>678.06578947368416</v>
+        <v>626.7954545454545</v>
       </c>
       <c r="AV10" s="6">
         <f t="shared" si="4"/>
@@ -1994,7 +2064,7 @@
       </c>
       <c r="AW10">
         <f t="shared" si="2"/>
-        <v>-678.06578947368416</v>
+        <v>-626.7954545454545</v>
       </c>
       <c r="AX10" s="9" t="s">
         <v>15</v>
@@ -2054,13 +2124,15 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="40">
+        <v>500</v>
+      </c>
       <c r="H11" s="40">
         <v>500</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="K11" s="14">
         <v>8</v>
@@ -2113,8 +2185,12 @@
       <c r="AA11" s="13">
         <v>0</v>
       </c>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
@@ -2135,19 +2211,19 @@
       </c>
       <c r="AT11" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU11" s="3">
         <f t="shared" si="1"/>
-        <v>1145.6973684210527</v>
+        <v>1059.0681818181818</v>
       </c>
       <c r="AV11" s="6">
         <f t="shared" si="4"/>
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="AW11">
         <f t="shared" si="2"/>
-        <v>-195.69736842105272</v>
+        <v>390.93181818181824</v>
       </c>
       <c r="AX11" s="9" t="s">
         <v>16</v>
@@ -2266,8 +2342,12 @@
       <c r="AA12" s="13">
         <v>4</v>
       </c>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
+      <c r="AB12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>5</v>
+      </c>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
@@ -2284,15 +2364,15 @@
       <c r="AQ12" s="13"/>
       <c r="AS12" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AT12" s="3">
         <f>AV27</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="AU12" s="3">
         <f t="shared" si="1"/>
-        <v>2805.7894736842104</v>
+        <v>2982.681818181818</v>
       </c>
       <c r="AV12" s="6">
         <f t="shared" si="4"/>
@@ -2300,7 +2380,7 @@
       </c>
       <c r="AW12">
         <f t="shared" si="2"/>
-        <v>194.21052631578959</v>
+        <v>17.318181818181984</v>
       </c>
       <c r="AX12" s="9" t="s">
         <v>0</v>
@@ -2410,19 +2490,19 @@
       <c r="CJ13"/>
     </row>
     <row r="14" spans="1:88" ht="33.75">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="6">
         <f>SUM(I4:I13)</f>
-        <v>7350</v>
+        <v>7850</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="14"/>
@@ -2491,11 +2571,11 @@
       </c>
       <c r="AB14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="24">
         <f t="shared" si="6"/>
@@ -2555,7 +2635,7 @@
       </c>
       <c r="AS14" s="24">
         <f>SUM(AS4:AS12)</f>
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="AT14" s="3"/>
       <c r="AU14"/>
@@ -2564,7 +2644,7 @@
       </c>
       <c r="AW14" s="27">
         <f>SUM(AW4:AW12)</f>
-        <v>242.00000000000023</v>
+        <v>242.00000000000034</v>
       </c>
       <c r="AX14"/>
       <c r="AY14" s="28" t="s">
@@ -2572,7 +2652,7 @@
       </c>
       <c r="AZ14" s="28">
         <f>SUM(I4:I13)</f>
-        <v>7350</v>
+        <v>7850</v>
       </c>
       <c r="BC14" s="17">
         <v>10</v>
@@ -2628,7 +2708,7 @@
       </c>
       <c r="AZ15" s="29">
         <f>SUM(BH5:BH35)</f>
-        <v>7108</v>
+        <v>7608</v>
       </c>
       <c r="BC15" s="17">
         <v>11</v>
@@ -2725,7 +2805,7 @@
       </c>
       <c r="AW17" s="26">
         <f>SUM(AW14:AW15)</f>
-        <v>242.00000000000023</v>
+        <v>242.00000000000034</v>
       </c>
       <c r="AY17" s="31" t="s">
         <v>26</v>
@@ -2887,9 +2967,9 @@
       <c r="CJ19"/>
     </row>
     <row r="20" spans="1:88" ht="21">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="AX20" s="23"/>
       <c r="BC20" s="17">
         <v>16</v>
@@ -2934,13 +3014,13 @@
       <c r="CJ20"/>
     </row>
     <row r="21" spans="1:88" ht="23.25">
-      <c r="AT21" s="42" t="s">
+      <c r="AT21" s="44" t="s">
         <v>19</v>
       </c>
       <c r="AU21" s="24"/>
-      <c r="AV21" s="42">
+      <c r="AV21" s="44">
         <f>SUM(AS4:AS12)</f>
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="BC21" s="17">
         <v>17</v>
@@ -2985,9 +3065,9 @@
       <c r="CJ21"/>
     </row>
     <row r="22" spans="1:88" ht="23.25">
-      <c r="AT22" s="42"/>
+      <c r="AT22" s="44"/>
       <c r="AU22" s="24"/>
-      <c r="AV22" s="42"/>
+      <c r="AV22" s="44"/>
       <c r="BC22" s="17">
         <v>18</v>
       </c>
@@ -3077,13 +3157,13 @@
       <c r="CJ23"/>
     </row>
     <row r="24" spans="1:88" ht="23.25">
-      <c r="AT24" s="42" t="s">
+      <c r="AT24" s="44" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="24"/>
-      <c r="AV24" s="42">
+      <c r="AV24" s="44">
         <f>SUM(BH5:BH35)</f>
-        <v>7108</v>
+        <v>7608</v>
       </c>
       <c r="BC24" s="17">
         <v>20</v>
@@ -3128,9 +3208,9 @@
       <c r="CJ24"/>
     </row>
     <row r="25" spans="1:88" ht="23.25">
-      <c r="AT25" s="42"/>
+      <c r="AT25" s="44"/>
       <c r="AU25" s="24"/>
-      <c r="AV25" s="42"/>
+      <c r="AV25" s="44"/>
       <c r="BC25" s="17">
         <v>21</v>
       </c>
@@ -3180,12 +3260,19 @@
       <c r="BC26" s="17">
         <v>22</v>
       </c>
+      <c r="BD26" s="16">
+        <v>410</v>
+      </c>
       <c r="BH26" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26"/>
-      <c r="BK26" s="19"/>
+        <v>410</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="38">
+        <v>42110</v>
+      </c>
       <c r="BL26"/>
       <c r="BM26"/>
       <c r="BN26"/>
@@ -3213,23 +3300,30 @@
       <c r="CJ26"/>
     </row>
     <row r="27" spans="1:88" ht="23.25">
-      <c r="AT27" s="42" t="s">
+      <c r="AT27" s="44" t="s">
         <v>18</v>
       </c>
       <c r="AU27" s="24"/>
-      <c r="AV27" s="42">
+      <c r="AV27" s="44">
         <f>AV24/AV21</f>
-        <v>46.763157894736842</v>
+        <v>43.227272727272727</v>
       </c>
       <c r="BC27" s="17">
         <v>23</v>
       </c>
+      <c r="BD27" s="16">
+        <v>90</v>
+      </c>
       <c r="BH27" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27"/>
-      <c r="BK27" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27"/>
@@ -3257,9 +3351,9 @@
       <c r="CJ27"/>
     </row>
     <row r="28" spans="1:88" ht="23.25" customHeight="1">
-      <c r="AT28" s="42"/>
+      <c r="AT28" s="44"/>
       <c r="AU28" s="24"/>
-      <c r="AV28" s="42"/>
+      <c r="AV28" s="44"/>
       <c r="BB28" s="15"/>
       <c r="BC28" s="17">
         <v>24</v>
@@ -3647,7 +3741,7 @@
       <c r="BG38" s="11"/>
       <c r="BH38" s="39">
         <f>SUM(BH5:BH35)</f>
-        <v>7108</v>
+        <v>7608</v>
       </c>
       <c r="BI38" s="11"/>
       <c r="BJ38" s="11"/>
@@ -3864,11 +3958,11 @@
     </row>
     <row r="71" spans="62:64" ht="32.25">
       <c r="BJ71" s="4"/>
-      <c r="BK71" s="43">
+      <c r="BK71" s="45">
         <f>SUM(BK4:BK70)</f>
-        <v>757862</v>
-      </c>
-      <c r="BL71" s="43"/>
+        <v>799972</v>
+      </c>
+      <c r="BL71" s="45"/>
     </row>
     <row r="87" spans="2:2" ht="32.25">
       <c r="B87" s="4" t="s">
@@ -3876,7 +3970,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="AT21:AT22"/>
     <mergeCell ref="AV21:AV22"/>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Mehedi</t>
   </si>
@@ -125,12 +125,21 @@
   <si>
     <t>17 Aprl</t>
   </si>
+  <si>
+    <t>Back Money</t>
+  </si>
+  <si>
+    <t>Wowadod</t>
+  </si>
+  <si>
+    <t>masod internet ar bill 500 taka diase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +297,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -427,7 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -477,6 +493,7 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,9 +507,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -794,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ87"/>
+  <dimension ref="A1:CL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="BA19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,73 +823,71 @@
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="20" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.5703125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="14.85546875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" style="1"/>
-    <col min="55" max="55" width="10.28515625" style="16" customWidth="1"/>
-    <col min="56" max="56" width="15.85546875" style="16" customWidth="1"/>
-    <col min="57" max="59" width="9.140625" style="1"/>
-    <col min="60" max="60" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" style="1"/>
-    <col min="62" max="62" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.5703125" style="1" customWidth="1"/>
-    <col min="69" max="69" width="6.85546875" style="1" customWidth="1"/>
-    <col min="70" max="70" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="5.5703125" style="1" customWidth="1"/>
-    <col min="72" max="72" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="16384" width="9.140625" style="1"/>
+    <col min="42" max="42" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="20" style="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.5703125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.140625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="14.85546875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="10.28515625" style="16" customWidth="1"/>
+    <col min="58" max="58" width="15.85546875" style="16" customWidth="1"/>
+    <col min="59" max="61" width="9.140625" style="1"/>
+    <col min="62" max="62" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="1"/>
+    <col min="64" max="64" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.5703125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="6.85546875" style="1" customWidth="1"/>
+    <col min="72" max="72" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.5703125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88">
-      <c r="BJ1"/>
-      <c r="BK1"/>
+    <row r="1" spans="1:90">
       <c r="BL1"/>
       <c r="BM1"/>
       <c r="BN1"/>
@@ -899,8 +913,10 @@
       <c r="CH1"/>
       <c r="CI1"/>
       <c r="CJ1"/>
-    </row>
-    <row r="2" spans="1:88">
+      <c r="CK1"/>
+      <c r="CL1"/>
+    </row>
+    <row r="2" spans="1:90">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -910,9 +926,9 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="L2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="N2"/>
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2"/>
@@ -938,8 +954,10 @@
       <c r="CH2"/>
       <c r="CI2"/>
       <c r="CJ2"/>
-    </row>
-    <row r="3" spans="1:88" ht="21">
+      <c r="CK2"/>
+      <c r="CL2"/>
+    </row>
+    <row r="3" spans="1:90" ht="21">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -958,131 +976,131 @@
       <c r="F3" s="35">
         <v>5</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="35"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="35"/>
+      <c r="M3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="O3" s="10">
         <v>1</v>
       </c>
-      <c r="N3" s="10">
+      <c r="P3" s="10">
         <v>2</v>
       </c>
-      <c r="O3" s="10">
+      <c r="Q3" s="10">
         <v>3</v>
       </c>
-      <c r="P3" s="10">
+      <c r="R3" s="10">
         <v>4</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="S3" s="10">
         <v>5</v>
       </c>
-      <c r="R3" s="10">
+      <c r="T3" s="10">
         <v>6</v>
       </c>
-      <c r="S3" s="10">
+      <c r="U3" s="10">
         <v>7</v>
       </c>
-      <c r="T3" s="10">
+      <c r="V3" s="10">
         <v>8</v>
       </c>
-      <c r="U3" s="10">
+      <c r="W3" s="10">
         <v>9</v>
       </c>
-      <c r="V3" s="10">
+      <c r="X3" s="10">
         <v>10</v>
       </c>
-      <c r="W3" s="10">
+      <c r="Y3" s="10">
         <v>11</v>
       </c>
-      <c r="X3" s="10">
+      <c r="Z3" s="10">
         <v>12</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="AA3" s="10">
         <v>13</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="AB3" s="10">
         <v>14</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AC3" s="10">
         <v>15</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AD3" s="10">
         <v>16</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AE3" s="10">
         <v>17</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AF3" s="10">
         <v>18</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AG3" s="10">
         <v>19</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AH3" s="10">
         <v>20</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AI3" s="10">
         <v>21</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AJ3" s="10">
         <v>22</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AK3" s="10">
         <v>23</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AL3" s="10">
         <v>24</v>
       </c>
-      <c r="AK3" s="10">
+      <c r="AM3" s="10">
         <v>25</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AN3" s="10">
         <v>26</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AO3" s="10">
         <v>27</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AP3" s="10">
         <v>28</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AQ3" s="10">
         <v>29</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AR3" s="10">
         <v>30</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AS3" s="10">
         <v>31</v>
       </c>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="12" t="s">
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AY3"/>
-      <c r="AZ3"/>
-      <c r="BJ3"/>
-      <c r="BK3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
       <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3"/>
@@ -1108,8 +1126,10 @@
       <c r="CH3"/>
       <c r="CI3"/>
       <c r="CJ3"/>
-    </row>
-    <row r="4" spans="1:88" ht="21">
+      <c r="CK3"/>
+      <c r="CL3"/>
+    </row>
+    <row r="4" spans="1:90" ht="21">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
@@ -1120,28 +1140,24 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
-        <f>SUM(B4:H4)</f>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6">
+        <f>SUM(B4:J4)</f>
         <v>400</v>
       </c>
-      <c r="K4" s="14">
+      <c r="M4" s="14">
         <v>1</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="N4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="13">
@@ -1160,73 +1176,83 @@
         <v>0</v>
       </c>
       <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="13">
+        <v>0</v>
+      </c>
+      <c r="X4" s="13">
         <v>3</v>
       </c>
-      <c r="W4" s="13">
+      <c r="Y4" s="13">
         <v>3</v>
       </c>
-      <c r="X4" s="13">
+      <c r="Z4" s="13">
         <v>4</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="AA4" s="13">
         <v>1</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AB4" s="13">
         <v>2</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AC4" s="13">
         <v>2</v>
       </c>
-      <c r="AB4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS12" si="0">SUM(M4:AR4)</f>
+      <c r="AD4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>15</v>
       </c>
-      <c r="AT4" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU4" s="3">
-        <f>AS4*AT4</f>
-        <v>648.40909090909088</v>
-      </c>
-      <c r="AV4" s="6">
-        <f>SUM(B4:H4)</f>
+      <c r="AV4" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW4" s="3">
+        <f>AU4*AV4</f>
+        <v>607.72500000000002</v>
+      </c>
+      <c r="AX4" s="6">
+        <f>SUM(B4:J4)</f>
         <v>400</v>
       </c>
-      <c r="AW4">
-        <f>AV4-AU4</f>
-        <v>-248.40909090909088</v>
-      </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AY4">
+        <f>AX4-AW4</f>
+        <v>-207.72500000000002</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AY4"/>
-      <c r="AZ4"/>
-      <c r="BC4" s="17" t="s">
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BE4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BD4" s="18" t="s">
+      <c r="BF4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
       <c r="BG4" s="19"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37" t="s">
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="BK4" s="37" t="s">
+      <c r="BM4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BL4"/>
-      <c r="BM4"/>
       <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
@@ -1250,40 +1276,40 @@
       <c r="CH4"/>
       <c r="CI4"/>
       <c r="CJ4"/>
-    </row>
-    <row r="5" spans="1:88" ht="21">
+      <c r="CK4"/>
+      <c r="CL4"/>
+    </row>
+    <row r="5" spans="1:90" ht="21">
       <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>1100</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6">
-        <f>SUM(B5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6">
+        <f>SUM(B5:J5)</f>
+        <v>1100</v>
+      </c>
+      <c r="M5" s="14">
         <v>2</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="N5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.5</v>
       </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
       <c r="Q5" s="13">
         <v>0</v>
       </c>
@@ -1315,55 +1341,65 @@
         <v>0</v>
       </c>
       <c r="AA5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13">
         <v>1</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AD5" s="13">
         <v>2</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AE5" s="13">
         <v>3</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AF5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AT5" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU5" s="3">
-        <f t="shared" ref="AU5:AU12" si="1">AS5*AT5</f>
-        <v>280.97727272727275</v>
-      </c>
-      <c r="AV5" s="6">
-        <f>SUM(B5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" ref="AW5:AW12" si="2">AV5-AU5</f>
-        <v>-280.97727272727275</v>
-      </c>
-      <c r="AX5" s="9" t="s">
+        <v>11.5</v>
+      </c>
+      <c r="AV5" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW5" s="3">
+        <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
+        <v>465.92250000000001</v>
+      </c>
+      <c r="AX5" s="6">
+        <f>SUM(B5:J5)</f>
+        <v>1100</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
+        <v>634.07749999999999</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AY5"/>
-      <c r="AZ5"/>
-      <c r="BC5" s="17">
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BE5" s="17">
         <v>1</v>
       </c>
-      <c r="BD5" s="16">
+      <c r="BF5" s="16">
         <v>270</v>
       </c>
-      <c r="BH5" s="11">
-        <f>SUM(BD5:BG5)</f>
+      <c r="BJ5" s="11">
+        <f>SUM(BF5:BI5)</f>
         <v>270</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="19"/>
-      <c r="BL5"/>
-      <c r="BM5"/>
+      <c r="BL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="19"/>
       <c r="BN5"/>
       <c r="BO5"/>
       <c r="BP5"/>
@@ -1387,8 +1423,10 @@
       <c r="CH5"/>
       <c r="CI5"/>
       <c r="CJ5"/>
-    </row>
-    <row r="6" spans="1:88" ht="21">
+      <c r="CK5"/>
+      <c r="CL5"/>
+    </row>
+    <row r="6" spans="1:90" ht="21">
       <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
@@ -1399,26 +1437,22 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="6">
-        <f t="shared" ref="I6:I12" si="3">SUM(B6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K12" si="3">SUM(B6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
         <v>3</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="N6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="13">
+      <c r="O6" s="13">
         <v>0.5</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="13">
@@ -1460,47 +1494,57 @@
       <c r="AC6" s="13">
         <v>0</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AD6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="AT6" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU6" s="3">
+      <c r="AV6" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>21.613636363636363</v>
-      </c>
-      <c r="AV6" s="6">
-        <f t="shared" ref="AV6:AV12" si="4">SUM(B6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="AW6">
+        <v>20.2575</v>
+      </c>
+      <c r="AX6" s="6">
+        <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="AY6">
         <f t="shared" si="2"/>
-        <v>-21.613636363636363</v>
-      </c>
-      <c r="AX6" s="9" t="s">
+        <v>-20.2575</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BC6" s="17">
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BE6" s="17">
         <v>2</v>
       </c>
-      <c r="BD6" s="16">
+      <c r="BF6" s="16">
         <v>935</v>
       </c>
-      <c r="BH6" s="11">
-        <f t="shared" ref="BH6:BH35" si="5">SUM(BD6:BG6)</f>
+      <c r="BJ6" s="11">
+        <f t="shared" ref="BJ6:BJ35" si="5">SUM(BF6:BI6)</f>
         <v>935</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL6" t="s">
         <v>16</v>
       </c>
-      <c r="BK6" s="19"/>
-      <c r="BL6"/>
-      <c r="BM6"/>
+      <c r="BM6" s="19"/>
       <c r="BN6"/>
       <c r="BO6"/>
       <c r="BP6"/>
@@ -1524,40 +1568,40 @@
       <c r="CH6"/>
       <c r="CI6"/>
       <c r="CJ6"/>
-    </row>
-    <row r="7" spans="1:88" ht="21">
+      <c r="CK6"/>
+      <c r="CL6"/>
+    </row>
+    <row r="7" spans="1:90" ht="21">
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>1000</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>134</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="6">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="14">
+        <v>1134</v>
+      </c>
+      <c r="M7" s="14">
         <v>4</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="N7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="13">
         <v>0</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="13">
@@ -1576,14 +1620,14 @@
         <v>0</v>
       </c>
       <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
         <v>1</v>
       </c>
-      <c r="W7" s="13">
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
       <c r="Y7" s="13">
         <v>0</v>
       </c>
@@ -1591,57 +1635,67 @@
         <v>0</v>
       </c>
       <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
         <v>1</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AD7" s="13">
         <v>2</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AE7" s="13">
         <v>2</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AF7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AT7" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU7" s="3">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>259.36363636363637</v>
-      </c>
-      <c r="AV7" s="6">
+        <v>405.15</v>
+      </c>
+      <c r="AX7" s="6">
         <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="AW7">
+        <v>1134</v>
+      </c>
+      <c r="AY7">
         <f t="shared" si="2"/>
-        <v>740.63636363636363</v>
-      </c>
-      <c r="AX7" s="9" t="s">
+        <v>728.85</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BC7" s="17">
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BE7" s="17">
         <v>3</v>
       </c>
-      <c r="BD7" s="16">
+      <c r="BF7" s="16">
         <v>790</v>
       </c>
-      <c r="BH7" s="11">
+      <c r="BJ7" s="11">
         <f t="shared" si="5"/>
         <v>790</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BL7" t="s">
         <v>25</v>
       </c>
-      <c r="BK7" s="38">
+      <c r="BM7" s="38">
         <v>42099</v>
       </c>
-      <c r="BL7"/>
-      <c r="BM7"/>
       <c r="BN7"/>
       <c r="BO7"/>
       <c r="BP7"/>
@@ -1665,8 +1719,10 @@
       <c r="CH7"/>
       <c r="CI7"/>
       <c r="CJ7"/>
-    </row>
-    <row r="8" spans="1:88" ht="21">
+      <c r="CK7"/>
+      <c r="CL7"/>
+    </row>
+    <row r="8" spans="1:90" ht="21">
       <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
@@ -1681,39 +1737,35 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="6">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="K8" s="14">
+      <c r="M8" s="14">
         <v>5</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="N8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="13">
+      <c r="O8" s="13">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>0.5</v>
       </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
       <c r="Q8" s="13">
         <v>0</v>
       </c>
       <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
         <v>1</v>
-      </c>
-      <c r="S8" s="13">
-        <v>2</v>
-      </c>
-      <c r="T8" s="13">
-        <v>2</v>
       </c>
       <c r="U8" s="13">
         <v>2</v>
@@ -1731,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="Z8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="13">
         <v>1</v>
@@ -1742,53 +1794,61 @@
       <c r="AC8" s="13">
         <v>1</v>
       </c>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AS8" s="1">
+      <c r="AD8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>20.5</v>
-      </c>
-      <c r="AT8" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU8" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="AV8" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>886.15909090909088</v>
-      </c>
-      <c r="AV8" s="6">
+        <v>911.58749999999998</v>
+      </c>
+      <c r="AX8" s="6">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <f t="shared" si="2"/>
-        <v>113.84090909090912</v>
-      </c>
-      <c r="AX8" s="9" t="s">
+        <v>88.412500000000023</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BC8" s="17">
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BE8" s="17">
         <v>4</v>
       </c>
-      <c r="BD8" s="16">
+      <c r="BF8" s="16">
         <v>475</v>
       </c>
-      <c r="BH8" s="11">
+      <c r="BJ8" s="11">
         <f t="shared" si="5"/>
         <v>475</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>13</v>
       </c>
-      <c r="BK8" s="38">
+      <c r="BM8" s="38">
         <v>42100</v>
       </c>
-      <c r="BL8"/>
-      <c r="BM8"/>
       <c r="BN8"/>
       <c r="BO8"/>
       <c r="BP8"/>
@@ -1812,8 +1872,10 @@
       <c r="CH8"/>
       <c r="CI8"/>
       <c r="CJ8"/>
-    </row>
-    <row r="9" spans="1:88" ht="21">
+      <c r="CK8"/>
+      <c r="CL8"/>
+    </row>
+    <row r="9" spans="1:90" ht="21">
       <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
@@ -1826,28 +1888,24 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="6">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="K9" s="14">
+      <c r="M9" s="14">
         <v>6</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="13">
+      <c r="O9" s="13">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>1.5</v>
       </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
       <c r="Q9" s="13">
         <v>0</v>
       </c>
@@ -1858,39 +1916,47 @@
         <v>0</v>
       </c>
       <c r="T9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V9" s="13">
         <v>1</v>
       </c>
       <c r="W9" s="13">
+        <v>4</v>
+      </c>
+      <c r="X9" s="13">
         <v>1</v>
       </c>
-      <c r="X9" s="13">
+      <c r="Y9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="13">
         <v>2</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>0</v>
       </c>
       <c r="AA9" s="13">
         <v>2</v>
       </c>
       <c r="AB9" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="13">
         <v>2</v>
       </c>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
+      <c r="AD9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>2</v>
+      </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -1901,49 +1967,49 @@
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
       <c r="AQ9" s="13"/>
-      <c r="AS9" s="1">
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="AT9" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU9" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="AV9" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>842.93181818181813</v>
-      </c>
-      <c r="AV9" s="6">
+        <v>952.10249999999996</v>
+      </c>
+      <c r="AX9" s="6">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <f t="shared" si="2"/>
-        <v>157.06818181818187</v>
-      </c>
-      <c r="AX9" s="9" t="s">
+        <v>47.897500000000036</v>
+      </c>
+      <c r="AZ9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BC9" s="17">
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BE9" s="17">
         <v>5</v>
       </c>
-      <c r="BD9" s="16">
+      <c r="BF9" s="16">
         <v>57</v>
       </c>
-      <c r="BH9" s="11">
+      <c r="BJ9" s="11">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="38">
+      <c r="BL9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="38">
         <v>42099</v>
       </c>
-      <c r="BL9"/>
-      <c r="BM9"/>
       <c r="BN9"/>
       <c r="BO9"/>
       <c r="BP9"/>
@@ -1967,8 +2033,10 @@
       <c r="CH9"/>
       <c r="CI9"/>
       <c r="CJ9"/>
-    </row>
-    <row r="10" spans="1:88" ht="21">
+      <c r="CK9"/>
+      <c r="CL9"/>
+    </row>
+    <row r="10" spans="1:90" ht="21">
       <c r="A10" s="34" t="s">
         <v>15</v>
       </c>
@@ -1979,30 +2047,26 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="6">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="14">
+      <c r="M10" s="14">
         <v>7</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="N10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="13">
+      <c r="Q10" s="13">
         <v>2.5</v>
-      </c>
-      <c r="P10" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>2</v>
       </c>
       <c r="R10" s="13">
         <v>2</v>
@@ -2014,14 +2078,14 @@
         <v>2</v>
       </c>
       <c r="U10" s="13">
+        <v>2</v>
+      </c>
+      <c r="V10" s="13">
+        <v>2</v>
+      </c>
+      <c r="W10" s="13">
         <v>1</v>
       </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0</v>
-      </c>
       <c r="X10" s="13">
         <v>0</v>
       </c>
@@ -2040,53 +2104,63 @@
       <c r="AC10" s="13">
         <v>0</v>
       </c>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
-      <c r="AS10" s="1">
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="AT10" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU10" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="AV10" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>626.7954545454545</v>
-      </c>
-      <c r="AV10" s="6">
+        <v>627.98249999999996</v>
+      </c>
+      <c r="AX10" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <f t="shared" si="2"/>
-        <v>-626.7954545454545</v>
-      </c>
-      <c r="AX10" s="9" t="s">
+        <v>-627.98249999999996</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BC10" s="17">
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BE10" s="17">
         <v>6</v>
       </c>
-      <c r="BD10" s="16">
+      <c r="BF10" s="16">
         <v>100</v>
       </c>
-      <c r="BH10" s="11">
+      <c r="BJ10" s="11">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="BJ10"/>
-      <c r="BK10" s="38">
+      <c r="BL10"/>
+      <c r="BM10" s="38">
         <v>42100</v>
       </c>
-      <c r="BL10"/>
-      <c r="BM10"/>
       <c r="BN10"/>
       <c r="BO10"/>
       <c r="BP10"/>
@@ -2110,8 +2184,10 @@
       <c r="CH10"/>
       <c r="CI10"/>
       <c r="CJ10"/>
-    </row>
-    <row r="11" spans="1:88" ht="21">
+      <c r="CK10"/>
+      <c r="CL10"/>
+    </row>
+    <row r="11" spans="1:90" ht="21">
       <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
@@ -2124,36 +2200,34 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="40">
+      <c r="G11" s="5"/>
+      <c r="H11" s="40">
+        <v>215</v>
+      </c>
+      <c r="I11" s="40">
+        <v>651</v>
+      </c>
+      <c r="J11" s="40">
         <v>500</v>
       </c>
-      <c r="H11" s="40">
-        <v>500</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="K11" s="6">
         <f t="shared" si="3"/>
-        <v>1450</v>
-      </c>
-      <c r="K11" s="14">
+        <v>1816</v>
+      </c>
+      <c r="M11" s="14">
         <v>8</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="N11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="13">
+      <c r="O11" s="13">
         <v>0.5</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>1.5</v>
       </c>
-      <c r="O11" s="13">
+      <c r="Q11" s="13">
         <v>2.5</v>
-      </c>
-      <c r="P11" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>2</v>
       </c>
       <c r="R11" s="13">
         <v>2</v>
@@ -2165,23 +2239,23 @@
         <v>2</v>
       </c>
       <c r="U11" s="13">
+        <v>2</v>
+      </c>
+      <c r="V11" s="13">
+        <v>2</v>
+      </c>
+      <c r="W11" s="13">
         <v>3</v>
       </c>
-      <c r="V11" s="13">
+      <c r="X11" s="13">
         <v>4</v>
       </c>
-      <c r="W11" s="13">
+      <c r="Y11" s="13">
         <v>2</v>
       </c>
-      <c r="X11" s="13">
+      <c r="Z11" s="13">
         <v>1</v>
       </c>
-      <c r="Y11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>0</v>
-      </c>
       <c r="AA11" s="13">
         <v>0</v>
       </c>
@@ -2191,10 +2265,18 @@
       <c r="AC11" s="13">
         <v>0</v>
       </c>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
+      <c r="AD11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -2205,49 +2287,49 @@
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
       <c r="AQ11" s="13"/>
-      <c r="AS11" s="1">
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AU11" s="1">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="AT11" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU11" s="3">
+      <c r="AV11" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1059.0681818181818</v>
-      </c>
-      <c r="AV11" s="6">
+        <v>992.61750000000006</v>
+      </c>
+      <c r="AX11" s="6">
         <f t="shared" si="4"/>
-        <v>1450</v>
-      </c>
-      <c r="AW11">
+        <v>1816</v>
+      </c>
+      <c r="AY11">
         <f t="shared" si="2"/>
-        <v>390.93181818181824</v>
-      </c>
-      <c r="AX11" s="9" t="s">
+        <v>823.38249999999994</v>
+      </c>
+      <c r="AZ11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BC11" s="17">
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BE11" s="17">
         <v>7</v>
       </c>
-      <c r="BD11" s="16">
+      <c r="BF11" s="16">
         <v>1020</v>
       </c>
-      <c r="BH11" s="11">
+      <c r="BJ11" s="11">
         <f t="shared" si="5"/>
         <v>1020</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="38">
+      <c r="BL11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="38">
         <v>42101</v>
       </c>
-      <c r="BL11"/>
-      <c r="BM11"/>
       <c r="BN11"/>
       <c r="BO11"/>
       <c r="BP11"/>
@@ -2271,8 +2353,10 @@
       <c r="CH11"/>
       <c r="CI11"/>
       <c r="CJ11"/>
-    </row>
-    <row r="12" spans="1:88" ht="21">
+      <c r="CK11"/>
+      <c r="CL11"/>
+    </row>
+    <row r="12" spans="1:90" ht="21">
       <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
@@ -2287,30 +2371,26 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="6">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="K12" s="14">
+      <c r="M12" s="14">
         <v>9</v>
       </c>
-      <c r="L12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="N12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
         <v>4</v>
-      </c>
-      <c r="P12" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>5</v>
       </c>
       <c r="R12" s="13">
         <v>5</v>
@@ -2325,33 +2405,41 @@
         <v>5</v>
       </c>
       <c r="V12" s="13">
+        <v>5</v>
+      </c>
+      <c r="W12" s="13">
+        <v>5</v>
+      </c>
+      <c r="X12" s="13">
         <v>7</v>
-      </c>
-      <c r="W12" s="13">
-        <v>4</v>
-      </c>
-      <c r="X12" s="13">
-        <v>4</v>
       </c>
       <c r="Y12" s="13">
         <v>4</v>
       </c>
       <c r="Z12" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA12" s="13">
         <v>4</v>
       </c>
       <c r="AB12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="13">
         <v>4</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AD12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="13">
         <v>5</v>
       </c>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
+      <c r="AF12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>4</v>
+      </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -2362,49 +2450,49 @@
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
       <c r="AQ12" s="13"/>
-      <c r="AS12" s="1">
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="AT12" s="3">
-        <f>AV27</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="AU12" s="3">
+        <v>77</v>
+      </c>
+      <c r="AV12" s="3">
+        <f>AX27</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>2982.681818181818</v>
-      </c>
-      <c r="AV12" s="6">
+        <v>3119.6550000000002</v>
+      </c>
+      <c r="AX12" s="6">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <f t="shared" si="2"/>
-        <v>17.318181818181984</v>
-      </c>
-      <c r="AX12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY12"/>
-      <c r="AZ12"/>
-      <c r="BC12" s="17">
+        <v>-119.6550000000002</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BE12" s="17">
         <v>8</v>
       </c>
-      <c r="BD12" s="16">
+      <c r="BF12" s="16">
         <v>125</v>
       </c>
-      <c r="BH12" s="11">
+      <c r="BJ12" s="11">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BL12" t="s">
         <v>16</v>
       </c>
-      <c r="BK12" s="38">
+      <c r="BM12" s="38">
         <v>42102</v>
       </c>
-      <c r="BL12"/>
-      <c r="BM12"/>
       <c r="BN12"/>
       <c r="BO12"/>
       <c r="BP12"/>
@@ -2428,8 +2516,10 @@
       <c r="CH12"/>
       <c r="CI12"/>
       <c r="CJ12"/>
-    </row>
-    <row r="13" spans="1:88" ht="21" customHeight="1">
+      <c r="CK12"/>
+      <c r="CL12"/>
+    </row>
+    <row r="13" spans="1:90" ht="21" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2438,33 +2528,33 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="14"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="14"/>
+      <c r="AV13" s="3"/>
       <c r="AW13"/>
       <c r="AX13"/>
       <c r="AY13"/>
       <c r="AZ13"/>
-      <c r="BC13" s="17">
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BE13" s="17">
         <v>9</v>
       </c>
-      <c r="BD13" s="16">
+      <c r="BF13" s="16">
         <v>35</v>
       </c>
-      <c r="BH13" s="11">
+      <c r="BJ13" s="11">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>27</v>
       </c>
-      <c r="BK13" s="38">
+      <c r="BM13" s="38">
         <v>42102</v>
       </c>
-      <c r="BL13"/>
-      <c r="BM13"/>
       <c r="BN13"/>
       <c r="BO13"/>
       <c r="BP13"/>
@@ -2488,42 +2578,38 @@
       <c r="CH13"/>
       <c r="CI13"/>
       <c r="CJ13"/>
-    </row>
-    <row r="14" spans="1:88" ht="33.75">
-      <c r="A14" s="43" t="s">
+      <c r="CK13"/>
+      <c r="CL13"/>
+    </row>
+    <row r="14" spans="1:90" ht="33.75">
+      <c r="A14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="6">
-        <f>SUM(I4:I13)</f>
-        <v>7850</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="36" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="6">
+        <f>SUM(K4:K13)</f>
+        <v>9450</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="24">
-        <f>SUM(M4:M12)</f>
+      <c r="O14" s="24">
+        <f>SUM(O4:O12)</f>
         <v>3</v>
       </c>
-      <c r="N14" s="24">
-        <f t="shared" ref="N14:AQ14" si="6">SUM(N4:N12)</f>
+      <c r="P14" s="24">
+        <f t="shared" ref="P14:AS14" si="6">SUM(P4:P12)</f>
         <v>5</v>
-      </c>
-      <c r="O14" s="24">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="24">
-        <f t="shared" si="6"/>
-        <v>9</v>
       </c>
       <c r="Q14" s="24">
         <f t="shared" si="6"/>
@@ -2531,67 +2617,67 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S14" s="24">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T14" s="24">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U14" s="24">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V14" s="24">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="W14" s="24">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X14" s="24">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y14" s="24">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="24">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA14" s="24">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="24">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="24">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG14" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH14" s="24">
         <f t="shared" si="6"/>
@@ -2633,45 +2719,51 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AR14" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AS14" s="24">
-        <f>SUM(AS4:AS12)</f>
-        <v>176</v>
-      </c>
-      <c r="AT14" s="3"/>
-      <c r="AU14"/>
-      <c r="AV14" s="27" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="24">
+        <f>SUM(AU4:AU12)</f>
+        <v>200</v>
+      </c>
+      <c r="AV14" s="3"/>
+      <c r="AW14"/>
+      <c r="AX14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AW14" s="27">
-        <f>SUM(AW4:AW12)</f>
-        <v>242.00000000000034</v>
-      </c>
-      <c r="AX14"/>
-      <c r="AY14" s="28" t="s">
+      <c r="AY14" s="27">
+        <f>SUM(AY4:AY12)</f>
+        <v>1347</v>
+      </c>
+      <c r="AZ14"/>
+      <c r="BA14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AZ14" s="28">
-        <f>SUM(I4:I13)</f>
-        <v>7850</v>
-      </c>
-      <c r="BC14" s="17">
+      <c r="BB14" s="28">
+        <f>SUM(K4:K13)</f>
+        <v>9450</v>
+      </c>
+      <c r="BE14" s="17">
         <v>10</v>
       </c>
-      <c r="BD14" s="16">
+      <c r="BF14" s="16">
         <v>50</v>
       </c>
-      <c r="BH14" s="11">
+      <c r="BJ14" s="11">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>16</v>
       </c>
-      <c r="BK14" s="38">
+      <c r="BM14" s="38">
         <v>42103</v>
       </c>
-      <c r="BL14"/>
-      <c r="BM14"/>
       <c r="BN14"/>
       <c r="BO14"/>
       <c r="BP14"/>
@@ -2695,39 +2787,39 @@
       <c r="CH14"/>
       <c r="CI14"/>
       <c r="CJ14"/>
-    </row>
-    <row r="15" spans="1:88" ht="23.25">
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="32" t="s">
+      <c r="CK14"/>
+      <c r="CL14"/>
+    </row>
+    <row r="15" spans="1:90" ht="23.25">
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AW15" s="33"/>
-      <c r="AY15" s="29" t="s">
+      <c r="AY15" s="33"/>
+      <c r="BA15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AZ15" s="29">
-        <f>SUM(BH5:BH35)</f>
-        <v>7608</v>
-      </c>
-      <c r="BC15" s="17">
+      <c r="BB15" s="29">
+        <f>SUM(BJ5:BJ35)</f>
+        <v>8103</v>
+      </c>
+      <c r="BE15" s="17">
         <v>11</v>
       </c>
-      <c r="BD15" s="16">
+      <c r="BF15" s="16">
         <v>20</v>
       </c>
-      <c r="BH15" s="11">
+      <c r="BJ15" s="11">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="38">
+      <c r="BL15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="38">
         <v>42103</v>
       </c>
-      <c r="BL15"/>
-      <c r="BM15"/>
       <c r="BN15"/>
       <c r="BO15"/>
       <c r="BP15"/>
@@ -2751,30 +2843,30 @@
       <c r="CH15"/>
       <c r="CI15"/>
       <c r="CJ15"/>
-    </row>
-    <row r="16" spans="1:88">
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
+      <c r="CK15"/>
+      <c r="CL15"/>
+    </row>
+    <row r="16" spans="1:90">
+      <c r="AX16" s="30"/>
       <c r="AY16" s="30"/>
-      <c r="AZ16" s="30"/>
-      <c r="BC16" s="17">
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BE16" s="17">
         <v>12</v>
       </c>
-      <c r="BD16" s="16">
+      <c r="BF16" s="16">
         <v>400</v>
       </c>
-      <c r="BH16" s="11">
+      <c r="BJ16" s="11">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BL16" t="s">
         <v>16</v>
       </c>
-      <c r="BK16" s="38">
+      <c r="BM16" s="38">
         <v>42103</v>
       </c>
-      <c r="BL16"/>
-      <c r="BM16"/>
       <c r="BN16"/>
       <c r="BO16"/>
       <c r="BP16"/>
@@ -2798,40 +2890,40 @@
       <c r="CH16"/>
       <c r="CI16"/>
       <c r="CJ16"/>
-    </row>
-    <row r="17" spans="1:88" ht="33.75" customHeight="1">
-      <c r="AV17" s="26" t="s">
+      <c r="CK16"/>
+      <c r="CL16"/>
+    </row>
+    <row r="17" spans="1:90" ht="33.75" customHeight="1">
+      <c r="AX17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AW17" s="26">
-        <f>SUM(AW14:AW15)</f>
-        <v>242.00000000000034</v>
-      </c>
-      <c r="AY17" s="31" t="s">
+      <c r="AY17" s="26">
+        <f>SUM(AY14:AY15)</f>
+        <v>1347</v>
+      </c>
+      <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AZ17" s="31">
-        <f>AZ14-AZ15</f>
-        <v>242</v>
-      </c>
-      <c r="BC17" s="17">
+      <c r="BB17" s="31">
+        <f>BB14-BB15</f>
+        <v>1347</v>
+      </c>
+      <c r="BE17" s="17">
         <v>13</v>
       </c>
-      <c r="BD17" s="16">
+      <c r="BF17" s="16">
         <v>220</v>
       </c>
-      <c r="BH17" s="11">
+      <c r="BJ17" s="11">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>14</v>
       </c>
-      <c r="BK17" s="38">
+      <c r="BM17" s="38">
         <v>42103</v>
       </c>
-      <c r="BL17"/>
-      <c r="BM17"/>
       <c r="BN17"/>
       <c r="BO17"/>
       <c r="BP17"/>
@@ -2855,8 +2947,10 @@
       <c r="CH17"/>
       <c r="CI17"/>
       <c r="CJ17"/>
-    </row>
-    <row r="18" spans="1:88" ht="26.25" customHeight="1">
+      <c r="CK17"/>
+      <c r="CL17"/>
+    </row>
+    <row r="18" spans="1:90" ht="26.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2869,24 +2963,28 @@
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BC18" s="17">
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE18" s="17">
         <v>14</v>
       </c>
-      <c r="BD18" s="16">
+      <c r="BF18" s="16">
         <v>85</v>
       </c>
-      <c r="BH18" s="11">
+      <c r="BJ18" s="11">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="38">
+      <c r="BL18" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="38">
         <v>42105</v>
       </c>
-      <c r="BL18"/>
-      <c r="BM18"/>
       <c r="BN18"/>
       <c r="BO18"/>
       <c r="BP18"/>
@@ -2910,8 +3008,10 @@
       <c r="CH18"/>
       <c r="CI18"/>
       <c r="CJ18"/>
-    </row>
-    <row r="19" spans="1:88">
+      <c r="CK18"/>
+      <c r="CL18"/>
+    </row>
+    <row r="19" spans="1:90">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2924,24 +3024,28 @@
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BC19" s="17">
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1">
+        <v>215</v>
+      </c>
+      <c r="BE19" s="17">
         <v>15</v>
       </c>
-      <c r="BD19" s="16">
+      <c r="BF19" s="16">
         <v>20</v>
       </c>
-      <c r="BH19" s="11">
+      <c r="BJ19" s="11">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BL19" t="s">
         <v>14</v>
       </c>
-      <c r="BK19" s="38">
+      <c r="BM19" s="38">
         <v>42105</v>
       </c>
-      <c r="BL19"/>
-      <c r="BM19"/>
       <c r="BN19"/>
       <c r="BO19"/>
       <c r="BP19"/>
@@ -2965,30 +3069,39 @@
       <c r="CH19"/>
       <c r="CI19"/>
       <c r="CJ19"/>
-    </row>
-    <row r="20" spans="1:88" ht="21">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="AX20" s="23"/>
-      <c r="BC20" s="17">
+      <c r="CK19"/>
+      <c r="CL19"/>
+    </row>
+    <row r="20" spans="1:90" ht="21">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="BD20" s="16">
+      <c r="I20" s="1">
+        <v>500</v>
+      </c>
+      <c r="AZ20" s="23"/>
+      <c r="BE20" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF20" s="16">
         <v>100</v>
       </c>
-      <c r="BH20" s="11">
+      <c r="BJ20" s="11">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BL20" t="s">
         <v>16</v>
       </c>
-      <c r="BK20" s="19" t="s">
+      <c r="BM20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BL20"/>
-      <c r="BM20"/>
       <c r="BN20"/>
       <c r="BO20"/>
       <c r="BP20"/>
@@ -3012,34 +3125,40 @@
       <c r="CH20"/>
       <c r="CI20"/>
       <c r="CJ20"/>
-    </row>
-    <row r="21" spans="1:88" ht="23.25">
-      <c r="AT21" s="44" t="s">
+      <c r="CK20"/>
+      <c r="CL20"/>
+    </row>
+    <row r="21" spans="1:90" ht="23.25">
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1">
+        <v>651</v>
+      </c>
+      <c r="AV21" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="44">
-        <f>SUM(AS4:AS12)</f>
-        <v>176</v>
-      </c>
-      <c r="BC21" s="17">
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="45">
+        <f>SUM(AU4:AU12)</f>
+        <v>200</v>
+      </c>
+      <c r="BE21" s="17">
         <v>17</v>
       </c>
-      <c r="BD21" s="16">
+      <c r="BF21" s="16">
         <v>392</v>
       </c>
-      <c r="BH21" s="11">
+      <c r="BJ21" s="11">
         <f t="shared" si="5"/>
         <v>392</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="38">
+      <c r="BL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="38">
         <v>42107</v>
       </c>
-      <c r="BL21"/>
-      <c r="BM21"/>
       <c r="BN21"/>
       <c r="BO21"/>
       <c r="BP21"/>
@@ -3063,29 +3182,29 @@
       <c r="CH21"/>
       <c r="CI21"/>
       <c r="CJ21"/>
-    </row>
-    <row r="22" spans="1:88" ht="23.25">
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="44"/>
-      <c r="BC22" s="17">
+      <c r="CK21"/>
+      <c r="CL21"/>
+    </row>
+    <row r="22" spans="1:90" ht="23.25">
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="45"/>
+      <c r="BE22" s="17">
         <v>18</v>
       </c>
-      <c r="BD22" s="16">
+      <c r="BF22" s="16">
         <v>665</v>
       </c>
-      <c r="BH22" s="11">
+      <c r="BJ22" s="11">
         <f t="shared" si="5"/>
         <v>665</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BL22" t="s">
         <v>13</v>
       </c>
-      <c r="BK22" s="38">
+      <c r="BM22" s="38">
         <v>42106</v>
       </c>
-      <c r="BL22"/>
-      <c r="BM22"/>
       <c r="BN22"/>
       <c r="BO22"/>
       <c r="BP22"/>
@@ -3109,29 +3228,29 @@
       <c r="CH22"/>
       <c r="CI22"/>
       <c r="CJ22"/>
-    </row>
-    <row r="23" spans="1:88" ht="23.25">
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
+      <c r="CK22"/>
+      <c r="CL22"/>
+    </row>
+    <row r="23" spans="1:90" ht="23.25">
       <c r="AV23" s="25"/>
-      <c r="BC23" s="17">
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="BE23" s="17">
         <v>19</v>
       </c>
-      <c r="BD23" s="16">
+      <c r="BF23" s="16">
         <v>362</v>
       </c>
-      <c r="BH23" s="11">
+      <c r="BJ23" s="11">
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BL23" t="s">
         <v>13</v>
       </c>
-      <c r="BK23" s="38">
+      <c r="BM23" s="38">
         <v>42107</v>
       </c>
-      <c r="BL23"/>
-      <c r="BM23"/>
       <c r="BN23"/>
       <c r="BO23"/>
       <c r="BP23"/>
@@ -3155,34 +3274,34 @@
       <c r="CH23"/>
       <c r="CI23"/>
       <c r="CJ23"/>
-    </row>
-    <row r="24" spans="1:88" ht="23.25">
-      <c r="AT24" s="44" t="s">
+      <c r="CK23"/>
+      <c r="CL23"/>
+    </row>
+    <row r="24" spans="1:90" ht="23.25">
+      <c r="AV24" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AU24" s="24"/>
-      <c r="AV24" s="44">
-        <f>SUM(BH5:BH35)</f>
-        <v>7608</v>
-      </c>
-      <c r="BC24" s="17">
+      <c r="AW24" s="24"/>
+      <c r="AX24" s="45">
+        <f>SUM(BJ5:BJ35)</f>
+        <v>8103</v>
+      </c>
+      <c r="BE24" s="17">
         <v>20</v>
       </c>
-      <c r="BD24" s="16">
+      <c r="BF24" s="16">
         <v>160</v>
       </c>
-      <c r="BH24" s="11">
+      <c r="BJ24" s="11">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK24" s="38">
+      <c r="BL24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="38">
         <v>42108</v>
       </c>
-      <c r="BL24"/>
-      <c r="BM24"/>
       <c r="BN24"/>
       <c r="BO24"/>
       <c r="BP24"/>
@@ -3206,29 +3325,29 @@
       <c r="CH24"/>
       <c r="CI24"/>
       <c r="CJ24"/>
-    </row>
-    <row r="25" spans="1:88" ht="23.25">
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="44"/>
-      <c r="BC25" s="17">
+      <c r="CK24"/>
+      <c r="CL24"/>
+    </row>
+    <row r="25" spans="1:90" ht="23.25">
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="45"/>
+      <c r="BE25" s="17">
         <v>21</v>
       </c>
-      <c r="BD25" s="16">
+      <c r="BF25" s="16">
         <v>827</v>
       </c>
-      <c r="BH25" s="11">
+      <c r="BJ25" s="11">
         <f t="shared" si="5"/>
         <v>827</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="38">
+      <c r="BL25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="38">
         <v>42109</v>
       </c>
-      <c r="BL25"/>
-      <c r="BM25"/>
       <c r="BN25"/>
       <c r="BO25"/>
       <c r="BP25"/>
@@ -3252,29 +3371,33 @@
       <c r="CH25"/>
       <c r="CI25"/>
       <c r="CJ25"/>
-    </row>
-    <row r="26" spans="1:88" ht="23.25">
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+    </row>
+    <row r="26" spans="1:90" ht="23.25">
+      <c r="I26" s="47">
+        <f>SUM(I19:I24)</f>
+        <v>1366</v>
+      </c>
       <c r="AV26" s="25"/>
-      <c r="BC26" s="17">
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="BE26" s="17">
         <v>22</v>
       </c>
-      <c r="BD26" s="16">
+      <c r="BF26" s="16">
         <v>410</v>
       </c>
-      <c r="BH26" s="11">
+      <c r="BJ26" s="11">
         <f t="shared" si="5"/>
         <v>410</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="38">
+      <c r="BL26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="38">
         <v>42110</v>
       </c>
-      <c r="BL26"/>
-      <c r="BM26"/>
       <c r="BN26"/>
       <c r="BO26"/>
       <c r="BP26"/>
@@ -3298,34 +3421,34 @@
       <c r="CH26"/>
       <c r="CI26"/>
       <c r="CJ26"/>
-    </row>
-    <row r="27" spans="1:88" ht="23.25">
-      <c r="AT27" s="44" t="s">
+      <c r="CK26"/>
+      <c r="CL26"/>
+    </row>
+    <row r="27" spans="1:90" ht="23.25">
+      <c r="AV27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="44">
-        <f>AV24/AV21</f>
-        <v>43.227272727272727</v>
-      </c>
-      <c r="BC27" s="17">
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="45">
+        <f>AX24/AX21</f>
+        <v>40.515000000000001</v>
+      </c>
+      <c r="BE27" s="17">
         <v>23</v>
       </c>
-      <c r="BD27" s="16">
+      <c r="BF27" s="16">
         <v>90</v>
       </c>
-      <c r="BH27" s="11">
+      <c r="BJ27" s="11">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="19" t="s">
+      <c r="BL27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BL27"/>
-      <c r="BM27"/>
       <c r="BN27"/>
       <c r="BO27"/>
       <c r="BP27"/>
@@ -3349,23 +3472,30 @@
       <c r="CH27"/>
       <c r="CI27"/>
       <c r="CJ27"/>
-    </row>
-    <row r="28" spans="1:88" ht="23.25" customHeight="1">
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="44"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="17">
+      <c r="CK27"/>
+      <c r="CL27"/>
+    </row>
+    <row r="28" spans="1:90" ht="23.25" customHeight="1">
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="45"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="17">
         <v>24</v>
       </c>
-      <c r="BH28" s="11">
+      <c r="BF28" s="16">
+        <v>285</v>
+      </c>
+      <c r="BJ28" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28"/>
-      <c r="BK28" s="19"/>
-      <c r="BL28"/>
-      <c r="BM28"/>
+        <v>285</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM28" s="38">
+        <v>42112</v>
+      </c>
       <c r="BN28"/>
       <c r="BO28"/>
       <c r="BP28"/>
@@ -3389,20 +3519,27 @@
       <c r="CH28"/>
       <c r="CI28"/>
       <c r="CJ28"/>
-    </row>
-    <row r="29" spans="1:88" ht="23.25" customHeight="1">
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="17">
+      <c r="CK28"/>
+      <c r="CL28"/>
+    </row>
+    <row r="29" spans="1:90" ht="23.25" customHeight="1">
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="17">
         <v>25</v>
       </c>
-      <c r="BH29" s="11">
+      <c r="BF29" s="16">
+        <v>210</v>
+      </c>
+      <c r="BJ29" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29"/>
-      <c r="BK29" s="19"/>
-      <c r="BL29"/>
-      <c r="BM29"/>
+        <v>210</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM29" s="38">
+        <v>42113</v>
+      </c>
       <c r="BN29"/>
       <c r="BO29"/>
       <c r="BP29"/>
@@ -3426,19 +3563,19 @@
       <c r="CH29"/>
       <c r="CI29"/>
       <c r="CJ29"/>
-    </row>
-    <row r="30" spans="1:88">
-      <c r="BC30" s="17">
+      <c r="CK29"/>
+      <c r="CL29"/>
+    </row>
+    <row r="30" spans="1:90">
+      <c r="BE30" s="17">
         <v>26</v>
       </c>
-      <c r="BH30" s="11">
+      <c r="BJ30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BJ30"/>
-      <c r="BK30" s="19"/>
       <c r="BL30"/>
-      <c r="BM30"/>
+      <c r="BM30" s="19"/>
       <c r="BN30"/>
       <c r="BO30"/>
       <c r="BP30"/>
@@ -3462,22 +3599,22 @@
       <c r="CH30"/>
       <c r="CI30"/>
       <c r="CJ30"/>
-    </row>
-    <row r="31" spans="1:88" ht="18.75">
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
+      <c r="CK30"/>
+      <c r="CL30"/>
+    </row>
+    <row r="31" spans="1:90" ht="18.75">
       <c r="AW31" s="3"/>
-      <c r="BC31" s="17">
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="BE31" s="17">
         <v>27</v>
       </c>
-      <c r="BH31" s="11">
+      <c r="BJ31" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BJ31"/>
-      <c r="BK31" s="19"/>
       <c r="BL31"/>
-      <c r="BM31"/>
+      <c r="BM31" s="19"/>
       <c r="BN31"/>
       <c r="BO31"/>
       <c r="BP31"/>
@@ -3501,25 +3638,25 @@
       <c r="CH31"/>
       <c r="CI31"/>
       <c r="CJ31"/>
-    </row>
-    <row r="32" spans="1:88" ht="54.75" customHeight="1">
-      <c r="AP32" s="22"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
+      <c r="CK31"/>
+      <c r="CL31"/>
+    </row>
+    <row r="32" spans="1:90" ht="54.75" customHeight="1">
+      <c r="AR32" s="22"/>
       <c r="AS32" s="3"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="BC32" s="17">
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21"/>
+      <c r="BE32" s="17">
         <v>28</v>
       </c>
-      <c r="BH32" s="11">
+      <c r="BJ32" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BJ32"/>
-      <c r="BK32" s="19"/>
       <c r="BL32"/>
-      <c r="BM32"/>
+      <c r="BM32" s="19"/>
       <c r="BN32"/>
       <c r="BO32"/>
       <c r="BP32"/>
@@ -3543,25 +3680,25 @@
       <c r="CH32"/>
       <c r="CI32"/>
       <c r="CJ32"/>
-    </row>
-    <row r="33" spans="13:88" ht="61.5">
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
+      <c r="CK32"/>
+      <c r="CL32"/>
+    </row>
+    <row r="33" spans="15:90" ht="61.5">
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="BC33" s="17">
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AW33" s="21"/>
+      <c r="AX33" s="21"/>
+      <c r="BE33" s="17">
         <v>29</v>
       </c>
-      <c r="BH33" s="11">
+      <c r="BJ33" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BJ33"/>
-      <c r="BK33" s="19"/>
       <c r="BL33"/>
-      <c r="BM33"/>
+      <c r="BM33" s="19"/>
       <c r="BN33"/>
       <c r="BO33"/>
       <c r="BP33"/>
@@ -3585,10 +3722,10 @@
       <c r="CH33"/>
       <c r="CI33"/>
       <c r="CJ33"/>
-    </row>
-    <row r="34" spans="13:88" ht="61.5">
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="CK33"/>
+      <c r="CL33"/>
+    </row>
+    <row r="34" spans="15:90" ht="61.5">
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
@@ -3596,8 +3733,8 @@
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
+      <c r="V34"/>
       <c r="W34"/>
-      <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
       <c r="AA34"/>
@@ -3607,24 +3744,24 @@
       <c r="AE34"/>
       <c r="AF34"/>
       <c r="AG34"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="BC34" s="17">
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="BE34" s="17">
         <v>30</v>
       </c>
-      <c r="BH34" s="11">
+      <c r="BJ34" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK34" s="11"/>
-    </row>
-    <row r="35" spans="13:88" ht="61.5">
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="BM34" s="11"/>
+    </row>
+    <row r="35" spans="15:90" ht="61.5">
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
@@ -3632,8 +3769,8 @@
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
+      <c r="V35"/>
       <c r="W35"/>
-      <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
@@ -3643,24 +3780,24 @@
       <c r="AE35"/>
       <c r="AF35"/>
       <c r="AG35"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="BC35" s="17">
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="BE35" s="17">
         <v>31</v>
       </c>
-      <c r="BH35" s="11">
+      <c r="BJ35" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK35" s="11"/>
-    </row>
-    <row r="36" spans="13:88" ht="15" customHeight="1">
-      <c r="M36"/>
-      <c r="N36"/>
+      <c r="BM35" s="11"/>
+    </row>
+    <row r="36" spans="15:90" ht="15" customHeight="1">
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
@@ -3668,8 +3805,8 @@
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
+      <c r="V36"/>
       <c r="W36"/>
-      <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36"/>
@@ -3679,19 +3816,19 @@
       <c r="AE36"/>
       <c r="AF36"/>
       <c r="AG36"/>
-      <c r="BC36" s="18"/>
-      <c r="BD36" s="18"/>
-      <c r="BE36" s="11"/>
-      <c r="BF36" s="11"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="18"/>
       <c r="BG36" s="11"/>
       <c r="BH36" s="11"/>
       <c r="BI36" s="11"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="11"/>
-    </row>
-    <row r="37" spans="13:88" ht="15" customHeight="1">
-      <c r="M37"/>
-      <c r="N37"/>
+      <c r="BL36" s="11"/>
+      <c r="BM36" s="11"/>
+    </row>
+    <row r="37" spans="15:90" ht="15" customHeight="1">
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
@@ -3699,8 +3836,8 @@
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
+      <c r="V37"/>
       <c r="W37"/>
-      <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
@@ -3710,10 +3847,10 @@
       <c r="AE37"/>
       <c r="AF37"/>
       <c r="AG37"/>
-    </row>
-    <row r="38" spans="13:88" ht="23.25">
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+    </row>
+    <row r="38" spans="15:90" ht="23.25">
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
@@ -3721,8 +3858,8 @@
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
+      <c r="V38"/>
       <c r="W38"/>
-      <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
       <c r="AA38"/>
@@ -3732,24 +3869,24 @@
       <c r="AE38"/>
       <c r="AF38"/>
       <c r="AG38"/>
-      <c r="BC38" s="20" t="s">
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="BE38" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="BD38" s="18"/>
-      <c r="BE38" s="11"/>
-      <c r="BF38" s="11"/>
+      <c r="BF38" s="18"/>
       <c r="BG38" s="11"/>
-      <c r="BH38" s="39">
-        <f>SUM(BH5:BH35)</f>
-        <v>7608</v>
-      </c>
+      <c r="BH38" s="11"/>
       <c r="BI38" s="11"/>
-      <c r="BJ38" s="11"/>
+      <c r="BJ38" s="39">
+        <f>SUM(BJ5:BJ35)</f>
+        <v>8103</v>
+      </c>
       <c r="BK38" s="11"/>
-    </row>
-    <row r="39" spans="13:88" ht="15" customHeight="1">
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="BL38" s="11"/>
+      <c r="BM38" s="11"/>
+    </row>
+    <row r="39" spans="15:90" ht="15" customHeight="1">
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
@@ -3757,8 +3894,8 @@
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39"/>
+      <c r="V39"/>
       <c r="W39"/>
-      <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
@@ -3768,10 +3905,10 @@
       <c r="AE39"/>
       <c r="AF39"/>
       <c r="AG39"/>
-    </row>
-    <row r="40" spans="13:88" ht="15" customHeight="1">
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+    </row>
+    <row r="40" spans="15:90" ht="15" customHeight="1">
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
@@ -3779,8 +3916,8 @@
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
+      <c r="V40"/>
       <c r="W40"/>
-      <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
@@ -3790,10 +3927,10 @@
       <c r="AE40"/>
       <c r="AF40"/>
       <c r="AG40"/>
-    </row>
-    <row r="41" spans="13:88" ht="15" customHeight="1">
-      <c r="M41"/>
-      <c r="N41"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+    </row>
+    <row r="41" spans="15:90" ht="15" customHeight="1">
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
@@ -3801,8 +3938,8 @@
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
+      <c r="V41"/>
       <c r="W41"/>
-      <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
@@ -3812,10 +3949,10 @@
       <c r="AE41"/>
       <c r="AF41"/>
       <c r="AG41"/>
-    </row>
-    <row r="42" spans="13:88" ht="15" customHeight="1">
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+    </row>
+    <row r="42" spans="15:90" ht="15" customHeight="1">
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
@@ -3823,8 +3960,8 @@
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42"/>
+      <c r="V42"/>
       <c r="W42"/>
-      <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
@@ -3834,10 +3971,10 @@
       <c r="AE42"/>
       <c r="AF42"/>
       <c r="AG42"/>
-    </row>
-    <row r="43" spans="13:88" ht="36" customHeight="1">
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+    </row>
+    <row r="43" spans="15:90" ht="36" customHeight="1">
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
@@ -3845,8 +3982,8 @@
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43"/>
+      <c r="V43"/>
       <c r="W43"/>
-      <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
       <c r="AA43"/>
@@ -3856,10 +3993,10 @@
       <c r="AE43"/>
       <c r="AF43"/>
       <c r="AG43"/>
-    </row>
-    <row r="44" spans="13:88" ht="15" customHeight="1">
-      <c r="M44"/>
-      <c r="N44"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+    </row>
+    <row r="44" spans="15:90" ht="15" customHeight="1">
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
@@ -3867,8 +4004,8 @@
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44"/>
+      <c r="V44"/>
       <c r="W44"/>
-      <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
@@ -3878,10 +4015,10 @@
       <c r="AE44"/>
       <c r="AF44"/>
       <c r="AG44"/>
-    </row>
-    <row r="45" spans="13:88" ht="15" customHeight="1">
-      <c r="M45"/>
-      <c r="N45"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+    </row>
+    <row r="45" spans="15:90" ht="15" customHeight="1">
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
@@ -3889,8 +4026,8 @@
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45"/>
+      <c r="V45"/>
       <c r="W45"/>
-      <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45"/>
@@ -3900,10 +4037,10 @@
       <c r="AE45"/>
       <c r="AF45"/>
       <c r="AG45"/>
-    </row>
-    <row r="46" spans="13:88" ht="15" customHeight="1">
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+    </row>
+    <row r="46" spans="15:90" ht="15" customHeight="1">
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
@@ -3911,8 +4048,8 @@
       <c r="S46"/>
       <c r="T46"/>
       <c r="U46"/>
+      <c r="V46"/>
       <c r="W46"/>
-      <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -3922,10 +4059,10 @@
       <c r="AE46"/>
       <c r="AF46"/>
       <c r="AG46"/>
-    </row>
-    <row r="47" spans="13:88" ht="15" customHeight="1">
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+    </row>
+    <row r="47" spans="15:90" ht="15" customHeight="1">
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -3933,8 +4070,8 @@
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47"/>
+      <c r="V47"/>
       <c r="W47"/>
-      <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47"/>
@@ -3944,10 +4081,10 @@
       <c r="AE47"/>
       <c r="AF47"/>
       <c r="AG47"/>
-    </row>
-    <row r="48" spans="13:88" ht="15" customHeight="1">
-      <c r="M48"/>
-      <c r="N48"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+    </row>
+    <row r="48" spans="15:90" ht="15" customHeight="1">
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
@@ -3955,14 +4092,16 @@
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
-    </row>
-    <row r="71" spans="62:64" ht="32.25">
-      <c r="BJ71" s="4"/>
-      <c r="BK71" s="45">
-        <f>SUM(BK4:BK70)</f>
-        <v>799972</v>
-      </c>
-      <c r="BL71" s="45"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="71" spans="64:66" ht="32.25">
+      <c r="BL71" s="4"/>
+      <c r="BM71" s="46">
+        <f>SUM(BM4:BM70)</f>
+        <v>884197</v>
+      </c>
+      <c r="BN71" s="46"/>
     </row>
     <row r="87" spans="2:2" ht="32.25">
       <c r="B87" s="4" t="s">
@@ -3970,17 +4109,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="AT21:AT22"/>
+  <mergeCells count="9">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="AV21:AV22"/>
-    <mergeCell ref="BK71:BL71"/>
-    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AX21:AX22"/>
+    <mergeCell ref="BM71:BN71"/>
     <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AX24:AX25"/>
     <mergeCell ref="AV27:AV28"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="AX27:AX28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>Mehedi</t>
   </si>
@@ -126,20 +126,17 @@
     <t>17 Aprl</t>
   </si>
   <si>
-    <t>Back Money</t>
+    <t>masod internet ar bill 500 taka diase</t>
   </si>
   <si>
-    <t>Wowadod</t>
-  </si>
-  <si>
-    <t>masod internet ar bill 500 taka diase</t>
+    <t>Saving Money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +295,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +382,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -443,7 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -494,6 +506,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,8 +524,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -812,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,10 +993,10 @@
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="35"/>
       <c r="M3" s="10" t="s">
         <v>4</v>
@@ -1211,17 +1226,20 @@
       <c r="AG4" s="13">
         <v>0</v>
       </c>
+      <c r="AH4" s="13">
+        <v>0</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>15</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>607.72500000000002</v>
+        <v>704.29577464788736</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1229,7 +1247,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-207.72500000000002</v>
+        <v>-304.29577464788736</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1361,17 +1379,20 @@
       <c r="AG5" s="13">
         <v>2</v>
       </c>
+      <c r="AH5" s="13">
+        <v>2</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>465.92250000000001</v>
+        <v>633.86619718309862</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1379,7 +1400,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>634.07749999999999</v>
+        <v>466.13380281690138</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1430,7 +1451,9 @@
       <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>230</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1441,7 +1464,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6">
         <f t="shared" ref="K6:K12" si="3">SUM(B6:J6)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="M6" s="14">
         <v>3</v>
@@ -1504,6 +1527,9 @@
         <v>0</v>
       </c>
       <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="13">
         <v>0</v>
       </c>
       <c r="AU6" s="1">
@@ -1512,19 +1538,19 @@
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>20.2575</v>
+        <v>23.476525821596244</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>-20.2575</v>
+        <v>206.52347417840375</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1661,11 +1687,11 @@
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>405.15</v>
+        <v>469.53051643192487</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1673,7 +1699,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>728.85</v>
+        <v>664.46948356807513</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1806,19 +1832,21 @@
       <c r="AG8" s="13">
         <v>1</v>
       </c>
-      <c r="AH8" s="13"/>
+      <c r="AH8" s="13">
+        <v>1</v>
+      </c>
       <c r="AI8" s="13"/>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>911.58749999999998</v>
+        <v>1103.3967136150234</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -1826,7 +1854,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>88.412500000000023</v>
+        <v>-103.39671361502337</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -1957,7 +1985,9 @@
       <c r="AG9" s="13">
         <v>2</v>
       </c>
-      <c r="AH9" s="13"/>
+      <c r="AH9" s="13">
+        <v>2</v>
+      </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
@@ -1971,15 +2001,15 @@
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>952.10249999999996</v>
+        <v>1197.3028169014085</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -1987,7 +2017,7 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>47.897500000000036</v>
+        <v>-197.30281690140851</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2040,7 +2070,9 @@
       <c r="A10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>2000</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2051,7 +2083,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M10" s="14">
         <v>7</v>
@@ -2115,6 +2147,9 @@
       </c>
       <c r="AG10" s="13">
         <v>1</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>2</v>
       </c>
       <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
@@ -2124,23 +2159,23 @@
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>627.98249999999996</v>
+        <v>821.67840375586854</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>-627.98249999999996</v>
+        <v>1178.3215962441313</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2197,22 +2232,20 @@
       <c r="C11" s="5">
         <v>50</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5">
+        <v>710</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="40">
-        <v>215</v>
-      </c>
-      <c r="I11" s="40">
-        <v>651</v>
-      </c>
-      <c r="J11" s="40">
-        <v>500</v>
-      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="6">
         <f t="shared" si="3"/>
-        <v>1816</v>
+        <v>1192</v>
       </c>
       <c r="M11" s="14">
         <v>8</v>
@@ -2277,7 +2310,9 @@
       <c r="AG11" s="13">
         <v>0</v>
       </c>
-      <c r="AH11" s="13"/>
+      <c r="AH11" s="13">
+        <v>2</v>
+      </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
@@ -2291,23 +2326,23 @@
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>992.61750000000006</v>
+        <v>1244.2558685446008</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
-        <v>1816</v>
+        <v>1192</v>
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>823.38249999999994</v>
+        <v>-52.255868544600844</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2367,7 +2402,9 @@
       <c r="D12" s="5">
         <v>1500</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>1000</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2375,7 +2412,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M12" s="14">
         <v>9</v>
@@ -2440,7 +2477,9 @@
       <c r="AG12" s="13">
         <v>4</v>
       </c>
-      <c r="AH12" s="13"/>
+      <c r="AH12" s="13">
+        <v>4</v>
+      </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="13"/>
@@ -2454,23 +2493,23 @@
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>3119.6550000000002</v>
+        <v>3803.1971830985917</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>-119.6550000000002</v>
+        <v>196.80281690140828</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2520,22 +2559,35 @@
       <c r="CL12"/>
     </row>
     <row r="13" spans="1:90" ht="21" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44">
+        <v>4000</v>
+      </c>
       <c r="M13" s="14"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="46">
+        <f>SUM(AW4:AW12)</f>
+        <v>10001</v>
+      </c>
+      <c r="AX13" s="46">
+        <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
+        <v>12056</v>
+      </c>
+      <c r="AY13" s="46">
+        <f t="shared" si="6"/>
+        <v>2055</v>
+      </c>
       <c r="AZ13"/>
       <c r="BA13"/>
       <c r="BB13"/>
@@ -2582,21 +2634,21 @@
       <c r="CL13"/>
     </row>
     <row r="14" spans="1:90" ht="33.75">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="6">
         <f>SUM(K4:K13)</f>
-        <v>9450</v>
+        <v>16056</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="14"/>
@@ -2608,128 +2660,128 @@
         <v>3</v>
       </c>
       <c r="P14" s="24">
-        <f t="shared" ref="P14:AS14" si="6">SUM(P4:P12)</f>
+        <f t="shared" ref="P14:AS14" si="7">SUM(P4:P12)</f>
         <v>5</v>
       </c>
       <c r="Q14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="R14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="S14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="T14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="V14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="X14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="Y14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="Z14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AA14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AB14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AD14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AE14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AF14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AG14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AH14" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="AI14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS14" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -2738,7 +2790,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>1347</v>
+        <v>2055</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -2746,7 +2798,7 @@
       </c>
       <c r="BB14" s="28">
         <f>SUM(K4:K13)</f>
-        <v>9450</v>
+        <v>16056</v>
       </c>
       <c r="BE14" s="17">
         <v>10</v>
@@ -2802,7 +2854,7 @@
       </c>
       <c r="BB15" s="29">
         <f>SUM(BJ5:BJ35)</f>
-        <v>8103</v>
+        <v>10001</v>
       </c>
       <c r="BE15" s="17">
         <v>11</v>
@@ -2899,14 +2951,14 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>1347</v>
+        <v>2055</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>1347</v>
+        <v>6055</v>
       </c>
       <c r="BE17" s="17">
         <v>13</v>
@@ -2963,12 +3015,6 @@
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="BE18" s="17">
         <v>14</v>
       </c>
@@ -3024,12 +3070,6 @@
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="1">
-        <v>215</v>
-      </c>
       <c r="BE19" s="17">
         <v>15</v>
       </c>
@@ -3074,17 +3114,11 @@
     </row>
     <row r="20" spans="1:90" ht="21">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1">
-        <v>500</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="AZ20" s="23"/>
       <c r="BE20" s="17">
         <v>16</v>
@@ -3129,19 +3163,13 @@
       <c r="CL20"/>
     </row>
     <row r="21" spans="1:90" ht="23.25">
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="1">
-        <v>651</v>
-      </c>
-      <c r="AV21" s="45" t="s">
+      <c r="AV21" s="50" t="s">
         <v>19</v>
       </c>
       <c r="AW21" s="24"/>
-      <c r="AX21" s="45">
+      <c r="AX21" s="50">
         <f>SUM(AU4:AU12)</f>
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BE21" s="17">
         <v>17</v>
@@ -3186,9 +3214,9 @@
       <c r="CL21"/>
     </row>
     <row r="22" spans="1:90" ht="23.25">
-      <c r="AV22" s="45"/>
+      <c r="AV22" s="50"/>
       <c r="AW22" s="24"/>
-      <c r="AX22" s="45"/>
+      <c r="AX22" s="50"/>
       <c r="BE22" s="17">
         <v>18</v>
       </c>
@@ -3278,13 +3306,13 @@
       <c r="CL23"/>
     </row>
     <row r="24" spans="1:90" ht="23.25">
-      <c r="AV24" s="45" t="s">
+      <c r="AV24" s="50" t="s">
         <v>6</v>
       </c>
       <c r="AW24" s="24"/>
-      <c r="AX24" s="45">
+      <c r="AX24" s="50">
         <f>SUM(BJ5:BJ35)</f>
-        <v>8103</v>
+        <v>10001</v>
       </c>
       <c r="BE24" s="17">
         <v>20</v>
@@ -3329,9 +3357,9 @@
       <c r="CL24"/>
     </row>
     <row r="25" spans="1:90" ht="23.25">
-      <c r="AV25" s="45"/>
+      <c r="AV25" s="50"/>
       <c r="AW25" s="24"/>
-      <c r="AX25" s="45"/>
+      <c r="AX25" s="50"/>
       <c r="BE25" s="17">
         <v>21</v>
       </c>
@@ -3375,10 +3403,7 @@
       <c r="CL25"/>
     </row>
     <row r="26" spans="1:90" ht="23.25">
-      <c r="I26" s="47">
-        <f>SUM(I19:I24)</f>
-        <v>1366</v>
-      </c>
+      <c r="I26"/>
       <c r="AV26" s="25"/>
       <c r="AW26" s="25"/>
       <c r="AX26" s="25"/>
@@ -3425,13 +3450,13 @@
       <c r="CL26"/>
     </row>
     <row r="27" spans="1:90" ht="23.25">
-      <c r="AV27" s="45" t="s">
+      <c r="AV27" s="50" t="s">
         <v>18</v>
       </c>
       <c r="AW27" s="24"/>
-      <c r="AX27" s="45">
+      <c r="AX27" s="50">
         <f>AX24/AX21</f>
-        <v>40.515000000000001</v>
+        <v>46.953051643192488</v>
       </c>
       <c r="BE27" s="17">
         <v>23</v>
@@ -3476,9 +3501,9 @@
       <c r="CL27"/>
     </row>
     <row r="28" spans="1:90" ht="23.25" customHeight="1">
-      <c r="AV28" s="45"/>
+      <c r="AV28" s="50"/>
       <c r="AW28" s="24"/>
-      <c r="AX28" s="45"/>
+      <c r="AX28" s="50"/>
       <c r="BD28" s="15"/>
       <c r="BE28" s="17">
         <v>24</v>
@@ -3570,12 +3595,19 @@
       <c r="BE30" s="17">
         <v>26</v>
       </c>
+      <c r="BF30" s="16">
+        <v>245</v>
+      </c>
       <c r="BJ30" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL30"/>
-      <c r="BM30" s="19"/>
+        <v>245</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="38">
+        <v>42113</v>
+      </c>
       <c r="BN30"/>
       <c r="BO30"/>
       <c r="BP30"/>
@@ -3609,12 +3641,19 @@
       <c r="BE31" s="17">
         <v>27</v>
       </c>
+      <c r="BF31" s="16">
+        <v>710</v>
+      </c>
       <c r="BJ31" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL31"/>
-      <c r="BM31" s="19"/>
+        <v>710</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM31" s="38">
+        <v>42115</v>
+      </c>
       <c r="BN31"/>
       <c r="BO31"/>
       <c r="BP31"/>
@@ -3651,12 +3690,19 @@
       <c r="BE32" s="17">
         <v>28</v>
       </c>
+      <c r="BF32" s="16">
+        <v>943</v>
+      </c>
       <c r="BJ32" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL32"/>
-      <c r="BM32" s="19"/>
+        <v>943</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM32" s="38">
+        <v>42114</v>
+      </c>
       <c r="BN32"/>
       <c r="BO32"/>
       <c r="BP32"/>
@@ -3880,7 +3926,7 @@
       <c r="BI38" s="11"/>
       <c r="BJ38" s="39">
         <f>SUM(BJ5:BJ35)</f>
-        <v>8103</v>
+        <v>10001</v>
       </c>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
@@ -4097,11 +4143,11 @@
     </row>
     <row r="71" spans="64:66" ht="32.25">
       <c r="BL71" s="4"/>
-      <c r="BM71" s="46">
+      <c r="BM71" s="51">
         <f>SUM(BM4:BM70)</f>
-        <v>884197</v>
-      </c>
-      <c r="BN71" s="46"/>
+        <v>1010539</v>
+      </c>
+      <c r="BN71" s="51"/>
     </row>
     <row r="87" spans="2:2" ht="32.25">
       <c r="B87" s="4" t="s">

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,7 +862,8 @@
     <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="33" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -1229,17 +1230,20 @@
       <c r="AH4" s="13">
         <v>0</v>
       </c>
+      <c r="AI4" s="13">
+        <v>0</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>15</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>704.29577464788736</v>
+        <v>649.41558441558436</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1247,7 +1251,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-304.29577464788736</v>
+        <v>-249.41558441558436</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1382,17 +1386,20 @@
       <c r="AH5" s="13">
         <v>2</v>
       </c>
+      <c r="AI5" s="13">
+        <v>3</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>633.86619718309862</v>
+        <v>714.35714285714289</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1400,7 +1407,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>466.13380281690138</v>
+        <v>385.64285714285711</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1532,17 +1539,20 @@
       <c r="AH6" s="13">
         <v>0</v>
       </c>
+      <c r="AI6" s="13">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>23.476525821596244</v>
+        <v>21.647186147186147</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1550,7 +1560,7 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>206.52347417840375</v>
+        <v>208.35281385281385</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1681,17 +1691,23 @@
       <c r="AG7" s="13">
         <v>2</v>
       </c>
+      <c r="AH7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>3</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>469.53051643192487</v>
+        <v>649.41558441558436</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1699,7 +1715,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>664.46948356807513</v>
+        <v>484.58441558441564</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1835,18 +1851,20 @@
       <c r="AH8" s="13">
         <v>1</v>
       </c>
-      <c r="AI8" s="13"/>
+      <c r="AI8" s="13">
+        <v>1</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1103.3967136150234</v>
+        <v>1060.7121212121212</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -1854,7 +1872,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>-103.39671361502337</v>
+        <v>-60.712121212121247</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -1988,7 +2006,9 @@
       <c r="AH9" s="13">
         <v>2</v>
       </c>
-      <c r="AI9" s="13"/>
+      <c r="AI9" s="13">
+        <v>2</v>
+      </c>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
       <c r="AL9" s="13"/>
@@ -2001,15 +2021,15 @@
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1197.3028169014085</v>
+        <v>1190.5952380952381</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -2017,7 +2037,7 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-197.30281690140851</v>
+        <v>-190.59523809523807</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2151,6 +2171,9 @@
       <c r="AH10" s="13">
         <v>2</v>
       </c>
+      <c r="AI10" s="13">
+        <v>2</v>
+      </c>
       <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
       <c r="AP10" s="13"/>
@@ -2159,15 +2182,15 @@
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>821.67840375586854</v>
+        <v>844.24025974025972</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2175,7 +2198,7 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>1178.3215962441313</v>
+        <v>1155.7597402597403</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2311,9 +2334,11 @@
         <v>0</v>
       </c>
       <c r="AH11" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI11" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>2</v>
+      </c>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
@@ -2326,15 +2351,15 @@
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1244.2558685446008</v>
+        <v>1190.5952380952381</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2342,7 +2367,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>-52.255868544600844</v>
+        <v>1.4047619047619264</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2480,7 +2505,9 @@
       <c r="AH12" s="13">
         <v>4</v>
       </c>
-      <c r="AI12" s="13"/>
+      <c r="AI12" s="13">
+        <v>4</v>
+      </c>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
@@ -2493,15 +2520,15 @@
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>3803.1971830985917</v>
+        <v>3680.0216450216449</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2509,7 +2536,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>196.80281690140828</v>
+        <v>319.97835497835513</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2733,11 +2760,11 @@
       </c>
       <c r="AH14" s="24">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ14" s="24">
         <f t="shared" si="7"/>
@@ -2781,7 +2808,7 @@
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -3169,7 +3196,7 @@
       <c r="AW21" s="24"/>
       <c r="AX21" s="50">
         <f>SUM(AU4:AU12)</f>
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="BE21" s="17">
         <v>17</v>
@@ -3456,7 +3483,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="50">
         <f>AX24/AX21</f>
-        <v>46.953051643192488</v>
+        <v>43.294372294372295</v>
       </c>
       <c r="BE27" s="17">
         <v>23</v>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Mehedi</t>
   </si>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM34" sqref="BM34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,8 +862,8 @@
     <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="33" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -1233,17 +1233,20 @@
       <c r="AI4" s="13">
         <v>0</v>
       </c>
+      <c r="AJ4" s="13">
+        <v>2</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>649.41558441558436</v>
+        <v>745.76494023904377</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1251,7 +1254,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-249.41558441558436</v>
+        <v>-345.76494023904377</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1389,17 +1392,20 @@
       <c r="AI5" s="13">
         <v>3</v>
       </c>
+      <c r="AJ5" s="13">
+        <v>4</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>714.35714285714289</v>
+        <v>899.30478087649396</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>385.64285714285711</v>
+        <v>200.69521912350604</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1542,17 +1548,20 @@
       <c r="AI6" s="13">
         <v>0</v>
       </c>
+      <c r="AJ6" s="13">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>21.647186147186147</v>
+        <v>21.93426294820717</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1560,7 +1569,7 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>208.35281385281385</v>
+        <v>208.06573705179284</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1697,17 +1706,20 @@
       <c r="AI7" s="13">
         <v>3</v>
       </c>
+      <c r="AJ7" s="13">
+        <v>2</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>649.41558441558436</v>
+        <v>745.76494023904377</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1715,7 +1727,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>484.58441558441564</v>
+        <v>388.23505976095623</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1854,17 +1866,20 @@
       <c r="AI8" s="13">
         <v>1</v>
       </c>
+      <c r="AJ8" s="13">
+        <v>2</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1060.7121212121212</v>
+        <v>1162.51593625498</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -1872,7 +1887,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>-60.712121212121247</v>
+        <v>-162.51593625498003</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -2009,7 +2024,9 @@
       <c r="AI9" s="13">
         <v>2</v>
       </c>
-      <c r="AJ9" s="13"/>
+      <c r="AJ9" s="13">
+        <v>2</v>
+      </c>
       <c r="AK9" s="13"/>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
@@ -2021,15 +2038,15 @@
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1190.5952380952381</v>
+        <v>1294.1215139442231</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -2037,7 +2054,7 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-190.59523809523807</v>
+        <v>-294.12151394422312</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2174,6 +2191,9 @@
       <c r="AI10" s="13">
         <v>2</v>
       </c>
+      <c r="AJ10" s="13">
+        <v>2</v>
+      </c>
       <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
       <c r="AP10" s="13"/>
@@ -2182,15 +2202,15 @@
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>844.24025974025972</v>
+        <v>943.17330677290829</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2198,7 +2218,7 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>1155.7597402597403</v>
+        <v>1056.8266932270917</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2339,7 +2359,9 @@
       <c r="AI11" s="13">
         <v>2</v>
       </c>
-      <c r="AJ11" s="13"/>
+      <c r="AJ11" s="13">
+        <v>2</v>
+      </c>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
@@ -2351,15 +2373,15 @@
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1190.5952380952381</v>
+        <v>1294.1215139442231</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2367,7 +2389,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>1.4047619047619264</v>
+        <v>-102.12151394422312</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2508,7 +2530,9 @@
       <c r="AI12" s="13">
         <v>4</v>
       </c>
-      <c r="AJ12" s="13"/>
+      <c r="AJ12" s="13">
+        <v>4</v>
+      </c>
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
@@ -2520,15 +2544,15 @@
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>3680.0216450216449</v>
+        <v>3904.2988047808763</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2536,7 +2560,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>319.97835497835513</v>
+        <v>95.701195219123747</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2605,7 +2629,7 @@
       <c r="AV13" s="45"/>
       <c r="AW13" s="46">
         <f>SUM(AW4:AW12)</f>
-        <v>10001</v>
+        <v>11010.999999999998</v>
       </c>
       <c r="AX13" s="46">
         <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
@@ -2613,7 +2637,7 @@
       </c>
       <c r="AY13" s="46">
         <f t="shared" si="6"/>
-        <v>2055</v>
+        <v>1045.0000000000005</v>
       </c>
       <c r="AZ13"/>
       <c r="BA13"/>
@@ -2768,7 +2792,7 @@
       </c>
       <c r="AJ14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK14" s="24">
         <f t="shared" si="7"/>
@@ -2808,7 +2832,7 @@
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -2817,7 +2841,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>2055</v>
+        <v>1045.0000000000005</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -2881,7 +2905,7 @@
       </c>
       <c r="BB15" s="29">
         <f>SUM(BJ5:BJ35)</f>
-        <v>10001</v>
+        <v>11011</v>
       </c>
       <c r="BE15" s="17">
         <v>11</v>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>2055</v>
+        <v>1045.0000000000005</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>6055</v>
+        <v>5045</v>
       </c>
       <c r="BE17" s="17">
         <v>13</v>
@@ -3196,7 +3220,7 @@
       <c r="AW21" s="24"/>
       <c r="AX21" s="50">
         <f>SUM(AU4:AU12)</f>
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="BE21" s="17">
         <v>17</v>
@@ -3339,7 +3363,7 @@
       <c r="AW24" s="24"/>
       <c r="AX24" s="50">
         <f>SUM(BJ5:BJ35)</f>
-        <v>10001</v>
+        <v>11011</v>
       </c>
       <c r="BE24" s="17">
         <v>20</v>
@@ -3483,7 +3507,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="50">
         <f>AX24/AX21</f>
-        <v>43.294372294372295</v>
+        <v>43.86852589641434</v>
       </c>
       <c r="BE27" s="17">
         <v>23</v>
@@ -3766,12 +3790,19 @@
       <c r="BE33" s="17">
         <v>29</v>
       </c>
+      <c r="BF33" s="16">
+        <v>1010</v>
+      </c>
       <c r="BJ33" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL33"/>
-      <c r="BM33" s="19"/>
+        <v>1010</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM33" s="38">
+        <v>42116</v>
+      </c>
       <c r="BN33"/>
       <c r="BO33"/>
       <c r="BP33"/>
@@ -3953,7 +3984,7 @@
       <c r="BI38" s="11"/>
       <c r="BJ38" s="39">
         <f>SUM(BJ5:BJ35)</f>
-        <v>10001</v>
+        <v>11011</v>
       </c>
       <c r="BK38" s="11"/>
       <c r="BL38" s="11"/>
@@ -4172,7 +4203,7 @@
       <c r="BL71" s="4"/>
       <c r="BM71" s="51">
         <f>SUM(BM4:BM70)</f>
-        <v>1010539</v>
+        <v>1052655</v>
       </c>
       <c r="BN71" s="51"/>
     </row>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Mehedi</t>
   </si>
@@ -455,7 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -511,6 +511,7 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL87"/>
+  <dimension ref="A1:CL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM34" sqref="BM34"/>
+    <sheetView tabSelected="1" topLeftCell="AM4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM40" sqref="BM40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,8 +863,7 @@
     <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="33" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -994,10 +994,10 @@
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="35"/>
       <c r="M3" s="10" t="s">
         <v>4</v>
@@ -1236,17 +1236,26 @@
       <c r="AJ4" s="13">
         <v>2</v>
       </c>
+      <c r="AK4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="13">
+        <v>0</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>17</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>745.76494023904377</v>
+        <v>749.43973941368085</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1254,16 +1263,14 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-345.76494023904377</v>
+        <v>-349.43973941368085</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BE4" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="BE4" s="17"/>
       <c r="BF4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1395,17 +1402,26 @@
       <c r="AJ5" s="13">
         <v>4</v>
       </c>
+      <c r="AK5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="13">
+        <v>4</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>899.30478087649396</v>
+        <v>1300.498371335505</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1413,16 +1429,14 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>200.69521912350604</v>
+        <v>-200.498371335505</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BE5" s="17">
-        <v>1</v>
-      </c>
+      <c r="BE5" s="17"/>
       <c r="BF5" s="16">
         <v>270</v>
       </c>
@@ -1551,17 +1565,26 @@
       <c r="AJ6" s="13">
         <v>0</v>
       </c>
+      <c r="AK6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>21.93426294820717</v>
+        <v>22.042345276872965</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1569,21 +1592,19 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>208.06573705179284</v>
+        <v>207.95765472312704</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BE6" s="17">
-        <v>2</v>
-      </c>
+      <c r="BE6" s="17"/>
       <c r="BF6" s="16">
         <v>935</v>
       </c>
       <c r="BJ6" s="11">
-        <f t="shared" ref="BJ6:BJ35" si="5">SUM(BF6:BI6)</f>
+        <f t="shared" ref="BJ6:BJ43" si="5">SUM(BF6:BI6)</f>
         <v>935</v>
       </c>
       <c r="BL6" t="s">
@@ -1709,17 +1730,26 @@
       <c r="AJ7" s="13">
         <v>2</v>
       </c>
+      <c r="AK7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="13">
+        <v>3</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>745.76494023904377</v>
+        <v>1058.0325732899023</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1727,16 +1757,14 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>388.23505976095623</v>
+        <v>75.967426710097698</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="BA7"/>
       <c r="BB7"/>
-      <c r="BE7" s="17">
-        <v>3</v>
-      </c>
+      <c r="BE7" s="17"/>
       <c r="BF7" s="16">
         <v>790</v>
       </c>
@@ -1786,7 +1814,9 @@
       <c r="C8" s="5">
         <v>500</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>500</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1795,7 +1825,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="6">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M8" s="14">
         <v>5</v>
@@ -1869,34 +1899,41 @@
       <c r="AJ8" s="13">
         <v>2</v>
       </c>
+      <c r="AK8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>3</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>31.5</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1162.51593625498</v>
+        <v>1388.6677524429967</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>-162.51593625498003</v>
+        <v>111.33224755700326</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="BA8"/>
       <c r="BB8"/>
-      <c r="BE8" s="17">
-        <v>4</v>
-      </c>
+      <c r="BE8" s="17"/>
       <c r="BF8" s="16">
         <v>475</v>
       </c>
@@ -2027,9 +2064,15 @@
       <c r="AJ9" s="13">
         <v>2</v>
       </c>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
+      <c r="AK9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>3</v>
+      </c>
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
@@ -2038,15 +2081,15 @@
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>36.5</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1294.1215139442231</v>
+        <v>1609.0912052117264</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -2054,16 +2097,14 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-294.12151394422312</v>
+        <v>-609.09120521172645</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="BA9"/>
       <c r="BB9"/>
-      <c r="BE9" s="17">
-        <v>5</v>
-      </c>
+      <c r="BE9" s="17"/>
       <c r="BF9" s="16">
         <v>57</v>
       </c>
@@ -2194,7 +2235,15 @@
       <c r="AJ10" s="13">
         <v>2</v>
       </c>
-      <c r="AM10" s="13"/>
+      <c r="AK10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>5</v>
+      </c>
       <c r="AN10" s="13"/>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
@@ -2202,15 +2251,15 @@
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>30.5</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>943.17330677290829</v>
+        <v>1344.5830618892508</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2218,16 +2267,14 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>1056.8266932270917</v>
+        <v>655.41693811074924</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="BA10"/>
       <c r="BB10"/>
-      <c r="BE10" s="17">
-        <v>6</v>
-      </c>
+      <c r="BE10" s="17"/>
       <c r="BF10" s="16">
         <v>100</v>
       </c>
@@ -2362,9 +2409,15 @@
       <c r="AJ11" s="13">
         <v>2</v>
       </c>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
+      <c r="AK11" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="13">
+        <v>3</v>
+      </c>
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
@@ -2373,15 +2426,15 @@
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>35.5</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1294.1215139442231</v>
+        <v>1565.0065146579805</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2389,16 +2442,14 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>-102.12151394422312</v>
+        <v>-373.00651465798046</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="BA11"/>
       <c r="BB11"/>
-      <c r="BE11" s="17">
-        <v>7</v>
-      </c>
+      <c r="BE11" s="17"/>
       <c r="BF11" s="16">
         <v>1020</v>
       </c>
@@ -2533,9 +2584,15 @@
       <c r="AJ12" s="13">
         <v>4</v>
       </c>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
+      <c r="AK12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>6</v>
+      </c>
       <c r="AN12" s="13"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
@@ -2544,15 +2601,15 @@
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>43.86852589641434</v>
+        <v>44.084690553745929</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>3904.2988047808763</v>
+        <v>4496.6384364820851</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2560,16 +2617,14 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>95.701195219123747</v>
+        <v>-496.63843648208513</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="BA12"/>
       <c r="BB12"/>
-      <c r="BE12" s="17">
-        <v>8</v>
-      </c>
+      <c r="BE12" s="17"/>
       <c r="BF12" s="16">
         <v>125</v>
       </c>
@@ -2629,22 +2684,20 @@
       <c r="AV13" s="45"/>
       <c r="AW13" s="46">
         <f>SUM(AW4:AW12)</f>
-        <v>11010.999999999998</v>
+        <v>13534</v>
       </c>
       <c r="AX13" s="46">
         <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
-        <v>12056</v>
+        <v>12556</v>
       </c>
       <c r="AY13" s="46">
         <f t="shared" si="6"/>
-        <v>1045.0000000000005</v>
+        <v>-978.00000000000068</v>
       </c>
       <c r="AZ13"/>
       <c r="BA13"/>
       <c r="BB13"/>
-      <c r="BE13" s="17">
-        <v>9</v>
-      </c>
+      <c r="BE13" s="17"/>
       <c r="BF13" s="16">
         <v>35</v>
       </c>
@@ -2685,21 +2738,21 @@
       <c r="CL13"/>
     </row>
     <row r="14" spans="1:90" ht="33.75">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="6">
         <f>SUM(K4:K13)</f>
-        <v>16056</v>
+        <v>16556</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="14"/>
@@ -2796,15 +2849,15 @@
       </c>
       <c r="AK14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AM14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN14" s="24">
         <f t="shared" si="7"/>
@@ -2832,7 +2885,7 @@
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -2841,7 +2894,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>1045.0000000000005</v>
+        <v>-978.00000000000068</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -2849,11 +2902,9 @@
       </c>
       <c r="BB14" s="28">
         <f>SUM(K4:K13)</f>
-        <v>16056</v>
-      </c>
-      <c r="BE14" s="17">
-        <v>10</v>
-      </c>
+        <v>16556</v>
+      </c>
+      <c r="BE14" s="17"/>
       <c r="BF14" s="16">
         <v>50</v>
       </c>
@@ -2904,12 +2955,10 @@
         <v>6</v>
       </c>
       <c r="BB15" s="29">
-        <f>SUM(BJ5:BJ35)</f>
-        <v>11011</v>
-      </c>
-      <c r="BE15" s="17">
-        <v>11</v>
-      </c>
+        <f>SUM(BJ5:BJ43)</f>
+        <v>13534</v>
+      </c>
+      <c r="BE15" s="17"/>
       <c r="BF15" s="16">
         <v>20</v>
       </c>
@@ -2954,9 +3003,7 @@
       <c r="AY16" s="30"/>
       <c r="BA16" s="30"/>
       <c r="BB16" s="30"/>
-      <c r="BE16" s="17">
-        <v>12</v>
-      </c>
+      <c r="BE16" s="17"/>
       <c r="BF16" s="16">
         <v>400</v>
       </c>
@@ -3002,18 +3049,16 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>1045.0000000000005</v>
+        <v>-978.00000000000068</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>5045</v>
-      </c>
-      <c r="BE17" s="17">
-        <v>13</v>
-      </c>
+        <v>3022</v>
+      </c>
+      <c r="BE17" s="17"/>
       <c r="BF17" s="16">
         <v>220</v>
       </c>
@@ -3066,9 +3111,7 @@
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BE18" s="17">
-        <v>14</v>
-      </c>
+      <c r="BE18" s="17"/>
       <c r="BF18" s="16">
         <v>85</v>
       </c>
@@ -3121,9 +3164,7 @@
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BE19" s="17">
-        <v>15</v>
-      </c>
+      <c r="BE19" s="17"/>
       <c r="BF19" s="16">
         <v>20</v>
       </c>
@@ -3171,9 +3212,7 @@
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="AZ20" s="23"/>
-      <c r="BE20" s="17">
-        <v>16</v>
-      </c>
+      <c r="BE20" s="17"/>
       <c r="BF20" s="16">
         <v>100</v>
       </c>
@@ -3214,17 +3253,15 @@
       <c r="CL20"/>
     </row>
     <row r="21" spans="1:90" ht="23.25">
-      <c r="AV21" s="50" t="s">
+      <c r="AV21" s="51" t="s">
         <v>19</v>
       </c>
       <c r="AW21" s="24"/>
-      <c r="AX21" s="50">
+      <c r="AX21" s="51">
         <f>SUM(AU4:AU12)</f>
-        <v>251</v>
-      </c>
-      <c r="BE21" s="17">
-        <v>17</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="BE21" s="17"/>
       <c r="BF21" s="16">
         <v>392</v>
       </c>
@@ -3265,12 +3302,10 @@
       <c r="CL21"/>
     </row>
     <row r="22" spans="1:90" ht="23.25">
-      <c r="AV22" s="50"/>
+      <c r="AV22" s="51"/>
       <c r="AW22" s="24"/>
-      <c r="AX22" s="50"/>
-      <c r="BE22" s="17">
-        <v>18</v>
-      </c>
+      <c r="AX22" s="51"/>
+      <c r="BE22" s="17"/>
       <c r="BF22" s="16">
         <v>665</v>
       </c>
@@ -3314,9 +3349,7 @@
       <c r="AV23" s="25"/>
       <c r="AW23" s="25"/>
       <c r="AX23" s="25"/>
-      <c r="BE23" s="17">
-        <v>19</v>
-      </c>
+      <c r="BE23" s="17"/>
       <c r="BF23" s="16">
         <v>362</v>
       </c>
@@ -3357,17 +3390,15 @@
       <c r="CL23"/>
     </row>
     <row r="24" spans="1:90" ht="23.25">
-      <c r="AV24" s="50" t="s">
+      <c r="AV24" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AW24" s="24"/>
-      <c r="AX24" s="50">
-        <f>SUM(BJ5:BJ35)</f>
-        <v>11011</v>
-      </c>
-      <c r="BE24" s="17">
-        <v>20</v>
-      </c>
+      <c r="AX24" s="51">
+        <f>SUM(BJ5:BJ43)</f>
+        <v>13534</v>
+      </c>
+      <c r="BE24" s="17"/>
       <c r="BF24" s="16">
         <v>160</v>
       </c>
@@ -3408,12 +3439,10 @@
       <c r="CL24"/>
     </row>
     <row r="25" spans="1:90" ht="23.25">
-      <c r="AV25" s="50"/>
+      <c r="AV25" s="51"/>
       <c r="AW25" s="24"/>
-      <c r="AX25" s="50"/>
-      <c r="BE25" s="17">
-        <v>21</v>
-      </c>
+      <c r="AX25" s="51"/>
+      <c r="BE25" s="17"/>
       <c r="BF25" s="16">
         <v>827</v>
       </c>
@@ -3458,9 +3487,7 @@
       <c r="AV26" s="25"/>
       <c r="AW26" s="25"/>
       <c r="AX26" s="25"/>
-      <c r="BE26" s="17">
-        <v>22</v>
-      </c>
+      <c r="BE26" s="17"/>
       <c r="BF26" s="16">
         <v>410</v>
       </c>
@@ -3501,17 +3528,15 @@
       <c r="CL26"/>
     </row>
     <row r="27" spans="1:90" ht="23.25">
-      <c r="AV27" s="50" t="s">
+      <c r="AV27" s="51" t="s">
         <v>18</v>
       </c>
       <c r="AW27" s="24"/>
-      <c r="AX27" s="50">
+      <c r="AX27" s="51">
         <f>AX24/AX21</f>
-        <v>43.86852589641434</v>
-      </c>
-      <c r="BE27" s="17">
-        <v>23</v>
-      </c>
+        <v>44.084690553745929</v>
+      </c>
+      <c r="BE27" s="17"/>
       <c r="BF27" s="16">
         <v>90</v>
       </c>
@@ -3552,13 +3577,11 @@
       <c r="CL27"/>
     </row>
     <row r="28" spans="1:90" ht="23.25" customHeight="1">
-      <c r="AV28" s="50"/>
+      <c r="AV28" s="51"/>
       <c r="AW28" s="24"/>
-      <c r="AX28" s="50"/>
+      <c r="AX28" s="51"/>
       <c r="BD28" s="15"/>
-      <c r="BE28" s="17">
-        <v>24</v>
-      </c>
+      <c r="BE28" s="17"/>
       <c r="BF28" s="16">
         <v>285</v>
       </c>
@@ -3600,9 +3623,7 @@
     </row>
     <row r="29" spans="1:90" ht="23.25" customHeight="1">
       <c r="BD29" s="15"/>
-      <c r="BE29" s="17">
-        <v>25</v>
-      </c>
+      <c r="BE29" s="17"/>
       <c r="BF29" s="16">
         <v>210</v>
       </c>
@@ -3643,9 +3664,7 @@
       <c r="CL29"/>
     </row>
     <row r="30" spans="1:90">
-      <c r="BE30" s="17">
-        <v>26</v>
-      </c>
+      <c r="BE30" s="17"/>
       <c r="BF30" s="16">
         <v>245</v>
       </c>
@@ -3689,9 +3708,7 @@
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
       <c r="AY31" s="3"/>
-      <c r="BE31" s="17">
-        <v>27</v>
-      </c>
+      <c r="BE31" s="17"/>
       <c r="BF31" s="16">
         <v>710</v>
       </c>
@@ -3738,9 +3755,7 @@
       <c r="AU32" s="3"/>
       <c r="AW32" s="21"/>
       <c r="AX32" s="21"/>
-      <c r="BE32" s="17">
-        <v>28</v>
-      </c>
+      <c r="BE32" s="17"/>
       <c r="BF32" s="16">
         <v>943</v>
       </c>
@@ -3787,9 +3802,7 @@
       <c r="AU33" s="3"/>
       <c r="AW33" s="21"/>
       <c r="AX33" s="21"/>
-      <c r="BE33" s="17">
-        <v>29</v>
-      </c>
+      <c r="BE33" s="17"/>
       <c r="BF33" s="16">
         <v>1010</v>
       </c>
@@ -3856,14 +3869,20 @@
       <c r="AU34" s="3"/>
       <c r="AW34" s="21"/>
       <c r="AX34" s="21"/>
-      <c r="BE34" s="17">
-        <v>30</v>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="16">
+        <v>440</v>
       </c>
       <c r="BJ34" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM34" s="11"/>
+        <v>440</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM34" s="47">
+        <v>42116</v>
+      </c>
     </row>
     <row r="35" spans="15:90" ht="61.5">
       <c r="O35"/>
@@ -3892,16 +3911,22 @@
       <c r="AU35" s="3"/>
       <c r="AW35" s="21"/>
       <c r="AX35" s="21"/>
-      <c r="BE35" s="17">
-        <v>31</v>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="16">
+        <v>268</v>
       </c>
       <c r="BJ35" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM35" s="11"/>
-    </row>
-    <row r="36" spans="15:90" ht="15" customHeight="1">
+        <v>268</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM35" s="47">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="36" spans="15:90" ht="61.5">
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
@@ -3922,17 +3947,28 @@
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-      <c r="BE36" s="18"/>
-      <c r="BF36" s="18"/>
-      <c r="BG36" s="11"/>
-      <c r="BH36" s="11"/>
-      <c r="BI36" s="11"/>
-      <c r="BJ36" s="11"/>
-      <c r="BK36" s="11"/>
-      <c r="BL36" s="11"/>
-      <c r="BM36" s="11"/>
-    </row>
-    <row r="37" spans="15:90" ht="15" customHeight="1">
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="16">
+        <v>530</v>
+      </c>
+      <c r="BJ36" s="11">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="47">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="37" spans="15:90" ht="61.5">
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
@@ -3953,8 +3989,28 @@
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
-    </row>
-    <row r="38" spans="15:90" ht="23.25">
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="16">
+        <v>200</v>
+      </c>
+      <c r="BJ37" s="11">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM37" s="47">
+        <v>42118</v>
+      </c>
+    </row>
+    <row r="38" spans="15:90" ht="61.5">
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
@@ -3975,22 +4031,28 @@
       <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
-      <c r="BE38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF38" s="18"/>
-      <c r="BG38" s="11"/>
-      <c r="BH38" s="11"/>
-      <c r="BI38" s="11"/>
-      <c r="BJ38" s="39">
-        <f>SUM(BJ5:BJ35)</f>
-        <v>11011</v>
-      </c>
-      <c r="BK38" s="11"/>
-      <c r="BL38" s="11"/>
-      <c r="BM38" s="11"/>
-    </row>
-    <row r="39" spans="15:90" ht="15" customHeight="1">
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="16">
+        <v>990</v>
+      </c>
+      <c r="BJ38" s="11">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM38" s="47">
+        <v>42119</v>
+      </c>
+    </row>
+    <row r="39" spans="15:90" ht="61.5">
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
@@ -4011,8 +4073,28 @@
       <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
-    </row>
-    <row r="40" spans="15:90" ht="15" customHeight="1">
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="16">
+        <v>95</v>
+      </c>
+      <c r="BJ39" s="11">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="47">
+        <v>42119</v>
+      </c>
+    </row>
+    <row r="40" spans="15:90" ht="61.5">
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
@@ -4033,8 +4115,17 @@
       <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
-    </row>
-    <row r="41" spans="15:90" ht="15" customHeight="1">
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="BE40" s="17"/>
+      <c r="BJ40" s="11"/>
+      <c r="BM40" s="47"/>
+    </row>
+    <row r="41" spans="15:90" ht="61.5">
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
@@ -4055,8 +4146,17 @@
       <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
-    </row>
-    <row r="42" spans="15:90" ht="15" customHeight="1">
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="BE41" s="17"/>
+      <c r="BJ41" s="11"/>
+      <c r="BM41" s="47"/>
+    </row>
+    <row r="42" spans="15:90" ht="61.5">
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
@@ -4077,8 +4177,17 @@
       <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
-    </row>
-    <row r="43" spans="15:90" ht="36" customHeight="1">
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="21"/>
+      <c r="BE42" s="17"/>
+      <c r="BJ42" s="11"/>
+      <c r="BM42" s="47"/>
+    </row>
+    <row r="43" spans="15:90" ht="61.5">
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
@@ -4099,6 +4208,20 @@
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="BE43" s="17">
+        <v>31</v>
+      </c>
+      <c r="BJ43" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BM43" s="11"/>
     </row>
     <row r="44" spans="15:90" ht="15" customHeight="1">
       <c r="O44"/>
@@ -4121,6 +4244,15 @@
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
+      <c r="BE44" s="18"/>
+      <c r="BF44" s="18"/>
+      <c r="BG44" s="11"/>
+      <c r="BH44" s="11"/>
+      <c r="BI44" s="11"/>
+      <c r="BJ44" s="11"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="11"/>
+      <c r="BM44" s="11"/>
     </row>
     <row r="45" spans="15:90" ht="15" customHeight="1">
       <c r="O45"/>
@@ -4144,7 +4276,7 @@
       <c r="AH45"/>
       <c r="AI45"/>
     </row>
-    <row r="46" spans="15:90" ht="15" customHeight="1">
+    <row r="46" spans="15:90" ht="23.25">
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
@@ -4165,6 +4297,20 @@
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
+      <c r="BE46" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF46" s="18"/>
+      <c r="BG46" s="11"/>
+      <c r="BH46" s="11"/>
+      <c r="BI46" s="11"/>
+      <c r="BJ46" s="39">
+        <f>SUM(BJ5:BJ43)</f>
+        <v>13534</v>
+      </c>
+      <c r="BK46" s="11"/>
+      <c r="BL46" s="11"/>
+      <c r="BM46" s="11"/>
     </row>
     <row r="47" spans="15:90" ht="15" customHeight="1">
       <c r="O47"/>
@@ -4198,17 +4344,193 @@
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
-    </row>
-    <row r="71" spans="64:66" ht="32.25">
-      <c r="BL71" s="4"/>
-      <c r="BM71" s="51">
-        <f>SUM(BM4:BM70)</f>
-        <v>1052655</v>
-      </c>
-      <c r="BN71" s="51"/>
-    </row>
-    <row r="87" spans="2:2" ht="32.25">
-      <c r="B87" s="4" t="s">
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+    </row>
+    <row r="49" spans="15:35" ht="15" customHeight="1">
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+    </row>
+    <row r="50" spans="15:35" ht="15" customHeight="1">
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+    </row>
+    <row r="51" spans="15:35" ht="36" customHeight="1">
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+    </row>
+    <row r="52" spans="15:35" ht="15" customHeight="1">
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+    </row>
+    <row r="53" spans="15:35" ht="15" customHeight="1">
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+    </row>
+    <row r="54" spans="15:35" ht="15" customHeight="1">
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+    </row>
+    <row r="55" spans="15:35" ht="15" customHeight="1">
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+    </row>
+    <row r="56" spans="15:35" ht="15" customHeight="1">
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+    </row>
+    <row r="79" spans="64:66" ht="32.25">
+      <c r="BL79" s="4"/>
+      <c r="BM79" s="52">
+        <f>SUM(BM4:BM78)</f>
+        <v>1305361</v>
+      </c>
+      <c r="BN79" s="52"/>
+    </row>
+    <row r="95" spans="2:2" ht="32.25">
+      <c r="B95" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4218,7 +4540,7 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="AV21:AV22"/>
     <mergeCell ref="AX21:AX22"/>
-    <mergeCell ref="BM71:BN71"/>
+    <mergeCell ref="BM79:BN79"/>
     <mergeCell ref="AV24:AV25"/>
     <mergeCell ref="AX24:AX25"/>
     <mergeCell ref="AV27:AV28"/>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Mehedi</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Saving Money</t>
+  </si>
+  <si>
+    <t>27 Aprl</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM40" sqref="BM40"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM42" sqref="BM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1245,17 +1248,23 @@
       <c r="AM4" s="13">
         <v>0</v>
       </c>
+      <c r="AN4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="13">
+        <v>0</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>17</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>749.43973941368085</v>
+        <v>753.580547112462</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1263,7 +1272,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-349.43973941368085</v>
+        <v>-353.580547112462</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1411,17 +1420,23 @@
       <c r="AM5" s="13">
         <v>4</v>
       </c>
+      <c r="AN5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="13">
+        <v>0</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>1300.498371335505</v>
+        <v>1352.0121580547111</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1429,7 +1444,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>-200.498371335505</v>
+        <v>-252.01215805471111</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1574,17 +1589,23 @@
       <c r="AM6" s="13">
         <v>0</v>
       </c>
+      <c r="AN6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>0.5</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>22.042345276872965</v>
+        <v>88.656534954407292</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1592,7 +1613,7 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>207.95765472312704</v>
+        <v>141.34346504559272</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1739,17 +1760,23 @@
       <c r="AM7" s="13">
         <v>3</v>
       </c>
+      <c r="AN7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>0.5</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>1058.0325732899023</v>
+        <v>1174.6990881458967</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1757,7 +1784,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>75.967426710097698</v>
+        <v>-40.699088145896667</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1908,17 +1935,23 @@
       <c r="AM8" s="13">
         <v>3</v>
       </c>
+      <c r="AN8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>0.5</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1388.6677524429967</v>
+        <v>1462.8328267477202</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -1926,7 +1959,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>111.33224755700326</v>
+        <v>37.167173252279781</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -2073,23 +2106,27 @@
       <c r="AM9" s="13">
         <v>3</v>
       </c>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
+      <c r="AN9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>1.5</v>
+      </c>
       <c r="AP9" s="13"/>
       <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1609.0912052117264</v>
+        <v>1773.1306990881458</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -2097,7 +2134,7 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-609.09120521172645</v>
+        <v>-773.13069908814578</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2244,22 +2281,27 @@
       <c r="AM10" s="13">
         <v>5</v>
       </c>
-      <c r="AN10" s="13"/>
+      <c r="AN10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>1.5</v>
+      </c>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>1344.5830618892508</v>
+        <v>1507.161094224924</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2267,7 +2309,7 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>655.41693811074924</v>
+        <v>492.838905775076</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2418,23 +2460,27 @@
       <c r="AM11" s="13">
         <v>3</v>
       </c>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
+      <c r="AN11" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="13">
+        <v>1.5</v>
+      </c>
       <c r="AP11" s="13"/>
       <c r="AQ11" s="13"/>
       <c r="AR11" s="13"/>
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>39</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1565.0065146579805</v>
+        <v>1728.8024316109422</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2442,7 +2488,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>-373.00651465798046</v>
+        <v>-536.80243161094222</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2593,23 +2639,27 @@
       <c r="AM12" s="13">
         <v>6</v>
       </c>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
+      <c r="AN12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>3</v>
+      </c>
       <c r="AP12" s="13"/>
       <c r="AQ12" s="13"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>4496.6384364820851</v>
+        <v>4743.1246200607902</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2617,7 +2667,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>-496.63843648208513</v>
+        <v>-743.12462006079022</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2684,7 +2734,7 @@
       <c r="AV13" s="45"/>
       <c r="AW13" s="46">
         <f>SUM(AW4:AW12)</f>
-        <v>13534</v>
+        <v>14584</v>
       </c>
       <c r="AX13" s="46">
         <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
@@ -2692,7 +2742,7 @@
       </c>
       <c r="AY13" s="46">
         <f t="shared" si="6"/>
-        <v>-978.00000000000068</v>
+        <v>-2027.9999999999995</v>
       </c>
       <c r="AZ13"/>
       <c r="BA13"/>
@@ -2861,11 +2911,11 @@
       </c>
       <c r="AN14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP14" s="24">
         <f t="shared" si="7"/>
@@ -2885,7 +2935,7 @@
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -2894,7 +2944,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>-978.00000000000068</v>
+        <v>-2027.9999999999995</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -2956,7 +3006,7 @@
       </c>
       <c r="BB15" s="29">
         <f>SUM(BJ5:BJ43)</f>
-        <v>13534</v>
+        <v>14584</v>
       </c>
       <c r="BE15" s="17"/>
       <c r="BF15" s="16">
@@ -3049,14 +3099,14 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>-978.00000000000068</v>
+        <v>-2027.9999999999995</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>3022</v>
+        <v>1972</v>
       </c>
       <c r="BE17" s="17"/>
       <c r="BF17" s="16">
@@ -3259,7 +3309,7 @@
       <c r="AW21" s="24"/>
       <c r="AX21" s="51">
         <f>SUM(AU4:AU12)</f>
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="BE21" s="17"/>
       <c r="BF21" s="16">
@@ -3396,7 +3446,7 @@
       <c r="AW24" s="24"/>
       <c r="AX24" s="51">
         <f>SUM(BJ5:BJ43)</f>
-        <v>13534</v>
+        <v>14584</v>
       </c>
       <c r="BE24" s="17"/>
       <c r="BF24" s="16">
@@ -3534,7 +3584,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="51">
         <f>AX24/AX21</f>
-        <v>44.084690553745929</v>
+        <v>44.328267477203646</v>
       </c>
       <c r="BE27" s="17"/>
       <c r="BF27" s="16">
@@ -4122,8 +4172,19 @@
       <c r="AW40" s="21"/>
       <c r="AX40" s="21"/>
       <c r="BE40" s="17"/>
-      <c r="BJ40" s="11"/>
-      <c r="BM40" s="47"/>
+      <c r="BF40" s="16">
+        <v>220</v>
+      </c>
+      <c r="BJ40" s="11">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM40" s="47">
+        <v>42120</v>
+      </c>
     </row>
     <row r="41" spans="15:90" ht="61.5">
       <c r="O41"/>
@@ -4153,8 +4214,19 @@
       <c r="AW41" s="21"/>
       <c r="AX41" s="21"/>
       <c r="BE41" s="17"/>
-      <c r="BJ41" s="11"/>
-      <c r="BM41" s="47"/>
+      <c r="BF41" s="16">
+        <v>830</v>
+      </c>
+      <c r="BJ41" s="11">
+        <f t="shared" si="5"/>
+        <v>830</v>
+      </c>
+      <c r="BL41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM41" s="47" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="15:90" ht="61.5">
       <c r="O42"/>
@@ -4306,7 +4378,7 @@
       <c r="BI46" s="11"/>
       <c r="BJ46" s="39">
         <f>SUM(BJ5:BJ43)</f>
-        <v>13534</v>
+        <v>14584</v>
       </c>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
@@ -4525,7 +4597,7 @@
       <c r="BL79" s="4"/>
       <c r="BM79" s="52">
         <f>SUM(BM4:BM78)</f>
-        <v>1305361</v>
+        <v>1347481</v>
       </c>
       <c r="BN79" s="52"/>
     </row>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>Mehedi</t>
   </si>
@@ -829,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL95"/>
+  <dimension ref="A1:CL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM42" sqref="BM42"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1254,17 +1254,26 @@
       <c r="AO4" s="13">
         <v>0</v>
       </c>
+      <c r="AP4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>0</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>17</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>753.580547112462</v>
+        <v>719.57062146892656</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1272,7 +1281,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-353.580547112462</v>
+        <v>-319.57062146892656</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1426,17 +1435,20 @@
       <c r="AO5" s="13">
         <v>0</v>
       </c>
+      <c r="AP5" s="13">
+        <v>3</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>33.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>1352.0121580547111</v>
+        <v>1417.9774011299435</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1444,7 +1456,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>-252.01215805471111</v>
+        <v>-317.97740112994347</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1595,17 +1607,23 @@
       <c r="AO6" s="13">
         <v>0.5</v>
       </c>
+      <c r="AP6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>1</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>88.656534954407292</v>
+        <v>126.98305084745763</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1613,7 +1631,7 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>141.34346504559272</v>
+        <v>103.01694915254237</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1625,7 +1643,7 @@
         <v>935</v>
       </c>
       <c r="BJ6" s="11">
-        <f t="shared" ref="BJ6:BJ43" si="5">SUM(BF6:BI6)</f>
+        <f t="shared" ref="BJ6:BJ45" si="5">SUM(BF6:BI6)</f>
         <v>935</v>
       </c>
       <c r="BL6" t="s">
@@ -1766,17 +1784,23 @@
       <c r="AO7" s="13">
         <v>0.5</v>
       </c>
+      <c r="AP7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>0</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>1174.6990881458967</v>
+        <v>1121.6836158192091</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1784,7 +1808,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>-40.699088145896667</v>
+        <v>12.316384180790919</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1941,17 +1965,23 @@
       <c r="AO8" s="13">
         <v>0.5</v>
       </c>
+      <c r="AP8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>1</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1462.8328267477202</v>
+        <v>1481.4689265536724</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -1959,7 +1989,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>37.167173252279781</v>
+        <v>18.531073446327582</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -2112,21 +2142,25 @@
       <c r="AO9" s="13">
         <v>1.5</v>
       </c>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
+      <c r="AP9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>2</v>
+      </c>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1773.1306990881458</v>
+        <v>1862.4180790960454</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -2134,7 +2168,7 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-773.13069908814578</v>
+        <v>-862.4180790960454</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2287,21 +2321,25 @@
       <c r="AO10" s="13">
         <v>1.5</v>
       </c>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
+      <c r="AP10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>1</v>
+      </c>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>1507.161094224924</v>
+        <v>1566.1242937853108</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2309,7 +2347,7 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>492.838905775076</v>
+        <v>433.87570621468922</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2466,21 +2504,25 @@
       <c r="AO11" s="13">
         <v>1.5</v>
       </c>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
+      <c r="AP11" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="13">
+        <v>2</v>
+      </c>
       <c r="AR11" s="13"/>
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1728.8024316109422</v>
+        <v>1820.0903954802261</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2488,7 +2530,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>-536.80243161094222</v>
+        <v>-628.09039548022611</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2645,21 +2687,25 @@
       <c r="AO12" s="13">
         <v>3</v>
       </c>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
+      <c r="AP12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>4</v>
+      </c>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>4743.1246200607902</v>
+        <v>4867.6836158192091</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2667,7 +2713,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>-743.12462006079022</v>
+        <v>-867.68361581920908</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2734,7 +2780,7 @@
       <c r="AV13" s="45"/>
       <c r="AW13" s="46">
         <f>SUM(AW4:AW12)</f>
-        <v>14584</v>
+        <v>14984</v>
       </c>
       <c r="AX13" s="46">
         <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
@@ -2742,7 +2788,7 @@
       </c>
       <c r="AY13" s="46">
         <f t="shared" si="6"/>
-        <v>-2027.9999999999995</v>
+        <v>-2428.0000000000005</v>
       </c>
       <c r="AZ13"/>
       <c r="BA13"/>
@@ -2919,11 +2965,11 @@
       </c>
       <c r="AP14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR14" s="24">
         <f t="shared" si="7"/>
@@ -2935,7 +2981,7 @@
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -2944,7 +2990,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>-2027.9999999999995</v>
+        <v>-2428.0000000000005</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -3005,8 +3051,8 @@
         <v>6</v>
       </c>
       <c r="BB15" s="29">
-        <f>SUM(BJ5:BJ43)</f>
-        <v>14584</v>
+        <f>SUM(BJ5:BJ45)</f>
+        <v>14984</v>
       </c>
       <c r="BE15" s="17"/>
       <c r="BF15" s="16">
@@ -3099,14 +3145,14 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>-2027.9999999999995</v>
+        <v>-2428.0000000000005</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>1972</v>
+        <v>1572</v>
       </c>
       <c r="BE17" s="17"/>
       <c r="BF17" s="16">
@@ -3309,7 +3355,7 @@
       <c r="AW21" s="24"/>
       <c r="AX21" s="51">
         <f>SUM(AU4:AU12)</f>
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="BE21" s="17"/>
       <c r="BF21" s="16">
@@ -3445,8 +3491,8 @@
       </c>
       <c r="AW24" s="24"/>
       <c r="AX24" s="51">
-        <f>SUM(BJ5:BJ43)</f>
-        <v>14584</v>
+        <f>SUM(BJ5:BJ45)</f>
+        <v>14984</v>
       </c>
       <c r="BE24" s="17"/>
       <c r="BF24" s="16">
@@ -3584,7 +3630,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="51">
         <f>AX24/AX21</f>
-        <v>44.328267477203646</v>
+        <v>42.327683615819211</v>
       </c>
       <c r="BE27" s="17"/>
       <c r="BF27" s="16">
@@ -4256,8 +4302,19 @@
       <c r="AW42" s="21"/>
       <c r="AX42" s="21"/>
       <c r="BE42" s="17"/>
-      <c r="BJ42" s="11"/>
-      <c r="BM42" s="47"/>
+      <c r="BF42" s="16">
+        <v>400</v>
+      </c>
+      <c r="BJ42" s="11">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="47">
+        <v>42123</v>
+      </c>
     </row>
     <row r="43" spans="15:90" ht="61.5">
       <c r="O43"/>
@@ -4286,16 +4343,11 @@
       <c r="AU43" s="3"/>
       <c r="AW43" s="21"/>
       <c r="AX43" s="21"/>
-      <c r="BE43" s="17">
-        <v>31</v>
-      </c>
-      <c r="BJ43" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM43" s="11"/>
-    </row>
-    <row r="44" spans="15:90" ht="15" customHeight="1">
+      <c r="BE43" s="17"/>
+      <c r="BJ43" s="11"/>
+      <c r="BM43" s="47"/>
+    </row>
+    <row r="44" spans="15:90" ht="61.5">
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
@@ -4316,17 +4368,17 @@
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
-      <c r="BE44" s="18"/>
-      <c r="BF44" s="18"/>
-      <c r="BG44" s="11"/>
-      <c r="BH44" s="11"/>
-      <c r="BI44" s="11"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="BE44" s="17"/>
       <c r="BJ44" s="11"/>
-      <c r="BK44" s="11"/>
-      <c r="BL44" s="11"/>
-      <c r="BM44" s="11"/>
-    </row>
-    <row r="45" spans="15:90" ht="15" customHeight="1">
+      <c r="BM44" s="47"/>
+    </row>
+    <row r="45" spans="15:90" ht="61.5">
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
@@ -4347,8 +4399,22 @@
       <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
-    </row>
-    <row r="46" spans="15:90" ht="23.25">
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AW45" s="21"/>
+      <c r="AX45" s="21"/>
+      <c r="BE45" s="17">
+        <v>31</v>
+      </c>
+      <c r="BJ45" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BM45" s="11"/>
+    </row>
+    <row r="46" spans="15:90" ht="15" customHeight="1">
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
@@ -4369,17 +4435,12 @@
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
-      <c r="BE46" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="BE46" s="18"/>
       <c r="BF46" s="18"/>
       <c r="BG46" s="11"/>
       <c r="BH46" s="11"/>
       <c r="BI46" s="11"/>
-      <c r="BJ46" s="39">
-        <f>SUM(BJ5:BJ43)</f>
-        <v>14584</v>
-      </c>
+      <c r="BJ46" s="11"/>
       <c r="BK46" s="11"/>
       <c r="BL46" s="11"/>
       <c r="BM46" s="11"/>
@@ -4406,7 +4467,7 @@
       <c r="AH47"/>
       <c r="AI47"/>
     </row>
-    <row r="48" spans="15:90" ht="15" customHeight="1">
+    <row r="48" spans="15:90" ht="23.25">
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
@@ -4427,6 +4488,20 @@
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
+      <c r="BE48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF48" s="18"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="39">
+        <f>SUM(BJ5:BJ45)</f>
+        <v>14984</v>
+      </c>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="11"/>
+      <c r="BM48" s="11"/>
     </row>
     <row r="49" spans="15:35" ht="15" customHeight="1">
       <c r="O49"/>
@@ -4472,7 +4547,7 @@
       <c r="AH50"/>
       <c r="AI50"/>
     </row>
-    <row r="51" spans="15:35" ht="36" customHeight="1">
+    <row r="51" spans="15:35" ht="15" customHeight="1">
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
@@ -4516,7 +4591,7 @@
       <c r="AH52"/>
       <c r="AI52"/>
     </row>
-    <row r="53" spans="15:35" ht="15" customHeight="1">
+    <row r="53" spans="15:35" ht="36" customHeight="1">
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
@@ -4592,17 +4667,61 @@
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
-    </row>
-    <row r="79" spans="64:66" ht="32.25">
-      <c r="BL79" s="4"/>
-      <c r="BM79" s="52">
-        <f>SUM(BM4:BM78)</f>
-        <v>1347481</v>
-      </c>
-      <c r="BN79" s="52"/>
-    </row>
-    <row r="95" spans="2:2" ht="32.25">
-      <c r="B95" s="4" t="s">
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+    </row>
+    <row r="57" spans="15:35" ht="15" customHeight="1">
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+    </row>
+    <row r="58" spans="15:35" ht="15" customHeight="1">
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+    </row>
+    <row r="81" spans="64:66" ht="32.25">
+      <c r="BL81" s="4"/>
+      <c r="BM81" s="52">
+        <f>SUM(BM4:BM80)</f>
+        <v>1389604</v>
+      </c>
+      <c r="BN81" s="52"/>
+    </row>
+    <row r="97" spans="2:2" ht="32.25">
+      <c r="B97" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4612,7 +4731,7 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="AV21:AV22"/>
     <mergeCell ref="AX21:AX22"/>
-    <mergeCell ref="BM79:BN79"/>
+    <mergeCell ref="BM81:BN81"/>
     <mergeCell ref="AV24:AV25"/>
     <mergeCell ref="AX24:AX25"/>
     <mergeCell ref="AV27:AV28"/>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>Mehedi</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS4" sqref="AS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,11 +1269,11 @@
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>719.57062146892656</v>
+        <v>737.14402173913038</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-319.57062146892656</v>
+        <v>-337.14402173913038</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1438,17 +1438,20 @@
       <c r="AP5" s="13">
         <v>3</v>
       </c>
+      <c r="AR5" s="1">
+        <v>2</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>1417.9774011299435</v>
+        <v>1539.3301630434783</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1456,7 +1459,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>-317.97740112994347</v>
+        <v>-439.33016304347825</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1613,17 +1616,20 @@
       <c r="AQ6" s="13">
         <v>1</v>
       </c>
+      <c r="AR6" s="13">
+        <v>1</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>126.98305084745763</v>
+        <v>173.44565217391303</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1631,7 +1637,7 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>103.01694915254237</v>
+        <v>56.554347826086968</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1790,17 +1796,20 @@
       <c r="AQ7" s="13">
         <v>0</v>
       </c>
+      <c r="AR7" s="13">
+        <v>1</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>1121.6836158192091</v>
+        <v>1192.438858695652</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1808,7 +1817,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>12.316384180790919</v>
+        <v>-58.438858695652016</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1971,17 +1980,20 @@
       <c r="AQ8" s="13">
         <v>1</v>
       </c>
+      <c r="AR8" s="13">
+        <v>1</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1481.4689265536724</v>
+        <v>1561.0108695652173</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -1989,7 +2001,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>18.531073446327582</v>
+        <v>-61.010869565217263</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -2043,8 +2055,12 @@
       <c r="B9" s="5">
         <v>1000</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5">
+        <v>235</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2053,7 +2069,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="6">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="M9" s="14">
         <v>6</v>
@@ -2148,27 +2164,29 @@
       <c r="AQ9" s="13">
         <v>2</v>
       </c>
-      <c r="AR9" s="13"/>
+      <c r="AR9" s="13">
+        <v>2</v>
+      </c>
       <c r="AS9" s="13"/>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1862.4180790960454</v>
+        <v>1994.6249999999998</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-862.4180790960454</v>
+        <v>-659.62499999999977</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2327,19 +2345,21 @@
       <c r="AQ10" s="13">
         <v>1</v>
       </c>
-      <c r="AR10" s="13"/>
+      <c r="AR10" s="13">
+        <v>1</v>
+      </c>
       <c r="AS10" s="13"/>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>1566.1242937853108</v>
+        <v>1647.7336956521738</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2347,7 +2367,7 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>433.87570621468922</v>
+        <v>352.26630434782624</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2510,19 +2530,21 @@
       <c r="AQ11" s="13">
         <v>2</v>
       </c>
-      <c r="AR11" s="13"/>
+      <c r="AR11" s="13">
+        <v>2</v>
+      </c>
       <c r="AS11" s="13"/>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1820.0903954802261</v>
+        <v>1951.2635869565215</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2530,7 +2552,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>-628.09039548022611</v>
+        <v>-759.26358695652152</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2693,19 +2715,21 @@
       <c r="AQ12" s="13">
         <v>4</v>
       </c>
-      <c r="AR12" s="13"/>
+      <c r="AR12" s="13">
+        <v>4</v>
+      </c>
       <c r="AS12" s="13"/>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>4867.6836158192091</v>
+        <v>5160.008152173913</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2713,7 +2737,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>-867.68361581920908</v>
+        <v>-1160.008152173913</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2780,15 +2804,15 @@
       <c r="AV13" s="45"/>
       <c r="AW13" s="46">
         <f>SUM(AW4:AW12)</f>
-        <v>14984</v>
+        <v>15957</v>
       </c>
       <c r="AX13" s="46">
         <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
-        <v>12556</v>
+        <v>12891</v>
       </c>
       <c r="AY13" s="46">
         <f t="shared" si="6"/>
-        <v>-2428.0000000000005</v>
+        <v>-3065.9999999999991</v>
       </c>
       <c r="AZ13"/>
       <c r="BA13"/>
@@ -2848,7 +2872,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="6">
         <f>SUM(K4:K13)</f>
-        <v>16556</v>
+        <v>16891</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="14"/>
@@ -2973,7 +2997,7 @@
       </c>
       <c r="AR14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS14" s="24">
         <f t="shared" si="7"/>
@@ -2981,7 +3005,7 @@
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -2990,7 +3014,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>-2428.0000000000005</v>
+        <v>-3065.9999999999991</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -2998,7 +3022,7 @@
       </c>
       <c r="BB14" s="28">
         <f>SUM(K4:K13)</f>
-        <v>16556</v>
+        <v>16891</v>
       </c>
       <c r="BE14" s="17"/>
       <c r="BF14" s="16">
@@ -3052,7 +3076,7 @@
       </c>
       <c r="BB15" s="29">
         <f>SUM(BJ5:BJ45)</f>
-        <v>14984</v>
+        <v>15957</v>
       </c>
       <c r="BE15" s="17"/>
       <c r="BF15" s="16">
@@ -3145,14 +3169,14 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>-2428.0000000000005</v>
+        <v>-3065.9999999999991</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>1572</v>
+        <v>934</v>
       </c>
       <c r="BE17" s="17"/>
       <c r="BF17" s="16">
@@ -3355,7 +3379,7 @@
       <c r="AW21" s="24"/>
       <c r="AX21" s="51">
         <f>SUM(AU4:AU12)</f>
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="BE21" s="17"/>
       <c r="BF21" s="16">
@@ -3492,7 +3516,7 @@
       <c r="AW24" s="24"/>
       <c r="AX24" s="51">
         <f>SUM(BJ5:BJ45)</f>
-        <v>14984</v>
+        <v>15957</v>
       </c>
       <c r="BE24" s="17"/>
       <c r="BF24" s="16">
@@ -3630,7 +3654,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="51">
         <f>AX24/AX21</f>
-        <v>42.327683615819211</v>
+        <v>43.361413043478258</v>
       </c>
       <c r="BE27" s="17"/>
       <c r="BF27" s="16">
@@ -4344,8 +4368,19 @@
       <c r="AW43" s="21"/>
       <c r="AX43" s="21"/>
       <c r="BE43" s="17"/>
-      <c r="BJ43" s="11"/>
-      <c r="BM43" s="47"/>
+      <c r="BF43" s="16">
+        <v>588</v>
+      </c>
+      <c r="BJ43" s="11">
+        <f t="shared" si="5"/>
+        <v>588</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM43" s="47">
+        <v>42123</v>
+      </c>
     </row>
     <row r="44" spans="15:90" ht="61.5">
       <c r="O44"/>
@@ -4375,8 +4410,19 @@
       <c r="AW44" s="21"/>
       <c r="AX44" s="21"/>
       <c r="BE44" s="17"/>
-      <c r="BJ44" s="11"/>
-      <c r="BM44" s="47"/>
+      <c r="BF44" s="16">
+        <v>385</v>
+      </c>
+      <c r="BJ44" s="11">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="BL44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM44" s="47">
+        <v>42124</v>
+      </c>
     </row>
     <row r="45" spans="15:90" ht="61.5">
       <c r="O45"/>
@@ -4497,7 +4543,7 @@
       <c r="BI48" s="11"/>
       <c r="BJ48" s="39">
         <f>SUM(BJ5:BJ45)</f>
-        <v>14984</v>
+        <v>15957</v>
       </c>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
@@ -4716,7 +4762,7 @@
       <c r="BL81" s="4"/>
       <c r="BM81" s="52">
         <f>SUM(BM4:BM80)</f>
-        <v>1389604</v>
+        <v>1473851</v>
       </c>
       <c r="BN81" s="52"/>
     </row>

--- a/April 2015.xlsx
+++ b/April 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>Mehedi</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM46" sqref="BM46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,17 +1263,20 @@
       <c r="AR4" s="13">
         <v>0</v>
       </c>
+      <c r="AS4" s="13">
+        <v>0</v>
+      </c>
       <c r="AU4" s="1">
         <f t="shared" ref="AU4:AU12" si="0">SUM(O4:AT4)</f>
         <v>17</v>
       </c>
       <c r="AV4" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW4" s="3">
         <f>AU4*AV4</f>
-        <v>737.14402173913038</v>
+        <v>725.1973333333334</v>
       </c>
       <c r="AX4" s="6">
         <f>SUM(B4:J4)</f>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="AY4">
         <f>AX4-AW4</f>
-        <v>-337.14402173913038</v>
+        <v>-325.1973333333334</v>
       </c>
       <c r="AZ4" s="9" t="s">
         <v>9</v>
@@ -1441,17 +1444,20 @@
       <c r="AR5" s="1">
         <v>2</v>
       </c>
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
       <c r="AU5" s="1">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="AV5" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW5" s="3">
         <f t="shared" ref="AW5:AW12" si="1">AU5*AV5</f>
-        <v>1539.3301630434783</v>
+        <v>1557.0413333333333</v>
       </c>
       <c r="AX5" s="6">
         <f>SUM(B5:J5)</f>
@@ -1459,7 +1465,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ref="AY5:AY12" si="2">AX5-AW5</f>
-        <v>-439.33016304347825</v>
+        <v>-457.04133333333334</v>
       </c>
       <c r="AZ5" s="9" t="s">
         <v>10</v>
@@ -1619,17 +1625,20 @@
       <c r="AR6" s="13">
         <v>1</v>
       </c>
+      <c r="AS6" s="13">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AV6" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="1"/>
-        <v>173.44565217391303</v>
+        <v>170.63466666666667</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" ref="AX6:AX12" si="4">SUM(B6:J6)</f>
@@ -1637,7 +1646,7 @@
       </c>
       <c r="AY6">
         <f t="shared" si="2"/>
-        <v>56.554347826086968</v>
+        <v>59.365333333333325</v>
       </c>
       <c r="AZ6" s="9" t="s">
         <v>11</v>
@@ -1799,17 +1808,20 @@
       <c r="AR7" s="13">
         <v>1</v>
       </c>
+      <c r="AS7" s="13">
+        <v>1</v>
+      </c>
       <c r="AU7" s="1">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="AV7" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="1"/>
-        <v>1192.438858695652</v>
+        <v>1215.7720000000002</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="4"/>
@@ -1817,7 +1829,7 @@
       </c>
       <c r="AY7">
         <f t="shared" si="2"/>
-        <v>-58.438858695652016</v>
+        <v>-81.772000000000162</v>
       </c>
       <c r="AZ7" s="9" t="s">
         <v>12</v>
@@ -1983,17 +1995,20 @@
       <c r="AR8" s="13">
         <v>1</v>
       </c>
+      <c r="AS8" s="13">
+        <v>1</v>
+      </c>
       <c r="AU8" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AV8" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW8" s="3">
         <f t="shared" si="1"/>
-        <v>1561.0108695652173</v>
+        <v>1578.3706666666667</v>
       </c>
       <c r="AX8" s="6">
         <f t="shared" si="4"/>
@@ -2001,7 +2016,7 @@
       </c>
       <c r="AY8">
         <f t="shared" si="2"/>
-        <v>-61.010869565217263</v>
+        <v>-78.370666666666693</v>
       </c>
       <c r="AZ8" s="9" t="s">
         <v>13</v>
@@ -2167,18 +2182,20 @@
       <c r="AR9" s="13">
         <v>2</v>
       </c>
-      <c r="AS9" s="13"/>
+      <c r="AS9" s="13">
+        <v>0</v>
+      </c>
       <c r="AU9" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="AV9" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="1"/>
-        <v>1994.6249999999998</v>
+        <v>1962.2986666666668</v>
       </c>
       <c r="AX9" s="6">
         <f t="shared" si="4"/>
@@ -2186,7 +2203,7 @@
       </c>
       <c r="AY9">
         <f t="shared" si="2"/>
-        <v>-659.62499999999977</v>
+        <v>-627.2986666666668</v>
       </c>
       <c r="AZ9" s="9" t="s">
         <v>14</v>
@@ -2348,18 +2365,20 @@
       <c r="AR10" s="13">
         <v>1</v>
       </c>
-      <c r="AS10" s="13"/>
+      <c r="AS10" s="13">
+        <v>1</v>
+      </c>
       <c r="AU10" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AV10" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW10" s="3">
         <f t="shared" si="1"/>
-        <v>1647.7336956521738</v>
+        <v>1663.6880000000001</v>
       </c>
       <c r="AX10" s="6">
         <f t="shared" si="4"/>
@@ -2367,7 +2386,7 @@
       </c>
       <c r="AY10">
         <f t="shared" si="2"/>
-        <v>352.26630434782624</v>
+        <v>336.3119999999999</v>
       </c>
       <c r="AZ10" s="9" t="s">
         <v>15</v>
@@ -2533,18 +2552,20 @@
       <c r="AR11" s="13">
         <v>2</v>
       </c>
-      <c r="AS11" s="13"/>
+      <c r="AS11" s="13">
+        <v>1</v>
+      </c>
       <c r="AU11" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV11" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" si="1"/>
-        <v>1951.2635869565215</v>
+        <v>1962.2986666666668</v>
       </c>
       <c r="AX11" s="6">
         <f t="shared" si="4"/>
@@ -2552,7 +2573,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="2"/>
-        <v>-759.26358695652152</v>
+        <v>-770.2986666666668</v>
       </c>
       <c r="AZ11" s="9" t="s">
         <v>16</v>
@@ -2718,18 +2739,20 @@
       <c r="AR12" s="13">
         <v>4</v>
       </c>
-      <c r="AS12" s="13"/>
+      <c r="AS12" s="13">
+        <v>2</v>
+      </c>
       <c r="AU12" s="1">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AV12" s="3">
         <f>AX27</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="AW12" s="3">
         <f t="shared" si="1"/>
-        <v>5160.008152173913</v>
+        <v>5161.6986666666671</v>
       </c>
       <c r="AX12" s="6">
         <f t="shared" si="4"/>
@@ -2737,7 +2760,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="2"/>
-        <v>-1160.008152173913</v>
+        <v>-1161.6986666666671</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>0</v>
@@ -2804,7 +2827,7 @@
       <c r="AV13" s="45"/>
       <c r="AW13" s="46">
         <f>SUM(AW4:AW12)</f>
-        <v>15957</v>
+        <v>15997.000000000002</v>
       </c>
       <c r="AX13" s="46">
         <f t="shared" ref="AX13:AY13" si="6">SUM(AX4:AX12)</f>
@@ -2812,7 +2835,7 @@
       </c>
       <c r="AY13" s="46">
         <f t="shared" si="6"/>
-        <v>-3065.9999999999991</v>
+        <v>-3106.0000000000009</v>
       </c>
       <c r="AZ13"/>
       <c r="BA13"/>
@@ -3001,11 +3024,11 @@
       </c>
       <c r="AS14" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU14" s="24">
         <f>SUM(AU4:AU12)</f>
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AW14"/>
@@ -3014,7 +3037,7 @@
       </c>
       <c r="AY14" s="27">
         <f>SUM(AY4:AY12)</f>
-        <v>-3065.9999999999991</v>
+        <v>-3106.0000000000009</v>
       </c>
       <c r="AZ14"/>
       <c r="BA14" s="28" t="s">
@@ -3076,7 +3099,7 @@
       </c>
       <c r="BB15" s="29">
         <f>SUM(BJ5:BJ45)</f>
-        <v>15957</v>
+        <v>15997</v>
       </c>
       <c r="BE15" s="17"/>
       <c r="BF15" s="16">
@@ -3169,14 +3192,14 @@
       </c>
       <c r="AY17" s="26">
         <f>SUM(AY14:AY15)</f>
-        <v>-3065.9999999999991</v>
+        <v>-3106.0000000000009</v>
       </c>
       <c r="BA17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BB17" s="31">
         <f>BB14-BB15</f>
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="BE17" s="17"/>
       <c r="BF17" s="16">
@@ -3379,7 +3402,7 @@
       <c r="AW21" s="24"/>
       <c r="AX21" s="51">
         <f>SUM(AU4:AU12)</f>
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="BE21" s="17"/>
       <c r="BF21" s="16">
@@ -3516,7 +3539,7 @@
       <c r="AW24" s="24"/>
       <c r="AX24" s="51">
         <f>SUM(BJ5:BJ45)</f>
-        <v>15957</v>
+        <v>15997</v>
       </c>
       <c r="BE24" s="17"/>
       <c r="BF24" s="16">
@@ -3654,7 +3677,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="51">
         <f>AX24/AX21</f>
-        <v>43.361413043478258</v>
+        <v>42.658666666666669</v>
       </c>
       <c r="BE27" s="17"/>
       <c r="BF27" s="16">
@@ -4454,11 +4477,19 @@
       <c r="BE45" s="17">
         <v>31</v>
       </c>
+      <c r="BF45" s="16">
+        <v>40</v>
+      </c>
       <c r="BJ45" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM45" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="BL45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="47">
+        <v>42124</v>
+      </c>
     </row>
     <row r="46" spans="15:90" ht="15" customHeight="1">
       <c r="O46"/>
@@ -4543,7 +4574,7 @@
       <c r="BI48" s="11"/>
       <c r="BJ48" s="39">
         <f>SUM(BJ5:BJ45)</f>
-        <v>15957</v>
+        <v>15997</v>
       </c>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
@@ -4762,7 +4793,7 @@
       <c r="BL81" s="4"/>
       <c r="BM81" s="52">
         <f>SUM(BM4:BM80)</f>
-        <v>1473851</v>
+        <v>1515975</v>
       </c>
       <c r="BN81" s="52"/>
     </row>
